--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Eclipse Project_Shiyun\LeetCode_Shiyun\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="361">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -1592,6 +1592,101 @@
   </si>
   <si>
     <t>Bloomberg</t>
+  </si>
+  <si>
+    <t>思路：
+1. 用循环来改变subString的长度
+2. 用递归来增加subString的个数
+步骤
+1. 终止条件： subString.length() == 0
+2. 循环条件： 从1开始取，取到== str.length (因为substring方法后面一个数是开区间)
+3. 递归参数： substring和palindrome substring list
+4. list 加入后要remove
+5. res加入list要new一个list</t>
+  </si>
+  <si>
+    <t>Gray Code</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">规律（已发现）
+1. 第n个用第n-1的结果，把n-1结果先顺序再倒序（中心对称）
+2. 前一半前面加0，后一半前面加1
+位运算（未想到）
+1.在之前的结果前面加1在位运算看来是在最高位加1
+也就是加2^(n-1), n为当前n的数（一共要几位）， n是总长
+n-1是最大的index数，因此可用1&lt;&lt; (n-1)作为上一轮数字的通用加数
+2.前面加0在位运算里不用管。所以步骤就是倒着循环上一组的结果，加上通用加数后加入res里
+</t>
+  </si>
+  <si>
+    <t>The gray code is a binary numeral system where two successive values differ in only one bit.
+Given a non-negative integer n representing the total number of bits in the code, print the sequence of gray code. A gray code sequence must begin with 0.
+For example, given n = 2, return [0,1,3,2]. Its gray code sequence is:
+00 - 0
+01 - 1
+11 - 3
+10 - 2</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>Combination Sum III</t>
+  </si>
+  <si>
+    <t>Find all possible combinations of k numbers that add up to a number n, given that only numbers from 1 to 9 can be used and each combination should be a unique set of numbers.
+Example 1:
+Input: k = 3, n = 7
+Output: 
+[[1,2,4]]</t>
+  </si>
+  <si>
+    <t>Given two integers n and k, return all possible combinations of k numbers out of 1 ... n. 
+For example,
+If n = 4 and k = 2, a solution is: 
+[
+  [2,4],
+  [3,4],
+  [2,3],
+  [1,2],
+  [1,3],
+  [1,4],
+]</t>
+  </si>
+  <si>
+    <t>Classic backtracking</t>
+  </si>
+  <si>
+    <t>Permutation Sequence</t>
+  </si>
+  <si>
+    <t>The set [1,2,3,…,n] contains a total of n! unique permutations.
+By listing and labeling all of the permutations in order,
+We get the following sequence (ie, for n = 3): 
+"123"
+"132"
+"213"
+"231"
+"312"
+"321"
+Given n and k, return the kth permutation sequence.
+Note: Given n will be between 1 and 9 inclusive.</t>
+  </si>
+  <si>
+    <t>Steps:
+1.Use (Linked)List to store all numbers n, remove when visited.
+2. Create an array of factorial for look up
+3. loop until n == 0
+把第k个的k拿来分，分法是÷(n-1)!得到在某一位的组的位置。
+题目告诉我们：对于n个数可以有n!种排列；那么n-1个数就有(n-1)!种排列。那么对于n位数来说，如果除去最高位不看，后面的n-1位就有 (n-1)! 种排列。
+所以，还是对于n位数来说，每一个不同的最高位数，后面可以拼接(n-1)!种排列。所以你就可以看成是按照每组(n-1)!个这样分组。 利用 k/(n-1)!  可以取得最高位在数列中的index。
+这样第k个排列的最高位就能从数列中的index位取得，此时还要把这个数从数列中删除。然后，新的k就可以有k%(n-1)!获得。循环n次即可。 同时，为了可以跟数组坐标对其，令k先--。</t>
+  </si>
+  <si>
+    <t>TLE then AC Hint</t>
   </si>
 </sst>
 </file>
@@ -4477,12 +4572,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG118"/>
+  <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="91" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
+      <selection pane="bottomLeft" activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8669,11 +8764,14 @@
       <c r="I117" t="s">
         <v>5</v>
       </c>
+      <c r="R117" s="9" t="s">
+        <v>349</v>
+      </c>
       <c r="AD117" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:30" ht="145" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>46</v>
       </c>
@@ -8686,8 +8784,139 @@
       <c r="D118" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="E118" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G118" s="10">
+        <v>42716</v>
+      </c>
       <c r="H118" s="9" t="s">
         <v>346</v>
+      </c>
+      <c r="M118" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R118" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD118" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" ht="149" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" s="2">
+        <v>89</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G119" s="10">
+        <v>42718</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="T119" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" ht="174" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" s="2">
+        <v>77</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120" s="10">
+        <v>42718</v>
+      </c>
+      <c r="AD120" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" s="2">
+        <v>216</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G121" s="10">
+        <v>42719</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD121" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" s="2">
+        <v>60</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G122" s="10">
+        <v>42719</v>
+      </c>
+      <c r="N122" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD122" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="373">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -1687,6 +1687,111 @@
   </si>
   <si>
     <t>TLE then AC Hint</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon
+Google
+Dropbox
+Uber
+Facebook
+</t>
+  </si>
+  <si>
+    <t>1. add to result 时必须new
+2. 递归套循环，先找递归终止条件，然后add，递归，remove
+3. 排列的循环开始于0，遇到重复跳过；
+组合的循环开始始于上一个的下一个
+4. 循环是覆盖每个数，广度；递归是深度</t>
+  </si>
+  <si>
+    <t>Given a digit string, return all possible letter combinations that the number could represent. 
+A mapping of digit to letters (just like on the telephone buttons) is given below.
+Input:Digit string "23"
+Output: ["ad", "ae", "af", "bd", "be", "bf", "cd", "ce", "cf"].</t>
+  </si>
+  <si>
+    <t>1. 注意ArrayList的set, get 方法
+2. 递归决定深度，在这题里就是String的长度，一定要递归那么多次才出结果
+2. 循环决定广度，要用循环覆盖每个数，在这里每个循环覆盖一个数字对应的字母数</t>
+  </si>
+  <si>
+    <t>Given a 2D board and a word, find if the word exists in the grid. 
+The word can be constructed from letters of sequentially adjacent cell, where "adjacent" cells are those horizontally or vertically neighboring. The same letter cell may not be used more than once. 
+For example,
+Given board = 
+[
+  ['A','B','C','E'],
+  ['S','F','C','S'],
+  ['A','D','E','E']
+]
+word = "ABCCED", -&gt; returns true,
+word = "SEE", -&gt; returns true,
+word = "ABCB", -&gt; returns false.</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>Microsoft
+Bloomberg
+Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corner Case 1: 重复使用数字,导致输入的word比总board多时还true
+Corner Case 2: 不能每步（上下左右）之后直接return dfs()，不然一个方向false就不往下走了。应该是if dfs() == true return true
+要点：
+clear visited时是去掉刚刚visited的，不是所有visited的
+</t>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits Add to List</t>
+  </si>
+  <si>
+    <t>Given a non-negative integer n, count all numbers with unique digits, x, where 0 ≤ x &lt; 10n.
+Example:
+Given n = 2, return 91. (The answer should be the total numbers in the range of 0 ≤ x &lt; 100, excluding [11,22,33,44,55,66,77,88,99]) 
+Hint:
+A direct way is to use the backtracking approach.
+Backtracking should contains three states which are (the current number, number of steps to get that number and a bitmask which represent which number is marked as visited so far in the current number). Start with state (0,0,0) and count all valid number till we reach number of steps equals to 10n.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">应该顺着想，逆着想花太多时间了。顺着想（unique digits的数字）用组合就可以了
+技巧： 无需建立一个list来储存，只需储存上一个数
+Let f(n) = count of number with unique digits of length n.
+f(1) = 10. (0, 1, 2, 3, ...., 9)
+f(2) = 9 * 9. Because for each number i from 1, ..., 9, we can pick j to form a 2-digit number ij and there are 9 numbers that are different from i for j to choose from.
+f(3) = f(2) * 8 = 9 * 9 * 8. 
+Similarly f(4) = f(3) * 7 = 9 * 9 * 8 * 7....
+f(10) = 9 * 9 * 8 * 7 * 6 * ... * 1
+f(11) = 0 = f(12) = f(13)....
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>any number with length &gt; 10 couldn't be unique digits number.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The problem is asking for numbers from 0 to 10^n. Hence return f(1) + f(2) + .. + f(n)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4572,12 +4677,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG122"/>
+  <dimension ref="A1:AG125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="91" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K122" sqref="K122"/>
+      <selection pane="bottomLeft" activeCell="E130" sqref="E130:E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8919,6 +9024,102 @@
         <v>5</v>
       </c>
     </row>
+    <row r="123" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" s="2">
+        <v>17</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" s="10">
+        <v>42723</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="O123" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD123" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="2">
+        <v>79</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G124" s="10">
+        <v>42723</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L124" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD124" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" s="2">
+        <v>357</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G125" s="10">
+        <v>42723</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC125" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD125" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8930,8 +9131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9007,7 +9208,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -9046,6 +9247,14 @@
         <v>324</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Basic Algorithm" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Record 1'!$A$1:$AE$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Record 1'!$A$1:$AF$128</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="410">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -1747,9 +1747,6 @@
 </t>
   </si>
   <si>
-    <t>Count Numbers with Unique Digits Add to List</t>
-  </si>
-  <si>
     <t>Given a non-negative integer n, count all numbers with unique digits, x, where 0 ≤ x &lt; 10n.
 Example:
 Given n = 2, return 91. (The answer should be the total numbers in the range of 0 ≤ x &lt; 100, excluding [11,22,33,44,55,66,77,88,99]) 
@@ -1792,6 +1789,421 @@
       <t xml:space="preserve">
 The problem is asking for numbers from 0 to 10^n. Hence return f(1) + f(2) + .. + f(n)</t>
     </r>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Moving Average from Data Stream</t>
+  </si>
+  <si>
+    <t>Desgin</t>
+  </si>
+  <si>
+    <t>计算移动平均数
+MovingAverage m = new MovingAverage(3);
+m.next(1) = 1
+m.next(10) = (1 + 10) / 2
+m.next(3) = (1 + 10 + 3) / 3
+m.next(5) = (10 + 3 + 5) / 3</t>
+  </si>
+  <si>
+    <t>注意：
+1. 结果是double，计算时要cast
+2. 需要在class内声明Instance var, 在constructor中initialize, 在方法中被调用
+3. 用list实现queue</t>
+  </si>
+  <si>
+    <t>Corner cases:
+1. empty string input
+2. empty dictionary array
+3. ["a","a"],isUnique("a")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assume you have a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String[] dictionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and given a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, find whether its abbreviation is unique in the dictionary. A word's abbreviation is unique if no other word from the dictionary has the same abbreviation.
+Example: 
+Given dictionary = [ "deer", "door", "cake", "card" ]
+isUnique("dear") -&gt; 
+false
+isUnique("cart") -&gt; 
+true</t>
+    </r>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>List内元素操作：
+list.set(index, value)对， list.get(index)++无法编译，for(int x : list) x++能编译没作用
+另：indexOf比charAt快</t>
+  </si>
+  <si>
+    <t>Suppose a sorted array is rotated at some pivot unknown to you beforehand.
+(i.e., 0 1 2 4 5 6 7 might become 4 5 6 7 0 1 2).
+Find the minimum element.
+You may assume no duplicate exists in the array.</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Binary Search:
+1. Terminate condition:  left &lt; right - 1
+2. 注意别混淆了Index和array[index]</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Given a string s and a string t, check if s is subsequence of t.
+You may assume that there is only lower case English letters in both s and t. t is potentially a very long (length ~= 500,000) string, and s is a short string (&lt;=100).
+A subsequence of a string is a new string which is formed from the original string by deleting some (can be none) of the characters without disturbing the relative positions of the remaining characters. 
+Example 1:
+s = "abc", t = "ahbgdc" //Return true.
+Example 2:
+s = "axc", t = "ahbgdc"//Return false.
+Follow up:
+If there are lots of incoming S, say S1, S2, ... , Sk where k &gt;= 1B, and you want to check one by one to see if T has its subsequence. In this scenario, how would you change your code?</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array of citations (each citation is a non-negative integer) of a researcher, write a function to compute the researcher's h-index. 
+According to the definition of h-index on Wikipedia: "A scientist has index h if h of his/her N papers have at least h citations each, and the other N − h papers have no more than h citations each." 
+For example, given citations = [3, 0, 6, 1, 5], which means the researcher has 5 papers in total and each of them had received 3, 0, 6, 1, 5 citations respectively. Since the researcher has 3 papers with at least 3 citations each and the remaining two with no more than 3 citations each, his h-index is 3. 
+Note: If there are several possible values for h, the maximum one is taken as the h-index. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My solution using sort is easy:) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>using extra space would be faster(https://leetcode.com/articles/h-index/)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Time complexity : O(nlogn). Comparison sorting dominates the time complexity.
+Space complexity : O(1). Most libraries using heap sort which costs O(1) extra space in the worst case.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>H-Index II</t>
+  </si>
+  <si>
+    <t>array is sorted</t>
+  </si>
+  <si>
+    <t>Bloomberg
+Google 
+FaceBook</t>
+  </si>
+  <si>
+    <t>If linear search, notice:
+1. &gt; or &lt;
+2. return the smaller one
+3. index of I
+Binary search can be faster, notice
+1. end condition
+2. new value of pointers(a, b or left right)</t>
+  </si>
+  <si>
+    <t>Heaters</t>
+  </si>
+  <si>
+    <t>Given positions of houses and heaters on a horizontal line, find out minimum radius of heaters so that all houses could be covered by those heaters.
+So, your input will be the positions of houses and heaters seperately, and your expected output will be the minimum radius standard of heaters.
+Note:
+Numbers of houses and heaters you are given are non-negative and will not exceed 25000.
+Positions of houses and heaters you are given are non-negative and will not exceed 10^9.
+As long as a house is in the heaters' warm radius range, it can be warmed.
+All the heaters follow your radius standard and the warm radius will the same.
+Example 1:
+Input: [1,2,3],[2]//Output: 1
+Example 2:
+Input: [1,2,3,4],[1,4]//Output: 1</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Two pointers: pay attention to the increase condition for the 2nd pointer
+2. Arrays.binarySearch() 
+public static</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> int binarySearch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Object[] a,
+               int fromIndex, //optional
+               int toIndex,//optional
+               Object key)
+Parameters:
+a - the array to be searched
+fromIndex - the index of the first element</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (inclusive)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to be searched
+toIndex - the index of the last element</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (exclusive)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to be searched
+key - the value to be searched for
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Returns:
+index of the search key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, if it is contained in the array within the specified range; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>otherwise, (-(insertion point) - 1).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The insertion point is defined as the point at which the key would be inserted into the array: the index of the first element in the range greater than the key, or toIndex if all elements in the range are less than the specified key. Note that this guarantees that the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return value will be &gt;= 0 if and only if the key is found.</t>
+    </r>
+  </si>
+  <si>
+    <t>LinkedIn 
+Google 
+Bloomberg 
+Facebook</t>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>Implement Pow(x, n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Anagram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corner cases:
+1. "bb" and "ac"
+2.  "aac" and "acc" </t>
+  </si>
+  <si>
+    <t>Given two strings s and t, write a function to determine if t is an anagram of s.
+For example,
+s = "anagram", t = "nagaram", return true.
+s = "rat", t = "car", return false. 
+Note:
+You may assume the string contains only lowercase alphabets.
+Follow up:
+What if the inputs contain unicode characters? How would you adapt your solution to such case?</t>
+  </si>
+  <si>
+    <t>Amazon 
+Uber 
+Yelp</t>
+  </si>
+  <si>
+    <t>Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sliding Window Solution----Substring problem template!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Corner cases:
+1. the larger string is ""
+2. the larger string is shorter than the other string</t>
+    </r>
+  </si>
+  <si>
+    <t>Given a string s and a non-empty string p, find all the start indices of p's anagrams in s.
+Strings consists of lowercase English letters only and the length of both strings s and p will not be larger than 20,100.
+The order of output does not matter.
+Example : 
+Input:
+s: "abab" p: "ab"
+Output:
+[0, 1, 2]
+Explanation:
+The substring with start index = 0 is "ab", is anagram
+The substring with start index = 1 is "ba"
+The substring with start index = 2 is "ab"</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +2292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1898,9 +2310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1909,9 +2318,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1928,8 +2334,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2409,201 +2824,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>103185</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>435181</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1166865</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>513181</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="64" name="Ink 63">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DF1DE7-C262-424E-BC49-2AA81A01E965}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6383040" y="789600"/>
-            <a:ext cx="1063680" cy="78000"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="64" name="Ink 63">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DF1DE7-C262-424E-BC49-2AA81A01E965}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6378720" y="785287"/>
-              <a:ext cx="1072319" cy="86627"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>121665</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>150468</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1290705</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>37155</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="66" name="Ink 65">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74304B55-1E9E-4E0B-9F85-E819349873B5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6401520" y="1424160"/>
-            <a:ext cx="1169040" cy="71280"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="66" name="Ink 65">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74304B55-1E9E-4E0B-9F85-E819349873B5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6397200" y="1419840"/>
-              <a:ext cx="1177681" cy="79920"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>29505</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>427981</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1141905</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>504301</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="68" name="Ink 67">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C145DD-85C5-4E9D-B11F-E4738B503F45}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6309360" y="782400"/>
-            <a:ext cx="1112400" cy="76320"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="68" name="Ink 67">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C145DD-85C5-4E9D-B11F-E4738B503F45}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6305040" y="778080"/>
-              <a:ext cx="1121040" cy="84960"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>826364</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>689184</xdr:rowOff>
@@ -2616,7 +2836,7 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="72" name="Ink 71">
               <a:extLst>
@@ -2974,6 +3194,266 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>421084</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>284538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2806804</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>613578</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C630F8B-E974-4980-A66C-A755E8295D76}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6699840" y="150649440"/>
+            <a:ext cx="2385720" cy="329040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C630F8B-E974-4980-A66C-A755E8295D76}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6695520" y="150645120"/>
+              <a:ext cx="2394360" cy="337680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>71164</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>99018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4064284</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>1474938</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63D4B16-5F79-4864-A26F-B7DEA7D3693D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6349920" y="150463920"/>
+            <a:ext cx="3993120" cy="1375920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63D4B16-5F79-4864-A26F-B7DEA7D3693D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6345600" y="150459600"/>
+              <a:ext cx="4001760" cy="1384560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2143324</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>1254378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2143564</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>1254618</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="50" name="Ink 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BD7344-3C21-4254-AA02-CD937D29B8C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8422080" y="151619280"/>
+            <a:ext cx="240" cy="240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="50" name="Ink 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BD7344-3C21-4254-AA02-CD937D29B8C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8419200" y="151616400"/>
+              <a:ext cx="6000" cy="6000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2025604</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>613098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2856124</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>1298178</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="71" name="Ink 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBD39E4-7950-4B0F-BDFF-EFF6410A86D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8304360" y="150978000"/>
+            <a:ext cx="830520" cy="685080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="71" name="Ink 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBD39E4-7950-4B0F-BDFF-EFF6410A86D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8300040" y="150973680"/>
+              <a:ext cx="839160" cy="693720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3483,114 +3963,6 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2016-10-27T15:20:35.166"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
-      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
-      <inkml:brushProperty name="color" value="#ED1C24"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:traceGroup>
-    <inkml:annotationXML>
-      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-        <emma:interpretation id="{262E3338-2AB5-4325-B9C2-82267B6A81A1}" emma:medium="tactile" emma:mode="ink">
-          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="17525,2361 20612,2144 20616,2193 17528,2409" shapeName="None"/>
-        </emma:interpretation>
-      </emma:emma>
-    </inkml:annotationXML>
-    <inkml:trace contextRef="#ctx0" brushRef="#br0">8763 1282,'0'0,"0"0,0 0,0 0,0 0,16 2,19 2,19 1,18-1,18-3,14-3,8-4,8-6,0-2,1-2,-2 0,-3 1,-3 1,-3 1,-3 2,-3 2,-6 1,-6 2,-6 2,-5 1,-4 2,-6-1,-5 0,-5-2,-4 0,-1 1,-1 1,-2 0,-2 1,0-1,-2 0,-3 0,0-2,-1 1,0 0,-1 1,-2-1,-2 0,1 1,-2 0,-3-2,-4 2,-3-1,-6 2,-4-1,-4 2,-3-1,-1 1,-4 0</inkml:trace>
-  </inkml:traceGroup>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2016-10-27T15:21:12.397"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
-      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
-      <inkml:brushProperty name="color" value="#ED1C24"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:traceGroup>
-    <inkml:annotationXML>
-      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-        <emma:interpretation id="{9A41DFCB-8B42-4D62-9EB1-AA8BA200BCCE}" emma:medium="tactile" emma:mode="ink">
-          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="19736,203850 23309,203670 23312,203741 19739,203920" shapeName="None"/>
-        </emma:interpretation>
-      </emma:emma>
-    </inkml:annotationXML>
-    <inkml:trace contextRef="#ctx0" brushRef="#br0">9870 102010,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,15 0,6 0,-1 0,11 0,1 0,16 3,14 0,13 1,9-2,3 0,3 0,6-2,2 0,4 0,-2 0,4-2,2-2,4 0,-1-1,-7 0,-7-2,1 0,-1-1,-1 1,-6 1,-5 2,-6-1,-4-2,-3 0,-1 1,-5-1,-4 1,-6 1,-4 2,-6 1,-4 1,-2 0,4 2,4-1,2 0,2 1,-2-4,0 0,0-1,-2 0,-2-2,-4-1,-1 0,-2 2,1 1,0 2,4-2,-2 0,-2-2,-2 0,-5 1,-5 2,-5 0,-2 3,-6-1,-3 1,-6 0</inkml:trace>
-  </inkml:traceGroup>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2016-10-27T15:21:17.869"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
-      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
-      <inkml:brushProperty name="color" value="#ED1C24"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:traceGroup>
-    <inkml:annotationXML>
-      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-        <emma:interpretation id="{6A944570-4C92-4BB0-9E06-1D594CBFC2DA}" emma:medium="tactile" emma:mode="ink">
-          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="19648,205570 23842,205122 23858,205263 19663,205710" shapeName="None"/>
-        </emma:interpretation>
-      </emma:emma>
-    </inkml:annotationXML>
-    <inkml:trace contextRef="#ctx0" brushRef="#br0">9832 103045,'0'0,"21"0,6 0,0 0,-7 0,-4 0,-7 0,16-4,15-4,11 2,9-2,10 1,4-1,-1-2,1 1,0 1,0 1,4 0,-2 0,3-2,2 0,4 0,5-4,3-3,1-4,0 0,-3-3,1 1,3-2,4 1,-3 2,-4 1,0 5,2 1,2 5,-1 2,-6 4,-3 1,0 1,1 2,0 0,2-1,1 1,-2-1,3 1,0-1,-2 0,-3-3,-2-3,-7-1,-3 1,-3 2,-4-2,-3 1,-7 1,-5 1,-10 1,-6 1,-9 1,-7 0,-7 0,-5 0</inkml:trace>
-  </inkml:traceGroup>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2016-10-27T15:22:29.337"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -3613,7 +3985,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3686,7 +4058,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3810,6 +4182,451 @@
           <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2317">14756 28038,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-17 2,-5 2,2-1,2 0,7-2,-13 0,-2 0,4-1,5 0,-5 0,1 0,5 0,3 0,-5 5,0 1,3 0,-5 1,1-4,5 0,-1 3,2 1,3-1,-5 4,-1 4,-1 0,-2 1,3 4,1 2,1 1,2 0,1 0,2 0,0-2,-2-1,2 0,3 0,0 0,3-1,2-2,1 1,0 0,6 7,4 5,7 8,1-2,6 1,5 0,6-3,6-4,1-4,-1-7,1-3,-3-7,-3-4,0-2,-2-2,0 0,2-4,3-6,6-4,4-3,1-3,0-3,-2 1,-5-1,-3 2,-2-3,-3 0,-2-3,-8-1,-4-5,-4-6,-1-5,-4 0,-5 4,-1 2,-4 2,-2 6,-2 2,-5 3,-2 5,1 0,-2 1,-2 5,-3-2,-4 0,-2 5,-3 2,1 2,-2 1,-1 3,-3 1,-1 1,-2 1,3 1,1-1,1 0,1 2,2-2,1 0,2 0,1 0,3 0,2 0,0 3,0 0,0 0,0 2,-1 3,1-1,-2 2,2-1,-1 2,-1 0,4-1,0 0,4-1,-2 2,4-3</inkml:trace>
           <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16267">12172 30979,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-18 0,-7 0,1 0,4 0,-13 0,-2 0,-4 2,3 2,-2 1,4 1,-2 7,-1 6,4 5,0 6,5 3,4 1,3 0,6 0,1-5,5-1,2-3,4 0,2-3,0 1,2-2,-1 2,1-2,0 1,-1 1,0-1,0 3,4 1,-1 5,6 1,4 3,4 4,7 3,4-1,6-2,5-4,2-3,5-3,-3-5,2-6,0-4,-1-7,-1-3,1-4,2 0,2-1,3-3,3 0,-3-3,-1-2,-1-3,-4 0,-4-5,-2-5,-3-4,-4-8,0-2,-2 1,-6-3,-3 3,-4 2,-4 3,-3 0,-2 1,0-1,-3-2,-2-1,-1 0,-2 0,0 3,0-2,0 4,-1 1,1 0,-4 2,-2 0,-4 3,-2 1,-3 2,0 3,-2-1,1 2,-4 1,-1-1,-2 1,2-1,-4 3,2-3,-4 3,3 3,0-1,0 4,0-1,0 4,3 2,1 0,-2 1,1 0,2 1,0-1,2 0,-1 0,2 1,-1-1,4 0,1 0,3 0,2 0,0 0,0 0,-2 0</inkml:trace>
           <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="94122">11466 28558,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,16-4,6-2,-1 1,13-6,-1-1,-5 1,-7 3,-8 4,4 0,-1 3,-3 1,-6 0,-1 1,-3-1,-2 0,-1 1,-1-1,0 0,1 0,0 0,-1 0,1 0,4 7,2 1,0 1,-4 9,-2 0,-2 7,-2-5,-3 0,-1-1,-1-4,-1 0,2-5,2-2,3 2,-1-3,4-2,-1 0,2-3,-1-2,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,0-1,3 1,2 0,4 0,6-2,9-3,1-1,1-1,5 0,-2 2,-4-1,-2 1,-6 1,-6 0,-3-2,-2 3,0 0,-1 2,-1 0,1 1,-1 0,-1 0,-1 0,3 0,-2 1,1-1,-1 0,-2 0,0 0,-1 0,2-2,3-2,1 2,0 0,-2 0,1 1,-1 1,0-1,-1 1,-2 0,0 1,-1-1,0 0,0 0</inkml:trace>
+        </inkml:traceGroup>
+      </inkml:traceGroup>
+    </inkml:traceGroup>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2016-12-22T02:30:33.929"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#3165BB"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{CEFFC407-DFB5-4945-8934-60BCF5748CF9}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="18611,418390 25246,418471 25234,419472 18599,419392" semanticType="scratchOut" shapeName="Other">
+            <msink:sourceLink direction="with" ref="{580BA9EB-EFCB-460A-A696-8C4E87AD9940}"/>
+            <msink:sourceLink direction="with" ref="{758E366B-9549-4592-A820-631B8C20F1CC}"/>
+            <msink:sourceLink direction="with" ref="{C9D5966F-2E96-4E1E-854F-C19405131228}"/>
+            <msink:sourceLink direction="with" ref="{78FB9D78-1799-4D80-B1EF-B0DF04DC2956}"/>
+            <msink:sourceLink direction="with" ref="{BA4B0AF8-6392-4282-903A-44672EB00C12}"/>
+            <msink:sourceLink direction="with" ref="{60213CF2-6932-4039-81E5-DD1BCCBB17EB}"/>
+          </msink:context>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">9307 209264,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,10 1,11 1,7-2,9 0,4-1,5 0,4-1,3-1,2 1,1 0,2 2,2-1,-2 0,-2 1,-3 0,-2 0,-3 0,-2 0,-2 1,-2 0,-2 1,-2 0,-4 1,0 0,-2 1,1 0,0-1,0-1,1-1,-2 1,-4 1,0-2,-2 1,1-1,2 0,-1-1,0 0,-2 0,0 0,-2 0,2 0,-1 0,2-1,2 1,0 0,3 0,0 0,2 0,0 0,0 0,0 0,0 0,0 0,0 0,2 0,0 0,2 0,1 0,4 0,0 0,3 0,2 0,2 0,1 0,0 0,1 0,0 0,1 0,3 0,0 1,-2 1,1 0,0 0,2-1,2 0,2-1,1 0,3 2,-1 0,1-1,-2 1,-1-1,1-1,-1 0,-2 1,0-1,0 0,4 0,0 0,4 0,2-1,1 1,1 0,1 0,1 0,-1 0,2 0,1 0,2 0,2-1,-2-1,-2 0,-4-1,-2 0,-3 0,-3 2,-1 0,-4 0,-1 0,-1 1,-3 1,1-1,0 0,-2-1,1-1,-4 0,0-1,2 0,-2 1,-1 0,-2 0,0 2,-1-2,-1 0,0 0,-1 1,-1 0,1-1,0 0,-1 0,-4-1,-3-2,-4 1,-4 0,-5 2,-4 0,-3 1,-4 1,-2 0,-4 0,0 0,-1 0,-1 1,0-1,-2 0,0 0,-1 0,-1 0,0 0,0 0,2 0,-1 0,1 1,1 2,-1 1,1 1,-1 0,-1 1,0 4,0 3,3 5,0 3,-1 4,1 2,-1 0,0-1,-1 2,-1 1,0 4,0 4,1 3,2 1,-1-1,0-2,-1-4,-1-1,1 0,1 0,-1 0,-1-2,0-1,-1-3,0-4,0-5,0 0,0-3,0-3,0-1,0-3,0-2,0 0,0-3,0-2,0 2,0-1,0-1</inkml:trace>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2079">9436 210098,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,11 0,2 0,9-2,9 0,8-1,4 0,5 0,0 1,4 1,2-1,2 2,1 0,0 0,2-1,2-1,1 1,2-1,-1 1,-5 0,-2 1,-1 0,-1 0,2 0,2 0,1 0,4 0,2 0,2 0,1 0,1 0,0 0,1 0,-2 0,-1 0,-2 0,-1 0,1 0,-2 0,1 0,1 0,2 0,3 0,3 0,4 0,4 0,0 0,0 0,-4 0,-1 0,0-1,-2-1,-2 0,1 1,-1 0,-1-1,0-2,-2 0,-1 0,-2 2,-3 0,-1 2,0-1,1 1,-2 0,0 0,-1 0,-2 1,0-1,-2 1,2 1,0 0,0-1,0 1,-2-2,0 0,-3 0,-2 0,-1 0,-2 0,-3 0,-2 0,-2 2,-1 0,-1 0,1-1,-2 0,-2 0,0-1,-2 0,-4 0,1 0,0 0,1 0,-2 0,2 0,-2 0,2 0,2 0,-1 0,1 0,1 0,-1 0,-1 0,2 0,1 0,4 0,2 0,4 0,4 0,2 0,0 0,-2 0,2 0,-3 0,-4 0,-5 0,-6 0,-6 0,-4 0,-2 0,-3 0,-2 0,-3 0,-1 0,-4 0,-1 0,-2 0,0 0,-3 0,0 0,-3 0</inkml:trace>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="547">9770 210150,'0'0,"0"0,0 0,0 0,-13 0,-5 0,2 0</inkml:trace>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2016-12-22T02:30:45.572"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#3165BB"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{5C711B6F-B9C4-4244-862E-72F30EFE695B}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="writingRegion" rotatedBoundingBox="17638,417955 28729,417955 28729,421776 17638,421776"/>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:traceGroup>
+      <inkml:annotationXML>
+        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+          <emma:interpretation id="{1F5CDFFE-6E8B-444D-8D78-2A5771B16C60}" emma:medium="tactile" emma:mode="ink">
+            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="18032,417933 28735,417994 28721,420373 18018,420312" alignmentLevel="1"/>
+          </emma:interpretation>
+        </emma:emma>
+      </inkml:annotationXML>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{453890F3-CE72-4CFC-8B96-162202A6BEB9}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkBullet" rotatedBoundingBox="18028,418649 18421,418651 18419,419025 18025,419022"/>
+            </emma:interpretation>
+            <emma:one-of disjunction-type="recognition" id="oneOf0">
+              <emma:interpretation id="interp0" emma:lang="zh-CN" emma:confidence="0">
+                <emma:literal>•</emma:literal>
+              </emma:interpretation>
+            </emma:one-of>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:trace contextRef="#ctx0" brushRef="#br0">8709 209512,'0'-1,"0"1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-6-9,-2-2,1 0,-8-5,-1-1,-4 1,-1 3,-2 0,1 3,-1 3,2 2,0 3,2 1,1 1,4 1,3-1,2 1,2-1,0 2,1 1,2 1,2 1,0 1,2 1,0 3,0 1,3 3,4 0,4 0,3 0,1 0,4 1,2 1,2 0,2 1,1-2,-2 0,-2-2,-3-1,-3-1,-3-1,-1-2,-4 0,-1-3,-2 0,-2-2,-2 1,0-1,-1 1,0 0,-2 1,-3 1,-3 0,-2 2,-4 0,-4-1,-4 0,-4-1,-4-1,-3-1,-1-1,1-1,5 0,2-2,5 0,4 0,5 0,1 0,2-1,3 1,0 0,0 0,1 0,2 0,0 0</inkml:trace>
+      </inkml:traceGroup>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{A79DE073-1014-46D8-8180-38851C082B1B}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="18613,417936 28735,417994 28721,420373 18599,420315"/>
+            </emma:interpretation>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{758E366B-9549-4592-A820-631B8C20F1CC}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="18610,418472 18744,418472 18739,419333 18605,419332">
+                  <msink:destinationLink direction="with" ref="{CEFFC407-DFB5-4945-8934-60BCF5748CF9}"/>
+                </msink:context>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-13988">8898 209202,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 10,3 11,1 8,0-2,0 6,0 0,-1 3,0-3,1 3,0 3,1-2,-2 0,1-3,1-1,0 0,-1 0,1-2,1 1,-1-2,-2 2,1-3,-1-2,0-1,0-2,0-2,0-3,-1-2,-1-3,-1-2,0-2,-1-3,0 0,0-3,0 1,0-2,0 0,-1-1,1-1,0-1,0 0,0 0</inkml:trace>
+        </inkml:traceGroup>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{C9D5966F-2E96-4E1E-854F-C19405131228}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="19427,418541 19531,418541 19527,419274 19422,419273">
+                  <msink:destinationLink direction="with" ref="{CEFFC407-DFB5-4945-8934-60BCF5748CF9}"/>
+                </msink:context>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8088">9715 209271,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,3 13,1 5,0 12,-2 0,4 12,0 4,0 0,0 0,-1-4,0-2,1-4,-1-3,-1-1,0-3,0-1,-1-4,1 0,1-2,-1-1,0-2,-1-3,-1-2,-1-2,-1-2,0-2,0-2,0 1,-1-2,1 0,0 0,0-3,0 0,0 0,0-2,0 0,0 0,0 0,0 1,0 1,0 0,0 1,1-1,1 2,0 0</inkml:trace>
+        </inkml:traceGroup>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{580BA9EB-EFCB-460A-A696-8C4E87AD9940}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="20385,417946 22227,417957 22213,420336 20371,420325">
+                  <msink:destinationLink direction="with" ref="{CEFFC407-DFB5-4945-8934-60BCF5748CF9}"/>
+                </msink:context>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24278">11032 208952,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,3 11,2 13,2 7,1 8,1 0,-1-2,-2-4,-2-6,-2-5,-1-4,0-5,-2-2,1-2,-1-3,1-1,0-2,0-3,0-1,0-2,4-3,5-6,3-5,3-6,2-3,0-1,2 0,-1 3,-2 3,0 3,-2 2,-1 4,-3 0,-2 5,-2 0,-2 2,0 2</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24772">11342 208883,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,13 13,5 5,-1-1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24532">11462 209064,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,1 11,1 2,0 0,2 7,1-1,-1-3,0-5,-2-4</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25938">11815 209003,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-10 2,-4 0,2 0,-5 9,2 4,0 7,2 1,5 4,3 3,1-4,3-4,1-5,0-6,3-1,-1-4,3-1,2-4,3-6,3-7,1-9,1-5,-2-6,-2-2,-2 1,-2 3,-3 5,-1 8,-3 6,0 5,0 3,0 3,0 4,-1 7,0 11,1 8,0 7,0 10,0 9,0 4,0-3,0-5,-1-5,-2-6,-3-4,-2-2,-3-2,-4-4,-5-4,2-3,-1-5,1-7,1-3,2-4,2-3,2 0,2-4,0-4,3-2,3-5,6-9,5-9,9-9,6-10,9-6,5-8,3-6,-5 10</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26462">12125 208685,'0'0,"0"0,0 0,0 0,0 0,-1 9,-1 2,-5 18,-2 12,-2 12,-2 10,0 2,-1-4,2-5,0-6,2-9,2-9,2-12,3-7,2-7,0-5,1-1,2-2,3-4,3-6,2-6,2-4,1-2,0-1,-2 4,-2 4,-2 6,-2 4,-1 6,-1 3,1 7,-1 6,0 4,0 4,0-1,1-2,-1-4,2-4,-1-4,-2-4</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26860">12339 208848,'0'0,"0"0,0 0,0 0,-2 9,-2 2,-2 14,2 8,-3 8,0 2,1 1,2-1,2-7,1-7,0-6,1-4,3-6,3-4,2-2,5-4,-2-1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27165">12159 209012,'0'0,"0"0,0 0,0 0,0 0,0 0,15-1,15-2,15-4,12-4,6-1,3-5,-10 1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-7263">10670 209305,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 11,0 5,0 9,1 8,1 7,2 6,0 4,3 4,-1 0,0 1,0-1,-1-4,0-4,-1-4,1-5,-2-4,-1-5,-1-5,-1-2,2-5,0 0,0-3,-1 0,0-3,-1-1,0 0,0-2,0 0,0-3,0-1,0-2</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22662">11600 210294,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,-2 10,-2 4,-4 6,-1 1,-2 3,1-3,0 4,1-4,0 0,2-4,3-2,1-4</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6395">11626 209288,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 9,1 3,0 7,0 2,-1 5,0-1,-1 6,0 3,0 2,2 2,0-2,0-1,1-2,1-2,-2-4,-1-1,0-5,-1-2,0-2,0 0,0-1,0 1,0 0,0 0,0-2,0-3,0-2,0 0,0-1,0-4,0 1,0-2,0 1,0-2,0-1,0 0,0-2,0 2,0 0,0 0,0-2,0 2,0-2,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22233">11677 210191,'0'0,"0"0,0 0,0 0,0 0,4 9,2 3,-1-2,0 8,-2 8,1 7,0 8,0 3,0 0,-2-1,0-1,-2-2,0 1,2 0,0-1,0-3,-1-2,0-2,-1-2,2 0,2 1,0-1,-2 0,1-3,-1-2,-1-4,-1-4,0-4,0-5,0-3,0-3</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22979">11729 210182,'0'0,"0"0,0 0,0 0,0 0,10 6,4 2,6 7,1 0,1 3,-2-2,1 1,-3-3,-4-4,-6-3,2-1,-2-3</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5474">12511 209219,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 11,0 5,0 9,0 1,0 7,0 3,0 2,-1 1,-1 0,1 3,-1-3,1-1,1-4,-1-4,1-4,0-2,0-3,0-3,0-3,0-2,1-4,-1 1,0-2,0 0,0 0,0-1,0-1,0-1,0-1,0 0,0 0,0 0,0 1,0-1,0-1,0-2,0 0,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+        </inkml:traceGroup>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{78FB9D78-1799-4D80-B1EF-B0DF04DC2956}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="23041,418480 23060,418480 23056,419250 23036,419249">
+                  <msink:destinationLink direction="with" ref="{CEFFC407-DFB5-4945-8934-60BCF5748CF9}"/>
+                </msink:context>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4522">13329 209210,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 9,0 2,0 10,0 2,0 6,0 1,0-4,0 2,0-2,0-1,0-2,0 1,0-1,0 1,0 1,0-2,0 0,0 0,0-4,0-2,0-1,0-2,0 0,0 0,0-1,0 0,0-1,0-2,0 0,0 1,0 0,0 0,0 1,0 1,0-1,0 2,0 0,0 0,0-2,0 0,0-4,0-1,0-2,0 0,0 0,0-1,0 0,0-1,0 1,0 0,1 1,3-1,1 1,0-2</inkml:trace>
+        </inkml:traceGroup>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{BA4B0AF8-6392-4282-903A-44672EB00C12}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="23738,418489 23768,418489 23764,419247 23733,419247">
+                  <msink:destinationLink direction="with" ref="{CEFFC407-DFB5-4945-8934-60BCF5748CF9}"/>
+                </msink:context>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3763">14026 209219,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 10,0 4,0 9,0 9,0 4,0 2,0 0,0 1,0 1,0-2,0-3,0-1,0-3,1-3,1-2,0-2,0-2,0-1,1-3,-1 1,1-2,0-1,-1 2,0-2,-1 0,0 0,-1-2,0-1,0-2,0-1,0-2,0 0,0-3,0-1,0 0,0 1,0-1,0 0,0 0</inkml:trace>
+        </inkml:traceGroup>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{60213CF2-6932-4039-81E5-DD1BCCBB17EB}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="24409,418532 24499,418532 24494,419316 24404,419315">
+                  <msink:destinationLink direction="with" ref="{CEFFC407-DFB5-4945-8934-60BCF5748CF9}"/>
+                </msink:context>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2827">14697 209262,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 12,1 3,0 9,0 0,0 6,1 5,0 2,1 3,0 2,2-2,-1-4,-1-4,-1-4,0-2,0-3,1 0,1-2,-1-1,0 0,-1 0,0 1,0 1,-1-2,0 1,-1-3,-1 0,2-5,0 0,0-2,-1-2,0-1,-1 2,0-3,0 0,0-1,0-2,0 1,0 0,0-1,0 0,0 0,0-2,0 0,0 0,0-2,0 0</inkml:trace>
+        </inkml:traceGroup>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{006FAC3A-4929-4D33-B816-B71DA32D6C09}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="26070,418221 26460,418223 26456,418998 26065,418996"/>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4644">16358 208977,'9'-2,"2"-2,0 0,-1 1,-4 1,6-1,2 1,4-1,-1 2,6 0,7 2,2 2,3 2,-1 2,-2 2,-4 3,-4 4,-6 4,-4 2,-6 0,-4 3,-4 2,-4 2,-7 3,-4 4,-3 0,0-3,0-5,3-5,3-7,3-7,2-4</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4977">16642 209038,'0'0,"-2"13,1 5,-1-2,0-2,1 6,-1 11,0 11,-2 10,1 3,-2 3,1-2,-1-3,1-4,1-6,1-5,1-6,0-8,1-6,0-2,0-2,0-2,1-3,-1-2</inkml:trace>
+        </inkml:traceGroup>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{96CAC439-0295-4E37-B45C-441468D5A4DA}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="26741,418507 28732,418519 28728,419181 26737,419169"/>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8959">17029 209287,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,13 2,5 0,12 0,10-1,6 0,7-1,4-2,-1 0,2-1,2 0,2-1,1-2,0 2,-1-2,-2 1,0 2,-3 0,-3 2,-2 0,-2 1,0 0,-2 0,-1 0,-1 1,1-1,-1 0,0 0,2 0,0 2,-2-1,2 1,-3-1,-2 1,-3-2,-1 2,-3 2,-2 0,-3-1,-5-1,-5 0,-4-1,-3-1,-3 0,-2 0,-3 0,-1 0,0 0,0 0,-2 0,-1 0,0 0,-2 0,0 0,2 0,0 1,-1 1,0 1,0 1,0 0,1 2,1 2,1 4,-1 4,1 2,0 2,0 2,2 3,-2 0,0 0,-1 2,0 1,0-2,-1-1,0 0,-1-3,-1-2,0-4,0 0,0-3,0-1,0 0,0-1,0-1,0 0,0 0,0-2,0 0,0-2,0 1,0-2,0-1,0 0,0 0,0 0,0 1,0 0,0-2,0 2,0-2,0 0,0 0,0 2,0-1,0-1,0 0,0-2,0 0,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 3,0 0,0 1,0 2,0 0,-2-1,0-1,0-1,-1-1,-1-1,-2 2,0 0,-1-1,-2 0,0 1,-2-2,0 0,-1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,0 0,0 0,-1 0,0 0,-2 0,0 0,1 0,-2 0,0 0,0 0,0 0,0 0,-2 0,0 0,0 0,1 0,0 0,0 0,0 0,-1 0,0 0,-1 0,1 0,1 0,0 0,1 0,1 0,-1 0,2 0,2 0,0 0,0 0,2 0,-2 0,0 0,0 0,-1 0,1 0,-3 0,1 0,0 0,1 0,0 0,1 0,1 0,0 0,0 0,1 0,2 0,0 0,0 0,-1 0,0 0,2 0,-1 0,-1 0,-2 0,0 0,-1 0,-1 0,0 0,1 0,0 0,1 0,0 0,-1 0,2 0,0 0,0 0,0 0,2 0,-1 0,2 0,-1 0,2 0,-1 0,1 0,-1 0,-1 0,2 0,-1 0,-1 0,2 0,-1 0,0 0,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,-2 0,2 0,0 0,-2 0,2 0,0 0,-2 0,0 0,2 0,-1 0,-1 0,2 0,-1 0,0 0,1 0,1 0,0 0,-1 0,1 0,-1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,0 0,4 0,-2 0,1 0,1 0,-1 0,1 0,-1 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,1 0,-1 0,0 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,1 0,1 0,0 0,2 0,0 0,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5766">17055 209296,'0'0,"0"0,0 0,0 0,0 0,0 0,0 7,0 3,1 11,3 11,0 10,-1 8,0 4,-1 0,-1-4,-1-6,0-7,0-4,0-6,0-2,0-1,0-4,0-3,0-4,0-1,0-3,0 0,0-3,0-2,0-1,0-2</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10327">17649 209262,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 11,0 2,0 7,0 1,0 5,0 6,0 2,0 2,0-1,0-3,0-2,0-4,0-3,0-4,0-3,0-1,0-2,0-1,0 0,0-1,0 0,0-2,0 0,0-1,0 1,0-1,0-1,0-1,0-2,0 0,0 0,0 0,0-2,0 1,0 0,0-1,0 0,0-1,0 0,0-1,0 0,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11530">18277 209245,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 12,0 3,0 11,0 5,1 3,1-1,0-1,0 0,-1 0,0-1,-1-2,0-3,2-2,-1-2,1-3,0-2,-1-3,0-2,0-3,1 0,0-1,-1 0,1 1,-2-1,0 1,0 1,0-2,0 0,0 0,0-1,0-2,0-1,0 0,0 0,0 1,0 0,0-1,0 0,0-1,0 2,0 1,0-1,0-2,0 0,0-2,0-1,0 2,0 0,0 0,0-1,0 0,0-1,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+        </inkml:traceGroup>
+      </inkml:traceGroup>
+    </inkml:traceGroup>
+    <inkml:traceGroup>
+      <inkml:annotationXML>
+        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+          <emma:interpretation id="{712E1AC2-6241-48EA-B3B3-BE90B6D7F7E3}" emma:medium="tactile" emma:mode="ink">
+            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="17638,419065 21389,419065 21389,420347 17638,420347" alignmentLevel="1"/>
+          </emma:interpretation>
+        </emma:emma>
+      </inkml:annotationXML>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{44347F03-AE4E-478B-9580-B2008407C04F}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="17638,419065 21389,419065 21389,420347 17638,420347"/>
+            </emma:interpretation>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{F8C40BFA-B055-498A-BF39-6727019837AD}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="17638,419065 18888,419065 18888,420193 17638,420193"/>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15949">8993 210269,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-3 11,0 2,-1 0,-4 5,0-1,2-3,-3 3,2-1,0 1,1-3,2-2,1-6</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15428">9027 210234,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 13,0 10,2 9,-1 6,3 4,1 4,-1 2,2 2,-1 2,-2-2,0-2,-2-3,0-4,-1-5,0-5,0-6,0-6,0-5,-1-3,1-3,0-3,0-1,0-2,0 1,0-1,0-1,0-1,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16261">9036 210260,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,11 9,2 3,0-1,5 4,-1-1,-3-3,-4-3,3 2,0-2,-2-1,-4-3</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19285">8461 209795,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-8 11,-2 2,1 12,1 9,3 9,3 7,4 7,1 3,1 2,2 3,-1 1,1 0,0-4,-2-5,0-4,-2-1,-2-2,-1-3,-1-4,0-6,0-6,1-6,0-8,0-5</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19661">8605 210019,'0'0,"0"0,0 0,0 0,0 0,0 0,0 15,0 4,3 10,2 8,2 4,1 3,3-2,0-1,1-1,2-3,0-1,-1-3,-1-7,-3-8</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20039">8330 210320,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,10-1,4-1,11-3,11-2,8-2,6-2,4-2,1 0,3 0,0 0,-4 2,-3 1,-10 1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18761">7960 209960,'0'0,"0"-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 13,-1 5,-2 15,0 9,-3 5,1 1,1-4,2-1,1-3,2-3,3-1,3-3,2-2,2-2,2-4,2-4,2-4,0-4,1-3,0-4,1-4,1-4,2-3,2-6,1-5,-1-4,0-3,-3-2,-3-3,-4 0,-4-3,-4 4,-2 3,-2 4,-1 4,0 3,-3 5,0 0,1 4,0 1,1 2,-1 0,-2 2,-1 2,-2 2,-1 2,1 4,1 4,0 2,2-1,1 0,2 1,0-1,1 1,3 0,5 0,2 0,6-1,1-4,2-3,2-4,3-5,3-4,-3-2</inkml:trace>
+        </inkml:traceGroup>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{02EE219C-F606-4EF0-9034-D9EB559455FD}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="18948,419804 21390,419829 21385,420360 18942,420335"/>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31269">9250 210535,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 11,-1 2,0 0,-1 7,0-2,0 7,2-2,1 2,1 3,4-2,2 0,2-1,4-2,1-2,2-5,2-2,0-4,4-4,2-3,4-3,4-3,3-2,5-2,5-3,2-4,0-4,-1 2,-4-1,-1 2,0 0,0 1,-2 4,-4 2,-4 4,-3 1,-2 2,-2 1,0 2,1 4,3 5,1 4,-1 5,-1-1,-3 2,-1 1,-3 0,-3-1,-4 0,-1 2,-3 1,0 0,-3-2,-1-3,-2-1,-2-4,0-4,-1-2,-1-2,0-2,1-1,0-2,1-2,2-2,3-5,2-5,3-2,2-4,0 0,0 0,1 1,3 1,2 2,2 0,3 1,1 1,0 1,0 3,0 2,-1 2,2 2,3 2,2 1,1 0,3 1,1 0,2 2,0-1,1 1,1 0,-4 0,0-1,-1-1,-2-1,-1 1,0-1,-2 0,0-1,0 1,-2 0,2-1,0-3,1-3,0-1,-1-3,0-2,-4-3,-3 0,0 1,-4 0,-1 3,-5 1,0 3,-2 0,-3 2,-2 0,-1 2,0-1,-1 2,0 1,0 1,-2 0,1 1,-2 0,1 1,-2-1,0 0,0 1,0-1,0 0,0 0</inkml:trace>
+        </inkml:traceGroup>
+      </inkml:traceGroup>
+    </inkml:traceGroup>
+    <inkml:traceGroup>
+      <inkml:annotationXML>
+        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+          <emma:interpretation id="{ECA666A4-375B-413D-BC0D-09829A5151F3}" emma:medium="tactile" emma:mode="ink">
+            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="19741,420184 22389,420184 22389,420848 19741,420848" alignmentLevel="2"/>
+          </emma:interpretation>
+        </emma:emma>
+      </inkml:annotationXML>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{E36091C6-2F59-4700-B22C-D5D452AAA4C7}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkBullet" rotatedBoundingBox="19741,420184 22389,420184 22389,420848 19741,420848"/>
+            </emma:interpretation>
+            <emma:one-of disjunction-type="recognition" id="oneOf1">
+              <emma:interpretation id="interp1" emma:lang="zh-CN" emma:confidence="0">
+                <emma:literal>→</emma:literal>
+              </emma:interpretation>
+            </emma:one-of>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33801">10051 210914,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-4 11,-2 2,1 7,0 1,3 4,2-1,4 3,1 3,3 0,2 0,4 2,0-1,3-3,2-1,1-3,-1-2,2-5,1-6,2-4,0-3,4-3,3-4,7-3,3-2,3 0,0 0,-4 0,-2 1,-2 1,0-1,1 2,0-1,-1 2,-2 1,0 1,-1 0,-3 2,1 0,3 1,4 3,-1 1,0 2,-2 2,-1 5,-1 1,-3 0,-2 3,-4 0,-3-1,-2-2,-1 1,-2-3,0 1,-3-1,-2-1,-2 1,-2 0,0-1,0 2,-2-2,-1 0,-1-3,-1-1,-1-2,-1-3,0 0,-1-2,1-1,-1 0,1 0,0-1,0-1,2-1,1-5,2-4,3 0,4-5,2 0,1 1,2-2,1 1,0 3,4 1,2 1,2 2,2 0,0 3,3 0,0 1,-1 2,0 2,2 1,2 0,3 1,-1 1,-1-1,-2 1,1-1,-1 0,0 0,1 0,1 0,-1 0,-2-2,-2-1,0 0,0-3,0-1,1-2,-1-2,0-1,0-1,-3 0,-1 0,-2 0,-1-1,-2 2,-3-2,-3-2,0-2,-2-2,0 0,-2 0,-2-3,-1 2,0 2,-1 4,-2 3,-3 2,0 2,-2 2,0 2,0 1,0 0,0 0,-1 1,1 1,0 0,0 1,0-1,0 2,0-1,0 0</inkml:trace>
+      </inkml:traceGroup>
+    </inkml:traceGroup>
+    <inkml:traceGroup>
+      <inkml:annotationXML>
+        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+          <emma:interpretation id="{0DC23A7A-BA3E-41A6-973B-8EFC65FC9CF3}" emma:medium="tactile" emma:mode="ink">
+            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="20718,420648 25288,420648 25288,421776 20718,421776" alignmentLevel="3"/>
+          </emma:interpretation>
+        </emma:emma>
+      </inkml:annotationXML>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{654EFA25-E0F8-43EA-B22B-D01CCEBA3888}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="20718,420648 25288,420648 25288,421776 20718,421776"/>
+            </emma:interpretation>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{B3D7D31E-530C-458E-AD65-3B53B8EFB0C7}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="20718,420648 25288,420648 25288,421776 20718,421776"/>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38350">13811 211938,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40412">13562 211989,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,3 9,1 2,1 10,0 2,2 4,0-3,-1 1,0-4,3-2,0-3,4-1,4-1,4-1,3-3,3-2,4-3,2-1,1-2,0-1,-1 0,-2-2,-1 2,1 1,1-1,1 0,0 2,0 1,-1 3,0 0,0 2,-2 1,-2 2,-3 0,-2 1,0 1,-4 0,-1 1,-2-2,-1 1,-2-1,-3 0,-3 0,-2-1,1-2,-2-2,0 0,-2-3,-2 0,1-1,-1-1,0-1,-1-1,1-1,0 0,2 0,0 0,0-4,4-1,0-4,3-4,2-3,3-1,2-1,2 1,2 0,0 1,3 0,1 3,1 0,0 1,0 0,-1 2,-1 1,-1 0,2 2,-2 2,-1 1,0 3,1 0,2 1,-2 0,0 1,-2 0,-1-1,-1 0,-1 0,2 0,0 0,0 0,0 0,0 0,4 0,1 0,4-2,0-1,-1 0,-2-1,-4 0,-2-1,0 0,-2 0,-2-1,0-1,-1-1,0-2,0 0,-1-2,1 0,-1-2,1 2,0 0,-2 1,-2 1,0-1,0 0,-2 1,-1 0,0 1,-1-1,0 2,-2 0,-2 2,0 0,-2 3,0 1,0 1,0 0,0 1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35874">11006 211482,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,3 9,1 3,0-2,-2 8,0 0,0 5,-2-2,2-1,0-2,2-1,-1-3,1 1,0-4,2 3,3-2,1-2,3 0,1 0,0-2,2-1,3-3,2-1,2-2,3 1,3 0,2-1,1 1,2-2,-1 0,1 0,1 0,1 0,0 0,0 0,2 0,0 2,2 0,0 1,0 0,0 3,2 2,-2 2,0 2,-4 3,-4 2,-2 2,-2 0,-2-1,-4-1,-2-2,-3-2,-3-2,-3-1,-1-1,-2-2,-2-1,0 1,-1-2,-1-1,-2-2,-1 0,0-2,-1 0,0 0,-1 0,1 0,0 0,1 0,1 0,3-2,5-3,3-5,3-4,4-3,1-1,3 0,1 0,1-1,1 3,2 1,-1 5,0 1,-1 3,0 1,0 1,1 0,1 0,3 2,2 0,0 1,-1 0,1 1,-1 0,3 0,0 1,2-2,0-1,0-2,0 0,-3-2,2-2,-3 0,-1-1,-1-1,-2-1,-1-3,-1-2,-2 0,-1-2,-3-1,-1-1,-6 0,-1 3,-2 0,-3 1,-1 0,-2 1,0 0,-1 2,-1 0,-1 0,1 0,0-3,0 1,0 2,-2 1,0 2,-2 2,0 1,0 3,0 0,0-1,0 1,0 1,0 1,0 1,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37932">13175 211972,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+        </inkml:traceGroup>
+      </inkml:traceGroup>
+    </inkml:traceGroup>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2016-12-22T02:31:23.720"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#3165BB"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{DCC0EBBC-E916-4201-A1D7-06530A4DC202}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing"/>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">11699 210584,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2016-12-22T02:31:26.644"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#3165BB"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{418FDC1D-50B2-469E-8813-B77645E2F879}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="writingRegion" rotatedBoundingBox="23007,419389 25373,419233 25502,421201 23137,421357"/>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:traceGroup>
+      <inkml:annotationXML>
+        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+          <emma:interpretation id="{023D7A08-0E21-410B-A61A-8505CC4FEB85}" emma:medium="tactile" emma:mode="ink">
+            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="23007,419389 25373,419233 25502,421201 23137,421357" alignmentLevel="1"/>
+          </emma:interpretation>
+        </emma:emma>
+      </inkml:annotationXML>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{9E72A7F1-FF97-42A0-8530-508206F3455B}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="23007,419389 25373,419233 25502,421201 23137,421357"/>
+            </emma:interpretation>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{2BE23CE0-E513-4855-BA1A-8CB240B3CB38}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="23007,419389 23282,419371 23409,421299 23134,421317"/>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">13398 210113,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="363">13355 210776,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 15,0 6</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="206">13381 210586,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="535">13434 211146,'-1'0,"1"0,2 9,0 3,-1-2,1-1,-1-3,-1-2</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="722">13476 211490,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="880">13553 211765,'0'0,"0"0,1 9,1 3,1-2,-2-1,0-3</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1051">13682 212015,'0'0,"0"0,0 0,0 0,0 0</inkml:trace>
+        </inkml:traceGroup>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{4F17FD78-ED38-4660-B026-CAB630EB3874}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="25053,419482 25387,419460 25502,421201 25168,421223"/>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2234">15515 211214,'0'0,"0"0,0 0,0 0,0 0,1 9,1 2,0 8,-1-1,1 8,-2-1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1885">15609 210595,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2071">15635 210914,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2391">15489 211654,'0'0,"0"0,0 0,0 1,0-1,2 13,1 4,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2557">15455 211938,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3735">15506 211731,'0'0,"0"0,0 0,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3625">15549 211396,'0'0,"0"0,0 0,0 0,0 0,0 18,0 5</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3135">15463 210216,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3444">15515 210888,'0'0,"0"0,1 12,1 3,0 1,-1-4,1-4,-2-3</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3265">15541 210552,'0'0,"0"0,0 0,0 0,0 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1687">15661 210191,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0</inkml:trace>
         </inkml:traceGroup>
       </inkml:traceGroup>
     </inkml:traceGroup>
@@ -4322,7 +5139,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2016-10-27T15:20:29.196"/>
+      <inkml:timestamp xml:id="ts0" timeString="2016-10-27T15:21:12.397"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.02333" units="cm"/>
@@ -4334,12 +5151,12 @@
   <inkml:traceGroup>
     <inkml:annotationXML>
       <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-        <emma:interpretation id="{3FD4EBDB-4D46-4D3C-A0C1-FBD33FAD10CA}" emma:medium="tactile" emma:mode="ink">
-          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="17727,2347 20678,2126 20685,2211 17733,2432" shapeName="None"/>
+        <emma:interpretation id="{9A41DFCB-8B42-4D62-9EB1-AA8BA200BCCE}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="19736,203850 23309,203670 23312,203741 19739,203920" shapeName="None"/>
         </emma:interpretation>
       </emma:emma>
     </inkml:annotationXML>
-    <inkml:trace contextRef="#ctx0" brushRef="#br0">8867 1283,'0'0,"0"0,0 0,0 0,0 0,0 0,12 6,13 0,14 1,17 0,17-3,14-5,14-4,7-7,4-5,4-1,1-1,2 1,-3 0,0 1,-4 2,-4 2,-4 1,-8 1,-7 2,-11 2,-8 1,-9 0,-9 1,-5 2,-1 1,-2 1,-2 0,2 1,-2 0,-3 1,-3-1,-2 0,-3 0,-5 0,-2 0,0 0,0 0,-2 0,2 0,1 0,0 0,1 0,0 0,-2 0,2 0,0 0,0 0,-1 0,-2 0,-1 0,0 0,-1 0,-2 0,-3 0,-2 0,-2 0,-1 0,-2 0,-3 0,-1 0,-1 0,0 0,2 0,-1 0,-1 0,0 0,-2 0,-2 0</inkml:trace>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">9870 102010,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,15 0,6 0,-1 0,11 0,1 0,16 3,14 0,13 1,9-2,3 0,3 0,6-2,2 0,4 0,-2 0,4-2,2-2,4 0,-1-1,-7 0,-7-2,1 0,-1-1,-1 1,-6 1,-5 2,-6-1,-4-2,-3 0,-1 1,-5-1,-4 1,-6 1,-4 2,-6 1,-4 1,-2 0,4 2,4-1,2 0,2 1,-2-4,0 0,0-1,-2 0,-2-2,-4-1,-1 0,-2 2,1 1,0 2,4-2,-2 0,-2-2,-2 0,-5 1,-5 2,-5 0,-2 3,-6-1,-3 1,-6 0</inkml:trace>
   </inkml:traceGroup>
 </inkml:ink>
 </file>
@@ -4358,7 +5175,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2016-10-27T15:20:32.413"/>
+      <inkml:timestamp xml:id="ts0" timeString="2016-10-27T15:21:17.869"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.02333" units="cm"/>
@@ -4370,12 +5187,12 @@
   <inkml:traceGroup>
     <inkml:annotationXML>
       <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
-        <emma:interpretation id="{E7FF7B9F-14FA-4B4F-A904-384AA8F95C64}" emma:medium="tactile" emma:mode="ink">
-          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="17780,4129 21023,3892 21028,3961 17785,4198" shapeName="None"/>
+        <emma:interpretation id="{6A944570-4C92-4BB0-9E06-1D594CBFC2DA}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="19648,205570 23842,205122 23858,205263 19663,205710" shapeName="None"/>
         </emma:interpretation>
       </emma:emma>
     </inkml:annotationXML>
-    <inkml:trace contextRef="#ctx0" brushRef="#br0">8892 2180,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,15 0,19 0,12 0,12 0,9 0,11 0,12 0,5-2,5 0,2-2,4-2,2-2,-1 1,2-2,2-4,-1-1,-1-1,-1-2,-4-1,-1 3,-2 0,-2 1,-3 1,-8 2,-5 3,-6 2,-4 3,-7 2,-5 0,-4 1,-2 1,-1-1,-4 1,-2-1,-2 1,-1-1,-1 0,-1 0,-3 0,-2 0,-1 0,-2 0,-3 0,-6 0,-4 0,-3 0,-2 0,-2 0,-4 0,-3 0</inkml:trace>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">9832 103045,'0'0,"21"0,6 0,0 0,-7 0,-4 0,-7 0,16-4,15-4,11 2,9-2,10 1,4-1,-1-2,1 1,0 1,0 1,4 0,-2 0,3-2,2 0,4 0,5-4,3-3,1-4,0 0,-3-3,1 1,3-2,4 1,-3 2,-4 1,0 5,2 1,2 5,-1 2,-6 4,-3 1,0 1,1 2,0 0,2-1,1 1,-2-1,3 1,0-1,-2 0,-3-3,-2-3,-7-1,-3 1,-3 2,-4-2,-3 1,-7 1,-5 1,-10 1,-6 1,-9 1,-7 0,-7 0,-5 0</inkml:trace>
   </inkml:traceGroup>
 </inkml:ink>
 </file>
@@ -4677,26 +5494,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG125"/>
+  <dimension ref="A1:AG135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E130" sqref="E130:E132"/>
+      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.54296875" customWidth="1"/>
     <col min="2" max="2" width="4.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="8" customWidth="1"/>
     <col min="4" max="4" width="56.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="60.36328125" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" customWidth="1"/>
-    <col min="10" max="31" width="10.90625" style="9" customWidth="1"/>
-    <col min="32" max="33" width="8.7265625" style="9"/>
+    <col min="5" max="5" width="60.36328125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="5.36328125" style="8" customWidth="1"/>
+    <col min="10" max="30" width="10.90625" style="8" customWidth="1"/>
+    <col min="31" max="31" width="19.54296875" style="8" customWidth="1"/>
+    <col min="32" max="33" width="8.7265625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4712,7 +5530,7 @@
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -4721,10 +5539,10 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>282</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -4790,11 +5608,13 @@
       <c r="AD1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
+      <c r="AF1" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG1" s="7"/>
     </row>
     <row r="2" spans="1:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4806,7 +5626,7 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4856,7 +5676,7 @@
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -4899,7 +5719,7 @@
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4944,7 +5764,7 @@
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -4989,7 +5809,7 @@
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
@@ -5034,7 +5854,7 @@
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
@@ -5083,7 +5903,7 @@
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -5133,7 +5953,7 @@
       <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
@@ -5181,7 +6001,7 @@
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -5231,7 +6051,7 @@
       <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -5282,7 +6102,7 @@
       <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="2" t="s">
         <v>48</v>
       </c>
@@ -5321,7 +6141,7 @@
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="13" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -5371,7 +6191,7 @@
       <c r="D14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="13" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -5421,7 +6241,7 @@
       <c r="D15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="13" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -5471,7 +6291,7 @@
       <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="13" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -5516,7 +6336,7 @@
       <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="13" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -5559,7 +6379,7 @@
       <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="6"/>
       <c r="G18" s="2"/>
       <c r="J18" s="2"/>
@@ -5601,7 +6421,7 @@
       <c r="D19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="13" t="s">
         <v>67</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -5651,7 +6471,7 @@
       <c r="D20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="13" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -5703,7 +6523,7 @@
       <c r="D21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="13" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -5750,7 +6570,7 @@
       <c r="C22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="13" t="s">
         <v>76</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -5798,7 +6618,7 @@
       <c r="D23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="2" t="s">
         <v>32</v>
       </c>
@@ -5844,7 +6664,7 @@
       <c r="D24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="2" t="s">
         <v>81</v>
       </c>
@@ -5887,7 +6707,7 @@
       <c r="C25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="2" t="s">
         <v>84</v>
       </c>
@@ -5933,7 +6753,7 @@
       <c r="D26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="6"/>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
@@ -5975,7 +6795,7 @@
       <c r="D27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="13" t="s">
         <v>91</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -6027,7 +6847,7 @@
       <c r="D28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="16" t="s">
         <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -6077,7 +6897,7 @@
       <c r="D29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="2" t="s">
         <v>100</v>
       </c>
@@ -6123,7 +6943,7 @@
       <c r="D30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="2" t="s">
         <v>100</v>
       </c>
@@ -6169,7 +6989,7 @@
       <c r="D31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="13" t="s">
         <v>108</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -6219,7 +7039,7 @@
       <c r="D32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="13" t="s">
         <v>104</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -6269,7 +7089,7 @@
       <c r="D33" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="2" t="s">
         <v>32</v>
       </c>
@@ -6315,7 +7135,7 @@
       <c r="D34" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="13" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -6365,7 +7185,7 @@
       <c r="D35" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="13" t="s">
         <v>115</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -6414,7 +7234,7 @@
       <c r="C36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="13" t="s">
         <v>120</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -6458,7 +7278,7 @@
       <c r="D37" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="13" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -6503,7 +7323,7 @@
       <c r="C38" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="2" t="s">
         <v>32</v>
       </c>
@@ -6544,7 +7364,7 @@
       <c r="C39" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="2" t="s">
         <v>32</v>
       </c>
@@ -6588,7 +7408,7 @@
       <c r="D40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="2" t="s">
         <v>128</v>
       </c>
@@ -6636,7 +7456,7 @@
       <c r="D41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="6"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="2" t="s">
         <v>81</v>
       </c>
@@ -6684,7 +7504,7 @@
       <c r="D42" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="2" t="s">
         <v>81</v>
       </c>
@@ -6729,7 +7549,7 @@
       <c r="C43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="13" t="s">
         <v>140</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -6776,7 +7596,7 @@
       <c r="C44" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="13" t="s">
         <v>142</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -6821,7 +7641,7 @@
       <c r="C45" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="6"/>
+      <c r="E45" s="13"/>
       <c r="F45" s="2" t="s">
         <v>69</v>
       </c>
@@ -6864,7 +7684,7 @@
       <c r="C46" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="13" t="s">
         <v>145</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -6907,7 +7727,7 @@
       <c r="C47" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="13"/>
       <c r="F47" s="2" t="s">
         <v>59</v>
       </c>
@@ -6948,7 +7768,7 @@
       <c r="C48" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="13"/>
       <c r="F48" s="2" t="s">
         <v>59</v>
       </c>
@@ -6989,7 +7809,7 @@
       <c r="C49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="6"/>
+      <c r="E49" s="13"/>
       <c r="F49" s="2" t="s">
         <v>69</v>
       </c>
@@ -7033,7 +7853,7 @@
       <c r="D50" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="13" t="s">
         <v>151</v>
       </c>
       <c r="F50" s="6" t="s">
@@ -7075,22 +7895,22 @@
       <c r="B51" s="2">
         <v>24</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="13" t="s">
         <v>153</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <v>42651</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N51" s="9" t="s">
+      <c r="K51" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N51" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7101,25 +7921,25 @@
       <c r="B52" s="2">
         <v>345</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="13" t="s">
         <v>155</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="9">
         <v>42651</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="9" t="s">
+      <c r="K52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7130,22 +7950,22 @@
       <c r="B53" s="2">
         <v>125</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="13" t="s">
         <v>157</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="9">
         <v>42651</v>
       </c>
-      <c r="K53" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O53" s="9" t="s">
+      <c r="K53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O53" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7156,22 +7976,22 @@
       <c r="B54" s="2">
         <v>28</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="13" t="s">
         <v>159</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="9">
         <v>42651</v>
       </c>
-      <c r="K54" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="9" t="s">
+      <c r="K54" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7182,7 +8002,7 @@
       <c r="B55" s="2">
         <v>223</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -7191,10 +8011,10 @@
       <c r="F55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="9">
         <v>42652</v>
       </c>
-      <c r="S55" s="9" t="s">
+      <c r="S55" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7205,7 +8025,7 @@
       <c r="B56" s="2">
         <v>66</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>162</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -7214,10 +8034,10 @@
       <c r="F56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="9">
         <v>42652</v>
       </c>
-      <c r="S56" s="9" t="s">
+      <c r="S56" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7228,28 +8048,28 @@
       <c r="B57" s="2">
         <v>112</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="8" t="s">
         <v>163</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="13" t="s">
         <v>166</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="9">
         <v>42652</v>
       </c>
-      <c r="Q57" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="9" t="s">
+      <c r="Q57" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7260,31 +8080,31 @@
       <c r="B58" s="2">
         <v>113</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>167</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="13" t="s">
         <v>169</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="9">
         <v>42652</v>
       </c>
-      <c r="M58" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="9" t="s">
+      <c r="M58" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7295,25 +8115,25 @@
       <c r="B59" s="2">
         <v>205</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>171</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="13" t="s">
         <v>172</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="9">
         <v>42653</v>
       </c>
-      <c r="J59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="9" t="s">
+      <c r="J59" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7324,22 +8144,22 @@
       <c r="B60">
         <v>290</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="17" t="s">
         <v>174</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="9">
         <v>42653</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB60" s="9" t="s">
+      <c r="J60" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7356,19 +8176,19 @@
       <c r="D61" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="13" t="s">
         <v>177</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="9">
         <v>42653</v>
       </c>
-      <c r="X61" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB61" s="9" t="s">
+      <c r="X61" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB61" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7379,22 +8199,22 @@
       <c r="B62" s="2">
         <v>278</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="13" t="s">
         <v>179</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="9">
         <v>42653</v>
       </c>
-      <c r="X62" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB62" s="9" t="s">
+      <c r="X62" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7405,22 +8225,22 @@
       <c r="B63" s="2">
         <v>36</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="13" t="s">
         <v>180</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="9">
         <v>42653</v>
       </c>
-      <c r="P63" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB63" s="9" t="s">
+      <c r="P63" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB63" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7431,19 +8251,19 @@
       <c r="B64" s="2">
         <v>219</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="8" t="s">
         <v>182</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="9">
         <v>42655</v>
       </c>
-      <c r="J64" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L64" s="9" t="s">
+      <c r="J64" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L64" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7454,16 +8274,16 @@
       <c r="B65" s="2">
         <v>220</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="9">
         <v>42655</v>
       </c>
     </row>
@@ -7474,7 +8294,7 @@
       <c r="B66" s="2">
         <v>38</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -7483,7 +8303,7 @@
       <c r="F66" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="9">
         <v>42657</v>
       </c>
     </row>
@@ -7494,16 +8314,16 @@
       <c r="B67" s="2">
         <v>58</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="13" t="s">
         <v>189</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="9">
         <v>42657</v>
       </c>
     </row>
@@ -7514,16 +8334,16 @@
       <c r="B68" s="2">
         <v>14</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>190</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="9">
         <v>42658</v>
       </c>
-      <c r="O68" s="13" t="s">
+      <c r="O68" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7534,25 +8354,25 @@
       <c r="B69" s="2">
         <v>198</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>191</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="13" t="s">
         <v>193</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="9">
         <v>42660</v>
       </c>
-      <c r="L69" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC69" s="9" t="s">
+      <c r="L69" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC69" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7563,22 +8383,22 @@
       <c r="B70" s="2">
         <v>303</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="12" t="s">
         <v>195</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="9">
         <v>42660</v>
       </c>
-      <c r="L70" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC70" s="9" t="s">
+      <c r="L70" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC70" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7589,19 +8409,19 @@
       <c r="B71" s="2">
         <v>121</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="13" t="s">
         <v>198</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="9">
         <v>42660</v>
       </c>
-      <c r="AC71" s="9" t="s">
+      <c r="AC71" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7612,25 +8432,25 @@
       <c r="B72" s="2">
         <v>70</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="13" t="s">
         <v>202</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="9">
         <v>42660</v>
       </c>
-      <c r="S72" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC72" s="9" t="s">
+      <c r="S72" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7641,22 +8461,22 @@
       <c r="B73" s="2">
         <v>67</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="13" t="s">
         <v>204</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="9">
         <v>42661</v>
       </c>
-      <c r="O73" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S73" s="9" t="s">
+      <c r="O73" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S73" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7667,19 +8487,19 @@
       <c r="B74" s="2">
         <v>396</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>205</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="9">
         <v>42661</v>
       </c>
-      <c r="L74" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S74" s="9" t="s">
+      <c r="L74" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S74" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7690,22 +8510,22 @@
       <c r="B75" s="2">
         <v>155</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="8" t="s">
         <v>206</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="13" t="s">
         <v>208</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="9">
         <v>42661</v>
       </c>
-      <c r="AA75" s="9" t="s">
+      <c r="AA75" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7719,16 +8539,16 @@
       <c r="C76" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="9">
         <v>42662</v>
       </c>
-      <c r="L76" s="9" t="s">
+      <c r="L76" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7739,19 +8559,19 @@
       <c r="B77" s="2">
         <v>414</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="12" t="s">
         <v>212</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="9">
         <v>42662</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="L77" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7762,22 +8582,22 @@
       <c r="B78" s="2">
         <v>240</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="13" t="s">
         <v>217</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="9">
         <v>42663</v>
       </c>
-      <c r="X78" s="9" t="s">
+      <c r="X78" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7788,19 +8608,19 @@
       <c r="B79" s="2">
         <v>35</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="12" t="s">
         <v>219</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="9">
         <v>42664</v>
       </c>
-      <c r="X79" s="9" t="s">
+      <c r="X79" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7817,13 +8637,13 @@
       <c r="F80" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="9">
         <v>42664</v>
       </c>
-      <c r="R80" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="X80" s="9" t="s">
+      <c r="R80" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X80" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7834,22 +8654,22 @@
       <c r="B81" s="2">
         <v>74</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>222</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="13" t="s">
         <v>224</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="9">
         <v>42664</v>
       </c>
-      <c r="X81" s="9" t="s">
+      <c r="X81" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7863,25 +8683,25 @@
       <c r="C82" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="13" t="s">
         <v>226</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="9">
         <v>42666</v>
       </c>
-      <c r="Q82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="R82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="W82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="X82" s="9" t="s">
+      <c r="Q82" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R82" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W82" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X82" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7898,22 +8718,22 @@
       <c r="D83" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="13" t="s">
         <v>229</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="9">
         <v>42667</v>
       </c>
-      <c r="L83" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="9" t="s">
+      <c r="L83" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7924,25 +8744,25 @@
       <c r="B84" s="2">
         <v>189</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="8" t="s">
         <v>230</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="13" t="s">
         <v>232</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G84" s="9">
         <v>42667</v>
       </c>
-      <c r="K84" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L84" s="9" t="s">
+      <c r="K84" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L84" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7953,22 +8773,22 @@
       <c r="B85" s="2">
         <v>61</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="8" t="s">
         <v>233</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="13" t="s">
         <v>234</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="9">
         <v>42667</v>
       </c>
-      <c r="N85" s="9" t="s">
+      <c r="N85" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7982,19 +8802,19 @@
       <c r="C86" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="13" t="s">
         <v>239</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="9">
         <v>42669</v>
       </c>
-      <c r="X86" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC86" s="9" t="s">
+      <c r="X86" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC86" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8008,16 +8828,16 @@
       <c r="C87" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="13" t="s">
         <v>237</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="9">
         <v>42669</v>
       </c>
-      <c r="AC87" s="9" t="s">
+      <c r="AC87" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8028,19 +8848,19 @@
       <c r="B88" s="2">
         <v>165</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="13" t="s">
         <v>241</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="9">
         <v>42670</v>
       </c>
-      <c r="O88" s="9" t="s">
+      <c r="O88" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8051,22 +8871,22 @@
       <c r="B89" s="2">
         <v>338</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="13" t="s">
         <v>244</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="9">
         <v>42670</v>
       </c>
-      <c r="T89" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC89" s="9" t="s">
+      <c r="T89" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC89" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8077,22 +8897,22 @@
       <c r="B90" s="2">
         <v>319</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>246</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="13" t="s">
         <v>247</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="9">
         <v>42672</v>
       </c>
-      <c r="S90" s="9" t="s">
+      <c r="S90" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8103,31 +8923,31 @@
       <c r="B91" s="2">
         <v>268</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="8" t="s">
         <v>245</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="13" t="s">
         <v>248</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="9">
         <v>42672</v>
       </c>
-      <c r="L91" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="9" t="s">
+      <c r="L91" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8144,16 +8964,16 @@
       <c r="D92" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="13" t="s">
         <v>290</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="9">
         <v>42674</v>
       </c>
-      <c r="AE92" s="9" t="s">
+      <c r="AE92" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8173,10 +8993,10 @@
       <c r="F93" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="9">
         <v>42674</v>
       </c>
-      <c r="AE93" s="9" t="s">
+      <c r="AE93" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8187,22 +9007,22 @@
       <c r="B94" s="2">
         <v>347</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="8" t="s">
         <v>259</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="13" t="s">
         <v>291</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="9">
         <v>42675</v>
       </c>
-      <c r="AE94" s="9" t="s">
+      <c r="AE94" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8213,19 +9033,19 @@
       <c r="B95" s="2">
         <v>215</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="8" t="s">
         <v>262</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="9">
         <v>42675</v>
       </c>
-      <c r="V95" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE95" s="9" t="s">
+      <c r="V95" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE95" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8236,25 +9056,25 @@
       <c r="B96" s="2">
         <v>75</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="8" t="s">
         <v>263</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="13" t="s">
         <v>266</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G96" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="K96" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L96" s="9" t="s">
+      <c r="K96" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L96" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8265,19 +9085,19 @@
       <c r="B97" s="2">
         <v>22</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="13" t="s">
         <v>271</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="9">
         <v>42681</v>
       </c>
-      <c r="AD97" s="9" t="s">
+      <c r="AD97" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8288,16 +9108,16 @@
       <c r="B98" s="2">
         <v>39</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="8" t="s">
         <v>270</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G98" s="10">
+      <c r="G98" s="9">
         <v>42682</v>
       </c>
-      <c r="AD98" s="9" t="s">
+      <c r="AD98" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8308,19 +9128,19 @@
       <c r="B99" s="2">
         <v>40</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="13" t="s">
         <v>273</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G99" s="10">
+      <c r="G99" s="9">
         <v>42683</v>
       </c>
-      <c r="AD99" s="9" t="s">
+      <c r="AD99" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8331,19 +9151,19 @@
       <c r="B100" s="2">
         <v>46</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="12" t="s">
         <v>275</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="9">
         <v>42684</v>
       </c>
-      <c r="AD100" s="9" t="s">
+      <c r="AD100" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8354,19 +9174,19 @@
       <c r="B101" s="2">
         <v>47</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="12" t="s">
         <v>277</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="9">
         <v>42685</v>
       </c>
-      <c r="AD101" s="9" t="s">
+      <c r="AD101" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8377,22 +9197,22 @@
       <c r="B102" s="2">
         <v>92</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="8" t="s">
         <v>278</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="13" t="s">
         <v>280</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G102" s="9">
         <v>42687</v>
       </c>
-      <c r="N102" s="9" t="s">
+      <c r="N102" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8403,31 +9223,31 @@
       <c r="B103" s="2">
         <v>339</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="8" t="s">
         <v>284</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="13" t="s">
         <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G103" s="10">
+      <c r="G103" s="9">
         <v>42699</v>
       </c>
-      <c r="H103" s="14" t="s">
+      <c r="H103" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="I103" t="s">
-        <v>5</v>
-      </c>
-      <c r="R103" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z103" s="9" t="s">
+      <c r="I103" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R103" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z103" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8438,31 +9258,31 @@
       <c r="B104" s="2">
         <v>252</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="8" t="s">
         <v>286</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="13" t="s">
         <v>289</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G104" s="10">
+      <c r="G104" s="9">
         <v>42699</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="I104" t="s">
-        <v>5</v>
-      </c>
-      <c r="L104" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="U104" s="9" t="s">
+      <c r="I104" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U104" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8473,25 +9293,25 @@
       <c r="B105" s="2">
         <v>266</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="8" t="s">
         <v>295</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="13" t="s">
         <v>297</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G105" s="10">
+      <c r="G105" s="9">
         <v>42700</v>
       </c>
-      <c r="H105" s="15" t="s">
+      <c r="H105" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8502,7 +9322,7 @@
       <c r="B106" s="2">
         <v>243</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="8" t="s">
         <v>299</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -8511,16 +9331,16 @@
       <c r="F106" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G106" s="10">
+      <c r="G106" s="9">
         <v>42700</v>
       </c>
-      <c r="H106" s="9" t="s">
+      <c r="H106" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="I106" t="s">
-        <v>5</v>
-      </c>
-      <c r="L106" s="9" t="s">
+      <c r="I106" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L106" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8531,7 +9351,7 @@
       <c r="B107" s="2">
         <v>246</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="8" t="s">
         <v>301</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -8540,16 +9360,16 @@
       <c r="F107" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G107" s="10">
+      <c r="G107" s="9">
         <v>42700</v>
       </c>
-      <c r="H107" s="9" t="s">
+      <c r="H107" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="I107" t="s">
-        <v>5</v>
-      </c>
-      <c r="J107" s="9" t="s">
+      <c r="I107" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J107" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8560,28 +9380,28 @@
       <c r="B108" s="2">
         <v>276</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="8" t="s">
         <v>302</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="12" t="s">
         <v>304</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G108" s="9">
         <v>42700</v>
       </c>
-      <c r="H108" s="9" t="s">
+      <c r="H108" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="I108" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC108" s="9" t="s">
+      <c r="I108" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC108" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8592,31 +9412,31 @@
       <c r="B109" s="2">
         <v>270</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="8" t="s">
         <v>306</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="13" t="s">
         <v>310</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G109" s="10">
+      <c r="G109" s="9">
         <v>42701</v>
       </c>
-      <c r="H109" s="9" t="s">
+      <c r="H109" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="I109" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q109" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="X109" s="9" t="s">
+      <c r="I109" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q109" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X109" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8627,22 +9447,22 @@
       <c r="B110" s="2">
         <v>170</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="8" t="s">
         <v>308</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="13" t="s">
         <v>317</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G110" s="10">
+      <c r="G110" s="9">
         <v>42701</v>
       </c>
-      <c r="H110" s="9" t="s">
+      <c r="H110" s="8" t="s">
         <v>283</v>
       </c>
     </row>
@@ -8653,31 +9473,31 @@
       <c r="B111" s="2">
         <v>167</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="8" t="s">
         <v>318</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="13" t="s">
         <v>320</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G111" s="10">
+      <c r="G111" s="9">
         <v>42623</v>
       </c>
-      <c r="H111" s="9" t="s">
+      <c r="H111" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="K111" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L111" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="X111" s="9" t="s">
+      <c r="K111" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X111" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8688,115 +9508,115 @@
       <c r="B112" s="2">
         <v>280</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="8" t="s">
         <v>322</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="13" t="s">
         <v>325</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G112" s="10">
+      <c r="G112" s="9">
         <v>42701</v>
       </c>
-      <c r="H112" s="9" t="s">
+      <c r="H112" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="I112" t="s">
-        <v>5</v>
-      </c>
-      <c r="L112" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="U112" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:30" ht="204" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I112" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U112" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" ht="204" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B113" s="2">
         <v>366</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="8" t="s">
         <v>329</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E113" s="17" t="s">
+      <c r="E113" s="13" t="s">
         <v>327</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G113" s="10">
+      <c r="G113" s="9">
         <v>42702</v>
       </c>
-      <c r="H113" s="9" t="s">
+      <c r="H113" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="Q113" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z113" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD113" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:30" ht="261" x14ac:dyDescent="0.35">
+      <c r="Q113" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z113" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD113" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" ht="261" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B114" s="2">
         <v>364</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="8" t="s">
         <v>330</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="13" t="s">
         <v>336</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="9">
         <v>42705</v>
       </c>
-      <c r="H114" s="9" t="s">
+      <c r="H114" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="R114" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z114" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:30" ht="261" x14ac:dyDescent="0.35">
+      <c r="R114" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z114" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" ht="261" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B115" s="2">
         <v>249</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="8" t="s">
         <v>332</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="17" t="s">
         <v>335</v>
       </c>
       <c r="F115" s="2" t="s">
@@ -8808,223 +9628,229 @@
       <c r="I115" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:30" ht="116" x14ac:dyDescent="0.35">
+      <c r="J115" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB115" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" ht="116" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B116" s="2">
         <v>320</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="8" t="s">
         <v>337</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="13" t="s">
         <v>339</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G116" s="10">
+      <c r="G116" s="9">
         <v>42708</v>
       </c>
-      <c r="H116" s="9" t="s">
+      <c r="H116" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="I116" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD116" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:30" ht="288.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I116" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD116" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" ht="288.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B117" s="2">
         <v>254</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="8" t="s">
         <v>340</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E117" s="17" t="s">
+      <c r="E117" s="18" t="s">
         <v>343</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G117" s="10">
+      <c r="G117" s="9">
         <v>42709</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I117" t="s">
-        <v>5</v>
-      </c>
-      <c r="R117" s="9" t="s">
+      <c r="I117" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R117" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="AD117" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:30" ht="145" x14ac:dyDescent="0.35">
+      <c r="AD117" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" ht="145" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B118" s="2">
         <v>131</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="8" t="s">
         <v>345</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="13" t="s">
         <v>347</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G118" s="10">
+      <c r="G118" s="9">
         <v>42716</v>
       </c>
-      <c r="H118" s="9" t="s">
+      <c r="H118" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="M118" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="R118" s="9" t="s">
+      <c r="M118" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R118" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="AD118" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:30" ht="149" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD118" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" ht="149" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B119" s="2">
         <v>89</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="8" t="s">
         <v>348</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="13" t="s">
         <v>350</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G119" s="10">
+      <c r="G119" s="9">
         <v>42718</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="H119" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="T119" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:30" ht="174" x14ac:dyDescent="0.35">
+      <c r="T119" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" ht="174" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B120" s="2">
         <v>77</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="13" t="s">
         <v>356</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G120" s="10">
+      <c r="G120" s="9">
         <v>42718</v>
       </c>
-      <c r="AD120" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:30" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="AD120" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B121" s="2">
         <v>216</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="8" t="s">
         <v>353</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E121" s="13" t="s">
         <v>356</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G121" s="10">
+      <c r="G121" s="9">
         <v>42719</v>
       </c>
-      <c r="L121" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD121" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:30" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="L121" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD121" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B122" s="2">
         <v>60</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="8" t="s">
         <v>357</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="13" t="s">
         <v>359</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G122" s="10">
+      <c r="G122" s="9">
         <v>42719</v>
       </c>
-      <c r="N122" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD122" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="N122" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD122" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>46</v>
       </c>
@@ -9037,58 +9863,58 @@
       <c r="D123" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E123" s="13" t="s">
         <v>365</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G123" s="10">
+      <c r="G123" s="9">
         <v>42723</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="O123" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD123" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:30" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="O123" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD123" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B124" s="2">
         <v>79</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="8" t="s">
         <v>367</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="13" t="s">
         <v>369</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G124" s="10">
+      <c r="G124" s="9">
         <v>42723</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="L124" s="9" t="s">
+      <c r="L124" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="AD124" s="9" t="s">
+      <c r="AD124" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:32" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>46</v>
       </c>
@@ -9096,27 +9922,341 @@
         <v>357</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="13" t="s">
         <v>371</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G125" s="10">
+      <c r="G125" s="9">
         <v>42723</v>
       </c>
-      <c r="H125" s="9" t="s">
+      <c r="H125" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="AC125" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD125" s="9" t="s">
+      <c r="AC125" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD125" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" ht="87" x14ac:dyDescent="0.35">
+      <c r="A126" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" s="2">
+        <v>346</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G126" s="9">
+        <v>42723</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA126" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF126" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" ht="145" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="2">
+        <v>288</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G127" s="9">
+        <v>42723</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF127" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" ht="232" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" s="2">
+        <v>392</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G128" s="9">
+        <v>42724</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="O128" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129" s="2">
+        <v>153</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G129" s="9">
+        <v>42724</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X129" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B130" s="2">
+        <v>274</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G130" s="9">
+        <v>42724</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="L130" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U130" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B131" s="2">
+        <v>275</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G131" s="9">
+        <v>42724</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X131" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" ht="290" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132" s="2">
+        <v>475</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G132" s="9">
+        <v>42724</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q132" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B133" s="2">
+        <v>50</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G133" s="9">
+        <v>42725</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="S133" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134" s="2">
+        <v>242</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G134" s="9">
+        <v>42725</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J134" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P134" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" ht="203" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" s="2">
+        <v>438</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G135" s="9">
+        <v>42725</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="O135" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9129,10 +10269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E7"/>
+  <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9157,7 +10297,7 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -9165,7 +10305,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9199,6 +10339,16 @@
       </c>
       <c r="C7" s="6" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -3209,8 +3209,8 @@
       <xdr:row>134</xdr:row>
       <xdr:rowOff>613578</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Ink 7">
@@ -3229,7 +3229,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Ink 7">
@@ -3274,8 +3274,8 @@
       <xdr:row>134</xdr:row>
       <xdr:rowOff>1474938</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Ink 12">
@@ -3294,7 +3294,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Ink 12">
@@ -3339,8 +3339,8 @@
       <xdr:row>134</xdr:row>
       <xdr:rowOff>1254618</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="50" name="Ink 49">
@@ -3359,7 +3359,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="50" name="Ink 49">
@@ -3404,8 +3404,8 @@
       <xdr:row>134</xdr:row>
       <xdr:rowOff>1298178</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Ink 70">
@@ -3424,7 +3424,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Ink 70">
@@ -4217,9 +4217,9 @@
       <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
         <emma:interpretation id="{CEFFC407-DFB5-4945-8934-60BCF5748CF9}" emma:medium="tactile" emma:mode="ink">
           <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="18611,418390 25246,418471 25234,419472 18599,419392" semanticType="scratchOut" shapeName="Other">
-            <msink:sourceLink direction="with" ref="{580BA9EB-EFCB-460A-A696-8C4E87AD9940}"/>
             <msink:sourceLink direction="with" ref="{758E366B-9549-4592-A820-631B8C20F1CC}"/>
             <msink:sourceLink direction="with" ref="{C9D5966F-2E96-4E1E-854F-C19405131228}"/>
+            <msink:sourceLink direction="with" ref="{580BA9EB-EFCB-460A-A696-8C4E87AD9940}"/>
             <msink:sourceLink direction="with" ref="{78FB9D78-1799-4D80-B1EF-B0DF04DC2956}"/>
             <msink:sourceLink direction="with" ref="{BA4B0AF8-6392-4282-903A-44672EB00C12}"/>
             <msink:sourceLink direction="with" ref="{60213CF2-6932-4039-81E5-DD1BCCBB17EB}"/>
@@ -5499,7 +5499,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
+      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -15,6 +15,8 @@
     <sheet name="LeetCode Record 1" sheetId="1" r:id="rId1"/>
     <sheet name="Basic Data Structures" sheetId="2" r:id="rId2"/>
     <sheet name="Basic Algorithm" sheetId="3" r:id="rId3"/>
+    <sheet name="Bit Manipulation" sheetId="4" r:id="rId4"/>
+    <sheet name="Complexcity" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Record 1'!$A$1:$AF$128</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="486">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -2205,6 +2207,729 @@
 The substring with start index = 1 is "ba"
 The substring with start index = 2 is "ab"</t>
   </si>
+  <si>
+    <t>Nim Game</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>DP Solution
+boolean[] res = new boolean[n + 1];
+    res[0] = true;
+    res[1] = true;
+    res[2] = true;
+    res[3] = true;
+    for(int i = 4 ; i &lt;= n ; i++)
+        res[i] = !(res[i - 1] &amp;&amp; res[i - 2] &amp;&amp; res[i - 3]);
+    return res[n];
+//For example, if there are i items on heap. If you take 1 item, there will be (i - 1) for other player. If these (i - 1) item for the other play means "win", that means "lose" for you, which in code is that if res[i - 1] is true, you take 1 item and then you lose; otherwise, you win. Same reason for 2 items and 3 items.  if in one way other can lose, you win</t>
+  </si>
+  <si>
+    <t>You are playing the following Nim Game with your friend: There is a heap of stones on the table, each time one of you take turns to remove 1 to 3 stones. The one who removes the last stone will be the winner. You will take the first turn to remove the stones. 
+Both of you are very clever and have optimal strategies for the game. Write a function to determine whether you can win the game given the number of stones in the heap. 
+For example, if there are 4 stones in the heap, then you will never win the game: no matter 1, 2, or 3 stones you remove, the last stone will always be removed by your friend. 
+Just check if the number of stone n can be divided by 4 without remainder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Longest Palindrome</t>
+  </si>
+  <si>
+    <t>Corner Cases:
+1. "ccc" 
+Only one odd number can keep all chars, other odds need to minus one</t>
+  </si>
+  <si>
+    <t>Given a string which consists of lowercase or uppercase letters, find the length of the longest palindromes that can be built with those letters. This is case sensitive, for example "Aa" is not considered a palindrome here.
+Note: Assume the length of given string will not exceed 1,010. 
+Example: 
+Input:
+"abccccdd"
+Output:
+7
+One longest palindrome that can be built is "dccaccd"</t>
+  </si>
+  <si>
+    <t>Convert a Number to Hexadecimal</t>
+  </si>
+  <si>
+    <t>Given an integer, write an algorithm to convert it to hexadecimal. For negative integer, two’s complement method is used. 
+Note: 
+All letters in hexadecimal (a-f) must be in lowercase.
+The hexadecimal string must not contain extra leading 0s. If the number is zero, it is represented by a single zero character '0'; otherwise, the first character in the hexadecimal string will not be the zero character.
+The given number is guaranteed to fit within the range of a 32-bit signed integer.
+Example 1: Input: 26 Output: "1a"
+Example 2: Input: -1 Output: "ffffffff"</t>
+  </si>
+  <si>
+    <t>Binary Watch</t>
+  </si>
+  <si>
+    <t>For backtracking problems, one of the main thing to notice is NOT TO CHANGE ORIGINAL VALUE, for mutable objects should new one or remove, for immutable, pay attention not to update the value, for example:
+ for(int i = start; i &lt; arr.length; i++) {
+            dfs(arr, i + 1, n - 1, sum + arr[i], limit, all);
+}
+here,  n is int, n - 1 can keep original value, but n-- can not, same for String, assign back will change value, not assign will not.</t>
+  </si>
+  <si>
+    <t>int hrs[] = {1, 2, 4, 8};
+int mins[] = {1, 2, 4, 8, 16, 32};
+Given a non-negative integer n which represents the number of LEDs that are currently on, return all possible times the watch could represent.
+Example:
+Input: n = 1
+Return: ["1:00", "2:00", "4:00", "8:00", "0:01", "0:02", "0:04", "0:08", "0:16", "0:32"]
+Note:
+The order of output does not matter.
+The hour must not contain a leading zero, for example "01:00" is not valid, it should be "1:00".
+The minute must be consist of two digits and may contain a leading zero, for example "10:2" is not valid, it should be "10:02".</t>
+  </si>
+  <si>
+    <t>Flip Game</t>
+  </si>
+  <si>
+    <t>You are playing the following Flip Game with your friend: Given a string that contains only these two characters: + and -, you and your friend take turns to flip two consecutive "++" into "--". The game ends when a person can no longer make a move and therefore the other person will be the winner. 
+Write a function to compute all possible states of the string after one valid move. 
+For example, given s = "++++", after one move, it may become one of the following states: 
+[
+  "--++",
+  "+--+",
+  "++--"
+]</t>
+  </si>
+  <si>
+    <t>Flip Game II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are playing the following Flip Game with your friend: Given a string that contains only these two characters: + and -, you and your friend take turns to flip two consecutive "++" into "--". The game ends when a person can no longer make a move and therefore the other person will be the winner. 
+Write a function to determine if the starting player can guarantee a win. 
+For example, given s = "++++", return true. The starting player can guarantee a win by flipping the middle "++" to become "+--+". 
+Follow up:
+Derive your algorithm's runtime complexity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For game questions, must think of the component act the same as you too, that is optimizing the chance of winning. For this question, the logic is I can win when this round can flip and next round can not. Compare with 292.
+Backtracking uses recurrsion, so think in one step. 
+Corner cases:
+1. "+++++++++"
+</t>
+  </si>
+  <si>
+    <t>Can I Win</t>
+  </si>
+  <si>
+    <r>
+      <t>A very convenient way to work with binary numbers in your code is to use the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Integer.parseInt()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command. Integer.parseInt("101",2) creates an integer with the binary value of 101 (decimal 5). This means that you can even do a for loop with binary in this manner:
+/* loops from 5 up to and including 15 */
+for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(int b = Integer.parseInt("0101",2);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> b &lt;= Integer.parseInt("1111",2); b++) {
+ /* do stuff here */
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Convert others to int</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Turn off bit</t>
+  </si>
+  <si>
+    <t>&amp; with 1</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>unsigned shift (the first bit will also be shift)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>signed shift (the first bit stays the same)</t>
+  </si>
+  <si>
+    <t>Set bit /turn on</t>
+  </si>
+  <si>
+    <t>| 1</t>
+  </si>
+  <si>
+    <t>This is more of a combination problem rather than permutation. So if each time search from the beginning it is slow, use binary number to keep track of what's used. The number represent the track we have visited before, and will be used as the key of map
+Corner cases:
+1. 18, 79 //TLE
+2. 10, 40 and 5, 20// Ok for set but not for map
+3. 7,16 //dfs return get(key) or false
+4. 5, 50</t>
+  </si>
+  <si>
+    <t>Minimax:  you strategy is the best, but your luck is the worst. minimizing the possible loss for a worst case (maximum loss) 
+public int getMoneyAmount(int n) {
+        int[][] table = new int[n + 1][n + 1];
+        return dp(table, 1, n);
+    }
+    private int dp(int[][] table, int start, int end) {
+        if(start &gt;= end) return 0; //&gt;=, not just ==
+        if(table[start][end] != 0) return table[start][end];
+        int min = Integer.MAX_VALUE;
+        for(int pick = start; pick &lt; end; pick++) {
+            int luck = pick + Math.max(dp(table, start, pick - 1), dp(table, pick + 1, end));//worst luck
+            min = Math.min(min, luck);//best choice
+        }
+        table[start][end] = min;
+        return min;
+    }</t>
+  </si>
+  <si>
+    <t>We are playing the Guess Game. The game is as follows:
+I pick a number from 1 to n. You have to guess which number I picked.
+Every time you guess wrong, I'll tell you whether the number I picked is higher or lower.
+However, when you guess a particular number x, and you guess wrong, you pay $x. You win the game when you guess the number I picked.</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>375*</t>
+  </si>
+  <si>
+    <t>In the "100 game," two players take turns adding, to a running total, any integer from 1..10. The player who first causes the running total to reach or exceed 100 wins.
+What if we change the game so that players cannot re-use integers?
+For example, two players might take turns drawing from a common pool of numbers of 1..15 without replacement until they reach a total &gt;= 100.
+Given an integer maxChoosableInteger and another integer desiredTotal, determine if the first player to move can force a win, assuming both players play optimally.
+You can always assume that maxChoosableInteger will not be larger than 20 and desiredTotal will not be larger than 300.</t>
+  </si>
+  <si>
+    <t>Fizz Buzz</t>
+  </si>
+  <si>
+    <t>Write a program that outputs the string representation of numbers from 1 to n.
+But for multiples of three it should output “Fizz” instead of the number and for the multiples of five output “Buzz”. For numbers which are multiples of both three and five output “FizzBuzz”.</t>
+  </si>
+  <si>
+    <t>Google
+Airbnb</t>
+  </si>
+  <si>
+    <t>Add String</t>
+  </si>
+  <si>
+    <t>Given two non-negative numbers num1 and num2 represented as string, return the sum of num1 and num2.
+Note:
+The length of both num1 and num2 is &lt; 5100.
+Both num1 and num2 contains only digits 0-9.
+Both num1 and num2 does not contain any leading zero.
+You must not use any built-in BigInteger library or convert the inputs to integer directly.</t>
+  </si>
+  <si>
+    <t>1. Calculate carry trick
+sb.append((x + y + carry) % 10);
+carry = (x + y + carry) / 10;
+2. Reverse StringBuilder trick
+sb.reverse().toString();</t>
+  </si>
+  <si>
+    <t>Cautions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">remove(Object o)
+remove(int index)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java always calls the method that best suits your argument. Auto boxing and implicit upcasting is only performed if there's no method which can be called without casting / auto boxing.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+That means that list.remove(1) removes the object at position 1 and remove(new Integer(1)) removes the first occurrence of the specified element from this list.</t>
+    </r>
+  </si>
+  <si>
+    <t>AC 1 (Think long time)</t>
+  </si>
+  <si>
+    <t>Path Sum III</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You are given a binary tree in which each node contains an integer value.Find the number of paths that sum to a given value.
+The path does not need to start or end at the root or a leaf, but it must go downwards (traveling only from parent nodes to child nodes).The tree has no more than 1,000 nodes and the values are in the range -1,000,000 to 1,000,000.
+Example: The number of paths that sum to 8 is 3
+      10
+     /  \
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  5 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   / \    \
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ / \   \
+3  -2   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Use hash map to store prefix sum would be faster
+check if currentSum - elementInMap == target =&gt; res
+res += leftchild + rightchild
+Caution:
+1. remove() in list
+2. change element value in list, should use set(index, value)</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[9,8,2,5,6,99,19,3,1,1,2,3,4,5,6,7,8] 的轨迹
+9 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 
+8 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 
+2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 
+2 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 
+2 5 6 0 0 0 0 0 0 0 0 0 0 0 0 0 0 
+2 5 6 99 0 0 0 0 0 0 0 0 0 0 0 0 0 
+2 5 6 19 0 0 0 0 0 0 0 0 0 0 0 0 0 
+2 3 6 19 0 0 0 0 0 0 0 0 0 0 0 0 0 
+1 3 6 19 0 0 0 0 0 0 0 0 0 0 0 0 0 
+1 3 6 19 0 0 0 0 0 0 0 0 0 0 0 0 0 
+1 2 6 19 0 0 0 0 0 0 0 0 0 0 0 0 0 
+1 2 3 19 0 0 0 0 0 0 0 0 0 0 0 0 0 
+1 2 3 4 0 0 0 0 0 0 0 0 0 0 0 0 0 
+1 2 3 4 5 0 0 0 0 0 0 0 0 0 0 0 0 
+1 2 3 4 5 6 0 0 0 0 0 0 0 0 0 0 0 
+1 2 3 4 5 6 7 0 0 0 0 0 0 0 0 0 0 
+1 2 3 4 5 6 7 8 0 0 0 0 0 0 0 0 0 </t>
+  </si>
+  <si>
+    <t>Given an unsorted array of integers, find the length of longest increasing subsequence.
+For example,
+Given [10, 9, 2, 5, 3, 7, 101, 18],
+The longest increasing subsequence is [2, 3, 7, 101], therefore the length is 4. Note that there may be more than one LIS combination, it is only necessary for you to return the length.
+Your algorithm should run in O(n2) complexity.
+Follow up: Could you improve it to O(n log n) time complexity?</t>
+  </si>
+  <si>
+    <t>Power of Four</t>
+  </si>
+  <si>
+    <t>Queue Reconstruction by Height</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>int[][] people 
+Arrays.sort(people, (p1, p2) -&gt; p1[0] == p2[0] ? p1[1] - p2[1] : p2[0] - p1[0]);
+增序就增序地减，降序就降序地减（减的前后和排序的前后一致）</t>
+  </si>
+  <si>
+    <t>Sort first, then insert
+Lambda expression for comparator
+toArray(new Object[0]) is identical in function to toArray().</t>
+  </si>
+  <si>
+    <t>Suppose you have a random list of people standing in a queue. Each person is described by a pair of integers (h, k), where h is the height of the person and k is the number of people in front of this person who have a height greater than or equal to h. Write an algorithm to reconstruct the queue.
+The number of people is less than 1,100.
+Example
+Input:
+[[7,0], [4,4], [7,1], [5,0], [6,1], [5,2]]
+Output:
+[[5,0], [7,0], [5,2], [6,1], [4,4], [7,1]]</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+  </si>
+  <si>
+    <r>
+      <t>You have a number of envelopes with widths and heights given as a pair of integers (w, h). One envelope can fit into another if and only if both the width and height of one envelope is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> greater than</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the width and height of the other envelope.
+What is the maximum number of envelopes can you Russian doll? 
+Example:
+Given envelopes = [[5,4],[6,4],[6,7],[2,3]], the maximum number of envelopes you can Russian doll is 3 ([2,3] =&gt; [5,4] =&gt; [6,7]).</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of Segments in a String</t>
+  </si>
+  <si>
+    <t>Corner cases:
+1. "  "
+2. ", , , ,        a, eaefa"
+3. "    foo    bar"
+str.split(",");</t>
+  </si>
+  <si>
+    <t>Simular to 300, lambda comparator
+Steps
+1. sort array width ascendingly and heights descendingly
+2. find longest increasing subarrays for heights</t>
+  </si>
+  <si>
+    <t>Count the number of segments in a string, where a segment is defined to be a contiguous sequence of non-space characters.
+Please note that the string does not contain any non-printable characters.
+Example:
+Input: "Hello, my name is John"
+Output: 5</t>
+  </si>
+  <si>
+    <t>3 Sum</t>
+  </si>
+  <si>
+    <t>Given an array S of n integers, are there elements a, b, c in S such that a + b + c = 0? Find all unique triplets in the array which gives the sum of zero.
+Note: The solution set must not contain duplicate triplets.
+For example, given array S = [-1, 0, 1, 2, -1, -4],
+A solution set is:
+[
+  [-1, 0, 1],
+  [-1, -1, 2]
+]</t>
+  </si>
+  <si>
+    <t>I used backtracking and removing dup is kind of hard…
+Can use 1 pointer from 0 ~ num.length - 2
+then two pointers for 2 sum</t>
+  </si>
+  <si>
+    <t>4 Sum</t>
+  </si>
+  <si>
+    <t>TLE then AC hint</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corner Cases
+1. [0, 0, 0, 0] and 0
+2. [5,5,3,5,1,-5,1,-2] and 4
+3. TLE [-430,-407,-404,-370,-364,-343,-291,-263,-257,-242,-213,-212,-210,-209,-172,-144,-85,-79,-70,-36,-34,-14,0,18,31,36,45,45,83,117,120,134,153,178,186,197,208,223,234,263,264,313,341,382,388,421,427,439,445,451,458,467,474,480]
+4668
+Note:
+1. Only need to skip dup when equal to target, which is when it will add to res
+2. skip dup can use 
+if(i &gt; start &amp;&amp; nums[i] == nums[i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1]) continue; //at the beginning of loop or,
+while (i &lt; len-1 &amp;&amp; nums[i] == nums[i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1]) {
+        i++;
+}//at the end
+3. backtracking will TLE</t>
+    </r>
+  </si>
+  <si>
+    <t>Given an array S of n integers, are there elements a, b, c, and d in S such that a + b + c + d = target? Find all unique quadruplets in the array which gives the sum of target.
+Note: The solution set must not contain duplicate quadruplets.
+For example, given array S = [1, 0, -1, 0, -2, 2], and target = 0.
+A solution set is:
+[
+  [-1,  0, 0, 1],
+  [-2, -1, 1, 2],
+  [-2,  0, 0, 2]
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon 
+Microsoft 
+Bloomberg 
+Facebook 
+Adobe 
+Works Applications </t>
+  </si>
+  <si>
+    <t>3Sum Closest</t>
+  </si>
+  <si>
+    <t>Given an array S of n integers, find three integers in S such that the sum is closest to a given number, target. Return the sum of the three integers. You may assume that each input would have exactly one solution.
+    For example, given array S = {-1 2 1 -4}, and target = 1.
+    The sum that is closest to the target is 2. (-1 + 2 + 1 = 2).</t>
+  </si>
+  <si>
+    <t>Corner case:
+TLE
+1. [43,75,-90,47,-49,72,17,-31,-68,-22,-21,-30,65,88,-75,23,97,-61,53,87,-3,33,20,51,-79,43,80,-9,34,-89,-7,93,43,55,-94,29,-32,-49,25,72,-6,35,53,63,6,-62,-96,-83,-73,66,-11,96,-90,-27,78,-51,79,35,-63,85,-82,-15,100,-82,1,-4,-41,-21,11,12,12,72,-82,-22,37,47,-18,61,60,55,22,-6,26,-60,-42,-92,68,45,-1,-26,5,-56,-1,73,92,-55,-20,-43,-56,-15,7,52,35,-90,63,41,-55,-58,46,-84,-92,17,-66,-23,96,-19,-44,77,67,-47,-48,99,51,-25,19,0,-13,-88,-10,-67,14,7,89,-69,-83,86,-70,-66,-38,-50,66,0,-67,-91,-65,83,42,70,-6,52,-21,-86,-87,-44,8,49,-76,86,-3,87,-32,81,-58,37,-55,19,-26,66,-89,-70,-69,37,0,19,-65,38,7,3,1,-96,96,-65,-52,66,5,-3,-87,-16,-96,57,-74,91,46,-79,0,-69,55,49,-96,80,83,73,56,22,58,-44,-40,-45,95,99,-97,-22,-33,-92,-51,62,20,70,90]
+284
+2. [-3,-2,-5,3,-4]
+-1
+Three loops will TLE, for the 2 sum part use head tail pointers</t>
+  </si>
+  <si>
+    <t>3Sum Smaller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array of n integers nums and a target, find the number of index triplets i, j, k with 0 &lt;= i &lt; j &lt; k &lt; n that satisfy the condition nums[i] + nums[j] + nums[k] &lt; target.
+For example, given nums = [-2, 0, 1, 3], and target = 2.
+Return 2. Because there are two triplets which sums are less than 2:
+[-2, 0, 1]
+[-2, 0, 3]
+Follow up:
+Could you solve it in O(n2) runtime? </t>
+  </si>
 </sst>
 </file>
 
@@ -2213,7 +2938,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2258,6 +2983,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2279,7 +3029,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2287,12 +3037,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2345,6 +3104,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5494,12 +6256,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG135"/>
+  <dimension ref="A1:AG159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+      <selection pane="bottomLeft" activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5614,7 +6376,9 @@
       <c r="AF1" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="AG1" s="7"/>
+      <c r="AG1" s="7" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="2" spans="1:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -10045,7 +10809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>46</v>
       </c>
@@ -10077,7 +10841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:30" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>46</v>
       </c>
@@ -10109,7 +10873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:30" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>46</v>
       </c>
@@ -10141,7 +10905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="290" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:30" ht="290" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>78</v>
       </c>
@@ -10173,7 +10937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>46</v>
       </c>
@@ -10199,7 +10963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:30" ht="145" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>30</v>
       </c>
@@ -10231,7 +10995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="203" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:30" ht="203" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>30</v>
       </c>
@@ -10258,6 +11022,559 @@
       </c>
       <c r="O135" s="8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" ht="203" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="2">
+        <v>292</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G136" s="9">
+        <v>42726</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="S136" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC136" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" s="2">
+        <v>409</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G137" s="9">
+        <v>42726</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" s="2">
+        <v>401</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G138" s="9">
+        <v>42726</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD138" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" ht="203" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" s="2">
+        <v>293</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G139" s="9">
+        <v>42726</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B140" s="2">
+        <v>294</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G140" s="9">
+        <v>42726</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B141" s="2">
+        <v>464</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G141" s="9">
+        <v>42727</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T141" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC141" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD141" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" ht="261" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G142" s="9">
+        <v>42728</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC142" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" ht="87" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" s="2">
+        <v>412</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G143" s="9">
+        <v>773213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" ht="145" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" s="2">
+        <v>415</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G144" s="9">
+        <v>42728</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B145" s="2">
+        <v>437</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G145" s="9">
+        <v>42728</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M145" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q145" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB145" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD145" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33" ht="261" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146" s="2">
+        <v>300</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G146" s="9">
+        <v>42731</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="L146" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X146" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC146" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B147" s="2">
+        <v>354</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G147" s="9">
+        <v>42731</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="L147" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X147" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC147" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" ht="174" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" s="2">
+        <v>406</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G148" s="9">
+        <v>42731</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG148" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B149" s="2">
+        <v>434</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G149" s="9">
+        <v>42731</v>
+      </c>
+      <c r="O149" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33" ht="145" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B150" s="2">
+        <v>15</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G150" s="9">
+        <v>42732</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33" ht="261" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B151" s="2">
+        <v>18</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G151" s="9">
+        <v>42733</v>
+      </c>
+      <c r="K151" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33" ht="261" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B152" s="2">
+        <v>16</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G152" s="9">
+        <v>42733</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="K152" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L152" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33" ht="145" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G153" s="9">
+        <v>42733</v>
+      </c>
+      <c r="H153" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I153" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33" ht="174" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" s="2">
+        <v>405</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="T158" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159" s="2">
+        <v>342</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -10269,10 +11586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10280,9 +11597,10 @@
     <col min="2" max="2" width="17.1796875" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="38.6328125" customWidth="1"/>
+    <col min="7" max="7" width="40.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>131</v>
       </c>
@@ -10295,8 +11613,11 @@
       <c r="E1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>132</v>
       </c>
@@ -10304,17 +11625,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="58" x14ac:dyDescent="0.35">
       <c r="C3" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>257</v>
       </c>
@@ -10322,7 +11643,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="145" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>258</v>
       </c>
@@ -10333,20 +11654,26 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>314</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>373</v>
       </c>
@@ -10358,14 +11685,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="17.453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="55.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10375,7 +11703,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C2" t="s">
@@ -10383,29 +11711,114 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.54296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="67.6328125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="19" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="487">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -2929,6 +2929,26 @@
 [-2, 0, 3]
 Follow up:
 Could you solve it in O(n2) runtime? </t>
+  </si>
+  <si>
+    <t>int count;
+    public int threeSumSmaller(int[] nums, int target) {
+        count = 0;
+        Arrays.sort(nums);
+        int len = nums.length;
+        for(int i=0; i&lt;len-2; i++) {
+            int left = i+1, right = len-1;
+            while(left &lt; right) {
+                if(nums[i] + nums[left] + nums[right] &lt; target) {
+                    count += right-left;
+                    left++;
+                } else {
+                    right--;
+                }
+            }
+        }
+        return count;
+    }</t>
   </si>
 </sst>
 </file>
@@ -6258,10 +6278,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G153" sqref="G153"/>
+      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11529,7 +11549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:33" ht="145" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:33" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>46</v>
       </c>
@@ -11539,6 +11559,12 @@
       <c r="D153" s="2" t="s">
         <v>485</v>
       </c>
+      <c r="E153" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G153" s="9">
         <v>42733</v>
       </c>
@@ -11546,6 +11572,15 @@
         <v>292</v>
       </c>
       <c r="I153" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K153" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L153" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W153" s="8" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="670">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -2271,9 +2271,6 @@
     <t>Turn off bit</t>
   </si>
   <si>
-    <t>&amp; with 1</t>
-  </si>
-  <si>
     <t>&gt;&gt;&gt;</t>
   </si>
   <si>
@@ -2284,12 +2281,6 @@
   </si>
   <si>
     <t>signed shift (the first bit stays the same)</t>
-  </si>
-  <si>
-    <t>Set bit /turn on</t>
-  </si>
-  <si>
-    <t>| 1</t>
   </si>
   <si>
     <t>This is more of a combination problem rather than permutation. So if each time search from the beginning it is slow, use binary number to keep track of what's used. The number represent the track we have visited before, and will be used as the key of map
@@ -3651,12 +3642,6 @@
 2. Reverse each word.</t>
   </si>
   <si>
-    <t>str.split(" ")
-String[] parts = s.trim().split("\\s+"); //remove multiple spaces
-str.lastIndexOf("a")
-String s = new String(charArray); //convert char array back to a String</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">.values() returns a Collections of values. (Collections is the super class of List) 
 </t>
@@ -3816,6 +3801,383 @@
 solution.pick(3);
 // pick(1) should return 0. Since in the array only nums[0] is equal to 1.
 solution.pick(1);</t>
+  </si>
+  <si>
+    <t>Steps:
+1. Compare right and left heights, move the shorter one to next (because moving bigger one will only make area smaller because x is shorter but y is the same)
+2. Stores all areas in each case in list
+3. Pick the max area from the list</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Given n non-negative integers a1, a2, ..., an, where each represents a point at coordinate (i, ai). n vertical lines are drawn such that the two endpoints of line i is at (i, ai) and (i, 0). Find two lines, which together with x-axis forms a container, such that the container contains the most water.
+Note: You may not slant the container and n is at least 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google 
+Twitter 
+Zenefits 
+Amazon 
+Apple 
+Bloomberg </t>
+  </si>
+  <si>
+    <t>Corner case:
+[5,2,1,2,1,5]
+Method 1: a stack of decreasing heights, when increase, pop() as bottom, peek() as left height (when not empty)
+Method 2: 2 pointers from left and right, for each index, the water that fit is min of 2 pointers' height minus index height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given n non-negative integers representing an elevation map where the width of each bar is 1, compute how much water it is able to trap after raining.
+For example, 
+Given [0,1,0,2,1,0,1,3,2,1,2,1], return 6.
+</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>Follow up for "Remove Duplicates":
+What if duplicates are allowed at most twice?
+For example,
+Given sorted array nums = [1,1,1,2,2,3],
+Your function should return length = 5, with the first five elements of nums being 1, 1, 2, 2 and 3. It doesn't matter what you leave beyond the new length.</t>
+  </si>
+  <si>
+    <t>Steps:
+1. Two pointers, one is res, one is i for looping whole array
+2. The idea is res only ++ when the num should be kept, but i always ++, so if there are unwanted number, i will be larger than res, those between i and res are numbers to be throws away, they will be replace when res++
+3. When the num is legal, copy nums[i] to nums[res];</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>public static int binarySearch(int[] a,
+               int fromIndex,
+               int toIndex,
+               int key)
+Returns:
+index of the search key, if it is contained in the array within the specified range; otherwise, (-(insertion point) - 1). This guarantees that the return value will be &gt;= 0 if and only if the key is found.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Needs to judge:
+1. which part is sorted
+2. target compare with nums[mid]
+3. if nums[right] == nums[left] == nums[mid], can only move pointers now
+Corner cases:
+1. [1,3,5] find 1 //Arrays.binarySearch returns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;= 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when found, not &gt; 0, also end index is exclusive
+2. [1,1,3,1] find 3
+3. [3,1,1] find 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Beat 70% 依旧注意Arrays.binarySearch() 返回&gt;= 0</t>
+  </si>
+  <si>
+    <t>Suppose an array sorted in ascending order is rotated at some pivot unknown to you beforehand.
+(i.e., 0 1 2 4 5 6 7 might become 4 5 6 7 0 1 2).
+You are given a target value to search. If found in the array return its index, otherwise return -1.
+You may assume no duplicate exists in the array.</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Follow up for "Search in Rotated Sorted Array":
+What if duplicates are allowed?
+Would this affect the run-time complexity? How and why?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yes, worst case O(n), consider 1,1,1,1,1,1,1,1,5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Suppose an array sorted in ascending order is rotated at some pivot unknown to you beforehand.
+(i.e., 0 1 2 4 5 6 7 might become 4 5 6 7 0 1 2).
+Write a function to determine if a given target is in the array.
+The array may contain duplicates.</t>
+    </r>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Given a matrix of m x n elements (m rows, n columns), return all elements of the matrix in spiral order.
+For example,
+Given the following matrix:
+[
+ [ 1, 2, 3 ],
+ [ 4, 5, 6 ],
+ [ 7, 8, 9 ]
+]
+You should return [1,2,3,6,9,8,7,4,5].</t>
+  </si>
+  <si>
+    <t>Avoid walking the same path. To do so, compare up/down or lft/rgt everytime they changes.</t>
+  </si>
+  <si>
+    <t>Find the total Hamming distance between all pairs of the given numbers.
+Example:
+Input: 4, 14, 2
+Output: 6
+Explanation: In binary representation, the 4 is 0100, 14 is 1110, and 2 is 0010 (just showing the four bits relevant in this case). So the answer will be:
+HammingDistance(4, 14) + HammingDistance(4, 2) + HammingDistance(14, 2) = 2 + 2 + 2 = 6.
+Note:
+Elements of the given array are in the range of 0 to 10^9
+Length of the array will not exceed 10^4.</t>
+  </si>
+  <si>
+    <t>Assuming we have an array of five integers a, b, c, d, e as follow.
+We examine the digits one by one from the last digit.
+Count the number of integers whose last digit is 1, assign the value to ones
+    a = 0 0 0 1 0
+    b = 1 0 0 1 1
+    c = 0 1 0 0 1
+    d = 1 0 0 1 0
+    e = 0 0 0 1 0
+                       ↑
+    ones: b, c
+    zeros: a, d, e
+    So we have 2 ones and 5 - 2 = 3 zeros
+    Total distance = 2 * 3
+    then we move the pointer one position left, i.e. all the numbers right shift by 1 (num &gt;&gt;&gt; 1)</t>
+  </si>
+  <si>
+    <t>Spiral Matrix II</t>
+  </si>
+  <si>
+    <t>Given an integer n, generate a square matrix filled with elements from 1 to n2 in spiral order.
+For example,
+Given n = 3,
+You should return the following matrix:
+[
+ [ 1, 2, 3 ],
+ [ 8, 9, 4 ],
+ [ 7, 6, 5 ]
+]</t>
+  </si>
+  <si>
+    <t>Same as above</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Given a m x n matrix, if an element is 0, set its entire row and column to 0. Do it in place.
+Follow up:
+Did you use extra space?
+A straight forward solution using O(mn) space is probably a bad idea.
+A simple improvement uses O(m + n) space, but still not the best solution.
+Could you devise a constant space solution?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My O(m + n) space solution, just loop through all elements, put empty rows and cols indices in a set, then loop through set to set 0 in original matrix.
+An O(1) space solution is use first row and first column as markers of 0, also keep 2 boolean indicating whether first col and first row need to be set to 0. </t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedIn 
+Bloomberg 
+Uber 
+Facebook 
+Microsoft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft 
+Google 
+Uber </t>
+  </si>
+  <si>
+    <t>Microsoft
+Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropbox 
+Google 
+Two Sigma 
+Snapchat </t>
+  </si>
+  <si>
+    <t>Set bit /turn on (make it 1)</t>
+  </si>
+  <si>
+    <t>invert a specific bit</t>
+  </si>
+  <si>
+    <t>myByte ^= 1 &lt;&lt; bit;</t>
+  </si>
+  <si>
+    <t>| 1
+myByte |= 1 &lt;&lt; pos;</t>
+  </si>
+  <si>
+    <t>&amp; with 1
+myByte &amp;= ~(1 &lt;&lt; position);</t>
+  </si>
+  <si>
+    <t>Given a board with m by n cells, each cell has an initial state live (1) or dead (0). Each cell interacts with its eight neighbors (horizontal, vertical, diagonal) using the following four rules (taken from the above Wikipedia article):
+Any live cell with fewer than two live neighbors dies, as if caused by under-population.
+Any live cell with two or three live neighbors lives on to the next generation.
+Any live cell with more than three live neighbors dies, as if by over-population..
+Any dead cell with exactly three live neighbors becomes a live cell, as if by reproduction.
+Write a function to compute the next state (after one update) of the board given its current state.</t>
+  </si>
+  <si>
+    <t>In place and bit-manipulation steps:
+1. A separate method to calculate neighbors, calculate the 3 * 3 grids then minus itself. Tricky parts: termination is &lt;= not &lt;, in the end minus res itself, remember to &amp; 1
+2. Use 2 bits to represent next state and current state, next state is default to be 0
+3. To get the current state, board[i][j] &amp; 1
+To get the next state, board[i][j] &gt;&gt; 1
+Follow up: 
+Could you solve it in-place? Remember that the board needs to be updated at the same time: You cannot update some cells first and then use their updated values to update other cells.
+In this question, we represent the board using a 2D array. In principle, the board is infinite, which would cause problems when the active area encroaches the border of the array. How would you address these problems?</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Integer.parseInt(String str);//return Integer
+Integer.valueOf(String str);//return Integer</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>str.split(" ")
+String[] parts = s.trim().split("\\s+"); //remove multiple spaces
+str.lastIndexOf("a")
+String s = new String(charArray); //convert char array back to a String
+String.valueOf(Integer); 或 String.toString(int)//return String</t>
+  </si>
+  <si>
+    <t>Given a sorted integer array without duplicates, return the summary of its ranges.
+For example, given [0,1,2,4,5,7], return ["0-&gt;2","4-&gt;5","7"].</t>
+  </si>
+  <si>
+    <t>Corner case: 
+1. only 1 number in the array
+2. [1,3]
+3. [-2147483648,-2147483647,2147483647]
+Steps:
+1. Start from i = 0 is better than ii = 1, careful for int overflow when nums[i + 1] - nums[i], so nums[i] + 1 == nums[i + 1] is better.
+2. Take care of the final element in the array (start from i = 0 can do it)</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Given an array of n positive integers and a positive integer s, find the minimal length of a contiguous subarray of which the sum ≥ s. If there isn't one, return 0 instead.
+For example, given the array [2,3,1,2,4,3] and s = 7,
+the subarray [4,3] has the minimal length under the problem constraint.
+If you have figured out the O(n) solution, try coding another solution of which the time complexity is O(n log n).</t>
+  </si>
+  <si>
+    <t>Corner cases:
+1. input array is empty, return 0
+2. if all element in array add up is less than target, return 0
+3. 213 [12,28,83,4,25,26,25,2,25,25,25,12] //return 8
+4. 11 [1,2,3,4,5] //return 3
+In conclusion, need to consider when adding all is smaller than target, the final one in the array
+Let sum be 0 at first and add nums[b] before b++ will save some effort
+Basic idea is to use two pointers, when sum &gt;= target, move left pointer, else move right</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>就是一个循环（没有嵌套），两个不嵌套的循环还是算O(n)</t>
+  </si>
+  <si>
+    <t>Given an array of integers where 1 ≤ a[i] ≤ n (n = size of array), some elements appear twice and others appear once.
+Find all the elements of [1, n] inclusive that do not appear in this array.
+Could you do it without extra space and in O(n) runtime? You may assume the returned list does not count as extra space.
+Example:
+Input:
+[4,3,2,7,8,2,3,1]
+Output:
+[5,6]</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>Corner Case:
+1. [1,1] 缺结尾到n
+2. empty array input
+3. [2,2] 缺1到开头
+Negative number marker method
+1. iterate once, when meet a num in arr, mark arr[num] to be negative if not already. 
+2. iterate second time, if number not negative, add the index to list.
+(base on the fact that all numbers in the arr are &lt;= arr.length</t>
+  </si>
+  <si>
+    <t>Assign Cookies</t>
+  </si>
+  <si>
+    <t>Corner case:
+[10,9,8,7]
+[5,6,7,8]
+Steps:
+1. sort two arrays
+2. two pointers for each of them, move child pointer when one is content</t>
+  </si>
+  <si>
+    <t>Assume you are an awesome parent and want to give your children some cookies. But, you should give each child at most one cookie. Each child i has a greed factor gi, which is the minimum size of a cookie that the child will be content with; and each cookie j has a size sj. If sj &gt;= gi, we can assign the cookie j to the child i, and the child i will be content. Your goal is to maximize the number of your content children and output the maximum number.
+Note:
+You may assume the greed factor is always positive. 
+You cannot assign more than one cookie to one child.
+Example 1:
+Input: [1,2,3], [1,1]
+Output: 1</t>
   </si>
 </sst>
 </file>
@@ -6026,8 +6388,8 @@
       <xdr:row>167</xdr:row>
       <xdr:rowOff>1139229</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Ink 15">
@@ -6046,7 +6408,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Ink 15">
@@ -6091,8 +6453,8 @@
       <xdr:row>167</xdr:row>
       <xdr:rowOff>1134189</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="Ink 17">
@@ -6111,7 +6473,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="Ink 17">
@@ -6156,8 +6518,8 @@
       <xdr:row>167</xdr:row>
       <xdr:rowOff>1324509</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="Ink 18">
@@ -6176,7 +6538,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="Ink 18">
@@ -6221,8 +6583,8 @@
       <xdr:row>167</xdr:row>
       <xdr:rowOff>1578669</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Ink 19">
@@ -6241,7 +6603,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Ink 19">
@@ -6286,8 +6648,8 @@
       <xdr:row>167</xdr:row>
       <xdr:rowOff>1587789</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId74">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Ink 22">
@@ -6306,7 +6668,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Ink 22">
@@ -6351,8 +6713,8 @@
       <xdr:row>167</xdr:row>
       <xdr:rowOff>1765149</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId76">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Ink 27">
@@ -6371,7 +6733,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Ink 27">
@@ -6477,8 +6839,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>2566618</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Ink 34">
@@ -6497,7 +6859,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Ink 34">
@@ -6542,8 +6904,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>1767898</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Ink 39">
@@ -6562,7 +6924,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Ink 39">
@@ -6607,8 +6969,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>2143498</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="42" name="Ink 41">
@@ -6627,7 +6989,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="42" name="Ink 41">
@@ -6672,8 +7034,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>2426218</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="46" name="Ink 45">
@@ -6692,7 +7054,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="46" name="Ink 45">
@@ -6737,8 +7099,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>2374858</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="Ink 46">
@@ -6757,7 +7119,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="47" name="Ink 46">
@@ -6802,8 +7164,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>2401738</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="49" name="Ink 48">
@@ -6822,7 +7184,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="49" name="Ink 48">
@@ -6867,8 +7229,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>2466298</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="54" name="Ink 53">
@@ -6887,7 +7249,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="54" name="Ink 53">
@@ -6932,8 +7294,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>2446138</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="60" name="Ink 59">
@@ -6952,7 +7314,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="60" name="Ink 59">
@@ -6997,8 +7359,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>2038618</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="62" name="Ink 61">
@@ -7017,7 +7379,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="62" name="Ink 61">
@@ -7062,8 +7424,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>2651818</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="64" name="Ink 63">
@@ -7082,7 +7444,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="64" name="Ink 63">
@@ -7127,8 +7489,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>2494378</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="108" name="Ink 107">
@@ -7147,7 +7509,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="108" name="Ink 107">
@@ -7192,8 +7554,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>1998298</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="111" name="Ink 110">
@@ -7212,7 +7574,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="111" name="Ink 110">
@@ -7257,8 +7619,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>2301658</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="122" name="Ink 121">
@@ -7277,7 +7639,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="122" name="Ink 121">
@@ -7322,8 +7684,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>428218</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="132" name="Ink 131">
@@ -7342,7 +7704,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="132" name="Ink 131">
@@ -7387,8 +7749,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>1493578</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId107">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="135" name="Ink 134">
@@ -7407,7 +7769,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="135" name="Ink 134">
@@ -7452,8 +7814,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>2324098</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId109">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="136" name="Ink 135">
@@ -7472,7 +7834,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="136" name="Ink 135">
@@ -7517,8 +7879,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>1559458</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId111">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="137" name="Ink 136">
@@ -7537,7 +7899,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="137" name="Ink 136">
@@ -7582,8 +7944,8 @@
       <xdr:row>170</xdr:row>
       <xdr:rowOff>2737018</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId113">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="138" name="Ink 137">
@@ -7602,7 +7964,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="138" name="Ink 137">
@@ -7624,6 +7986,841 @@
             <a:xfrm>
               <a:off x="8259720" y="235919160"/>
               <a:ext cx="1382040" cy="729720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30186</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>1280324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4150309</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>2741342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947F56CD-A9CE-46BF-9261-099A4C629B93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6313072" y="271764511"/>
+          <a:ext cx="4120123" cy="1461018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>938390</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>1467055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3081917</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>3308023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664B624C-E143-4675-BAA0-C124F06068D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="16119"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7217834" y="274834555"/>
+          <a:ext cx="2143527" cy="1840968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1379593</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>1511749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2200033</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2043469</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId117">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DF58B0-68F4-490E-8D95-086A3B1117BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7660320" y="278775840"/>
+            <a:ext cx="820440" cy="531720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DF58B0-68F4-490E-8D95-086A3B1117BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId118"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7656000" y="278771520"/>
+              <a:ext cx="829080" cy="540360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2429833</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2037589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3181153</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2609989</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId119">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F926AACC-B4FF-4B89-8A78-C4BF992D201A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8710560" y="279301680"/>
+            <a:ext cx="751320" cy="572400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F926AACC-B4FF-4B89-8A78-C4BF992D201A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId120"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8706240" y="279297360"/>
+              <a:ext cx="759960" cy="581040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1771993</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>1685509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1899433</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>1796869</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId121">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="Ink 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AA7E4F-7CBB-41E3-A80F-B9417F42FB2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8052720" y="278949600"/>
+            <a:ext cx="127440" cy="111360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="Ink 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AA7E4F-7CBB-41E3-A80F-B9417F42FB2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId122"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8048400" y="278945275"/>
+              <a:ext cx="136080" cy="120009"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1829833</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>1385269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1927393</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>10051</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId123">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2EE4C4-C7CF-45C2-8B61-0C80DE6CC9CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8110560" y="278649360"/>
+            <a:ext cx="97560" cy="1245600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2EE4C4-C7CF-45C2-8B61-0C80DE6CC9CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId124"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8106240" y="278645040"/>
+              <a:ext cx="106200" cy="1254240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2823913</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2210869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2928553</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2319589</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId125">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFEFEE9C-75C9-4A5F-9DE2-EA3DDF0A12A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9104640" y="279474960"/>
+            <a:ext cx="104640" cy="108720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Ink 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFEFEE9C-75C9-4A5F-9DE2-EA3DDF0A12A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId126"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9100325" y="279470640"/>
+              <a:ext cx="113270" cy="117360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2869033</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>1702789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2887033</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2465269</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId127">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D744DD-4643-4940-B04C-BA77EEA04627}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9149760" y="278966880"/>
+            <a:ext cx="18000" cy="762480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D744DD-4643-4940-B04C-BA77EEA04627}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId128"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9145440" y="278962560"/>
+              <a:ext cx="26640" cy="771120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1408393</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2043349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1571833</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2043589</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId129">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="37" name="Ink 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB24EE7-2765-443D-B50B-5F86C703D484}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7689120" y="279307440"/>
+            <a:ext cx="163440" cy="240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="37" name="Ink 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB24EE7-2765-443D-B50B-5F86C703D484}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId130"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7684800" y="279304560"/>
+              <a:ext cx="172080" cy="6000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2886313</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2031829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3256393</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2038069</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId131">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="51" name="Ink 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C99B06-90DA-4E75-814C-15C90482AF2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9167040" y="279295920"/>
+            <a:ext cx="370080" cy="6240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="51" name="Ink 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C99B06-90DA-4E75-814C-15C90482AF2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId132"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9162720" y="279291760"/>
+              <a:ext cx="378720" cy="14560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2505193</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2014549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2616793</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2014789</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId133">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="52" name="Ink 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CAC76E-E841-456B-814E-7EBDDA232397}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8785920" y="279278640"/>
+            <a:ext cx="111600" cy="240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="52" name="Ink 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CAC76E-E841-456B-814E-7EBDDA232397}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId134"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8781600" y="279275760"/>
+              <a:ext cx="120240" cy="6000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2176153</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2037589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2343193</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2038069</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId135">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="56" name="Ink 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60002C66-353E-453E-9E18-0CF89B61E78C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8456880" y="279301680"/>
+            <a:ext cx="167040" cy="480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="56" name="Ink 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60002C66-353E-453E-9E18-0CF89B61E78C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId136"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8452560" y="279298800"/>
+              <a:ext cx="175680" cy="6240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1789513</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2043349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1989913</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>2049349</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId137">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2E2920-AAA3-44BE-AE89-AB83A130CA8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8070240" y="279307440"/>
+            <a:ext cx="200400" cy="6000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="61" name="Ink 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2E2920-AAA3-44BE-AE89-AB83A130CA8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId138"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8065923" y="279303205"/>
+              <a:ext cx="209035" cy="14471"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8839,7 +10036,7 @@
     <inkml:annotationXML>
       <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
         <emma:interpretation id="{B1E1B447-3FB1-47A5-8381-5E38BC4AD189}" emma:medium="tactile" emma:mode="ink">
-          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="19331,573349 24450,573627 24421,574166 19302,573889" semanticType="10" shapeName="Other">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="19331,573349 24450,573627 24421,574166 19302,573889" semanticType="underline" shapeName="Other">
             <msink:sourceLink direction="with" ref="{44B80033-1300-4851-89A8-EDB4FC5BB013}"/>
             <msink:sourceLink direction="with" ref="{B3449365-B854-4E1F-BFF3-8274CD38744A}"/>
           </msink:context>
@@ -9813,16 +11010,16 @@
       <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
         <emma:interpretation id="{D27276A3-85C1-4C5A-A1BF-EA78209F48FF}" emma:medium="tactile" emma:mode="ink">
           <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="19668,653198 27099,652942 27235,656865 19804,657122" semanticType="enclosure" shapeName="Other">
+            <msink:sourceLink direction="with" ref="{63583EF9-AB05-429F-ACBA-B6DF15FB3804}"/>
             <msink:sourceLink direction="with" ref="{725D1255-EB1C-43CB-9B5C-DBA565726651}"/>
             <msink:sourceLink direction="with" ref="{73EB1C9E-01B3-4505-9252-C8566026E762}"/>
+            <msink:sourceLink direction="with" ref="{049D7CCE-EC19-40C1-A0C3-5E18631AFB28}"/>
+            <msink:sourceLink direction="with" ref="{0D019606-F597-4B8A-84A9-C7D499D907EF}"/>
             <msink:sourceLink direction="with" ref="{C91A3F93-3FD0-4133-91A3-BA184B45E35A}"/>
-            <msink:sourceLink direction="with" ref="{049D7CCE-EC19-40C1-A0C3-5E18631AFB28}"/>
-            <msink:sourceLink direction="with" ref="{63583EF9-AB05-429F-ACBA-B6DF15FB3804}"/>
-            <msink:sourceLink direction="with" ref="{0D019606-F597-4B8A-84A9-C7D499D907EF}"/>
+            <msink:destinationLink direction="with" ref="{9CE47241-A7D1-4348-AB3B-4D5A32495657}"/>
+            <msink:destinationLink direction="with" ref="{1209F271-C293-45EA-B68C-F6FA2321398B}"/>
+            <msink:destinationLink direction="with" ref="{E66193B9-A86B-4018-A7B8-181B0578DB8B}"/>
             <msink:destinationLink direction="with" ref="{6925F319-5D12-40D7-A878-D8F5676B3FD1}"/>
-            <msink:destinationLink direction="with" ref="{E66193B9-A86B-4018-A7B8-181B0578DB8B}"/>
-            <msink:destinationLink direction="with" ref="{1209F271-C293-45EA-B68C-F6FA2321398B}"/>
-            <msink:destinationLink direction="with" ref="{9CE47241-A7D1-4348-AB3B-4D5A32495657}"/>
             <msink:destinationLink direction="to" ref="{64AAD3BE-0F16-428A-BB30-A1263DC890F6}"/>
           </msink:context>
         </emma:interpretation>
@@ -10986,6 +12183,335 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-01-10T21:59:08.619"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#3165BB"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{961A20EB-0FA6-4A19-9FD7-C9D57C211738}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="21269,775839 23549,774366 23572,774402 21292,775875" semanticType="callout" shapeName="Other">
+            <msink:sourceLink direction="with" ref="{7D32FADB-BC40-400A-8D6B-4EBD2AF762F5}"/>
+            <msink:sourceLink direction="with" ref="{432697DA-EA9F-4883-966A-EFBA6EF87D61}"/>
+          </msink:context>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">10640 388666,'0'0,"0"0,0 0,0 0,0 0,0 0,17-5,5-2,-2-1,13-10,1-4,16-12,7-10,7-7,4-2,0 5,-5 2,0 2,1 2,1 0,4 2,0-1,5-4,3-3,3 5,-1 1,-2-3,1-3,1 3,-3-1,0 1,-3-2,-4 3,-5 1,-1 1,-9 6,-5 3,-6 5,-7-1,-2 1,-1 1,-1 1,-3 3,-4 3,-3 4,-2 5,-3 2,-1 2,-3 0,-1-2,-4 1,2 2,-3-1,1 0,-1 3,-1 0,-3 2,-1 1,-1 1,-1 0,0 0,0 1,0-1</inkml:trace>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-01-10T21:59:11.264"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#3165BB"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{44A7D587-60E8-47B2-826A-83A95540C1DE}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="24187,777416 26254,775802 26282,775838 24216,777452" semanticType="callout" shapeName="Other">
+            <msink:sourceLink direction="with" ref="{9438EAD1-B2A6-4D36-874B-7EA9E85AB140}"/>
+            <msink:sourceLink direction="with" ref="{B38F42B7-F3F1-4D54-8EF6-26A2524FDF8A}"/>
+          </msink:context>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">14184 387920,'0'0,"0"-1,-19 7,-6 1,1 0,4-2,6-1,6-1,3-2,3 0,2-1,1-1,-13 12,-6 4,2-2,-14 12,-1 1,-10 7,3-2,-8 5,-3 1,2 0,1 3,0-2,-3 0,-4 3,-4 3,-4 5,2 3,-2 0,1 0,0-1,3-1,-2-4,-2-4,-3 0,4 0,2 1,-3 2,-1 3,1 3,7-5,5-6,7-5,5-8,3-1,2-4,0 1,4-1,1-2,2-1,0-1,2-2,1 0,3 0,1-3,1-4,3 1,2-1,3 0,2 0,1-1,0-3,2-1,1-1,2-2,0-1,1 0,0 0,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,0 0</inkml:trace>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-01-10T21:59:29.954"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#ED1C24"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{DF0DCBD0-04C9-4099-B1C7-CB2442019791}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="writingRegion" rotatedBoundingBox="22415,774777 22783,774990 22656,775209 22288,774996">
+            <msink:destinationLink direction="with" ref="{855D75B2-841A-41B5-95E2-A843D8E41A26}"/>
+          </msink:context>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:traceGroup>
+      <inkml:annotationXML>
+        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+          <emma:interpretation id="{C4EBF4AC-15CF-48DD-89C8-BAC28597517C}" emma:medium="tactile" emma:mode="ink">
+            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="22415,774777 22783,774990 22656,775209 22288,774996" alignmentLevel="1"/>
+          </emma:interpretation>
+        </emma:emma>
+      </inkml:annotationXML>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{64D192EF-1163-4F26-8C68-706AA4F422E7}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="22415,774777 22783,774990 22656,775209 22288,774996"/>
+            </emma:interpretation>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{7D32FADB-BC40-400A-8D6B-4EBD2AF762F5}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="22415,774777 22783,774990 22656,775209 22288,774996">
+                  <msink:destinationLink direction="with" ref="{961A20EB-0FA6-4A19-9FD7-C9D57C211738}"/>
+                  <msink:destinationLink direction="with" ref="{56CA2C78-0A8D-4875-BDD9-53C9E32A978A}"/>
+                </msink:context>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">11186 387431,'0'-1,"0"1,0 1,0-1,0-1,0 1,0 1,0-1,0-1,0 1,5 17,3 5,-2-2,0 10,-2 0,-2-5,0-7,10 4,2-1,0-4,7-3,1-4,-3-2,3-7,-2-3,0-9,0-9,0-8,-1-3,-4 2,-5 2,-4 7,-2 6,-2 5,-2 5,-1 3,0 1,-3 6,0 6,0 5,-2 6,0 3,2 4,0-1,2-2,4-4,4-2,0-6,1-4,1-4,-1-5,1-4,2-4,0-5,0-2,-1-3,-3 0,-1 2,-3 0,-3 4,-2-1,-1 0,-2 1,-3 3,0 2,-1 3,2 6,1 6,0 0,0 0,2 0,2 1,1-1,1-3,1-1,3-3,1-2,0 0,1-4,1-4,-1 0,-2-3,0-2,-2 0,0-3,-4-1,-1 0,-2 0,-4 2,1 4,-1 4,1 2,2 5,-1 6,-1 5,1 5,-2 5,2-2,2 1,2 0,4-3,2-3,7-1,1-2,2-4,4-6,0-5,-1-6,-2-6,-4-7,-3-2,-3-2,-2-2,-3 3,-2 4,0 2,-2 5,-3 4,-3 4,-4 6,-3 6,-3 7,0 7,0 5,1 2,5-2,4-2,5-5,6-2,6-6,2-2</inkml:trace>
+        </inkml:traceGroup>
+      </inkml:traceGroup>
+    </inkml:traceGroup>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-01-10T21:59:35.638"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#ED1C24"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{56CA2C78-0A8D-4875-BDD9-53C9E32A978A}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="22549,774024 22850,777480 22792,777485 22491,774029" semanticType="callout" shapeName="Other">
+            <msink:sourceLink direction="with" ref="{7D32FADB-BC40-400A-8D6B-4EBD2AF762F5}"/>
+          </msink:context>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">11266 387014,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,3 17,0 4,0 0,0 15,-1 1,-1 14,0 11,0 6,-1 6,-1 1,4 6,1 7,2 1,0-1,-1-4,2-2,2 0,3 3,1 4,-1-3,0-6,-2-4,-3-8,1-6,-2-6,1 0,3 3,-2 7,2 3,2 7,0 0,0 5,-4 7,-2 5,-2 3,-2-6,-1-3,1 4,2 8,1 3,1-10,-1-13,-1-14,-2-9,0-8,1 4,1 7,-1 6,-1-9</inkml:trace>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-01-10T21:59:33.327"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#ED1C24"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{B5D32BBF-03CB-48C5-B854-95563B70030F}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="writingRegion" rotatedBoundingBox="25633,776479 25383,776666 25187,776405 25436,776218">
+            <msink:destinationLink direction="with" ref="{855D75B2-841A-41B5-95E2-A843D8E41A26}"/>
+          </msink:context>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:traceGroup>
+      <inkml:annotationXML>
+        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+          <emma:interpretation id="{F4A20B92-978A-4413-A20A-C931A6B07AD7}" emma:medium="tactile" emma:mode="ink">
+            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="25633,776479 25383,776666 25187,776405 25436,776218" alignmentLevel="1"/>
+          </emma:interpretation>
+        </emma:emma>
+      </inkml:annotationXML>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{61251D5D-C7E7-4C81-8A7E-8E0032BA2C74}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="25633,776479 25383,776666 25187,776405 25436,776218"/>
+            </emma:interpretation>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{9438EAD1-B2A6-4D36-874B-7EA9E85AB140}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="25633,776479 25383,776666 25187,776405 25436,776218">
+                  <msink:destinationLink direction="with" ref="{44A7D587-60E8-47B2-826A-83A95540C1DE}"/>
+                </msink:context>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">12660 388160,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-3 19,-1 7,1 12,0-1,4 8,1-4,12-1,11-7,10-15,2-14,2-11,-2-12,-2-7,-8-4,-7-1,-8 3,-6 0,-6 3,-6 3,-5 4,-3 6,-6 5,0 4,-4 1,1 6,-2 0,2 4,5-1,4 2,4-1,4-2,6-1,3-2,4-2,3 0,0-1,0-1,0 0,-2 1,-4 0,0-3,-3-1,-4-2,-3-1,-7 2,-1 1,-1 1,-3 5,1 4,1 6,3 10,4 3,3 4,6 1,2 0,5-7,2-6,4-13,2-8,0-7,2-7,-3-3,-3-4,-5 0,-2 5,-5 2,-5 4,-4 6,-1 2,3 4,-2 4,2 8,2 1</inkml:trace>
+        </inkml:traceGroup>
+      </inkml:traceGroup>
+    </inkml:traceGroup>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-01-10T21:59:46.921"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#ED1C24"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{855D75B2-841A-41B5-95E2-A843D8E41A26}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="25426,774907 25475,777024 25446,777025 25397,774908" semanticType="verticalRange" shapeName="Line">
+            <msink:sourceLink direction="with" ref="{B5D32BBF-03CB-48C5-B854-95563B70030F}"/>
+            <msink:sourceLink direction="with" ref="{AF354DF0-4BA8-43EC-813C-CB42139B9AB4}"/>
+            <msink:sourceLink direction="with" ref="{DF0DCBD0-04C9-4099-B1C7-CB2442019791}"/>
+          </msink:context>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">12708 387455,'0'0,"0"19,0 7,0-2,0-5,0-5,0-5,0-5,3 12,1 2,-1-2,0 8,-1-1,-1 10,0-1,-1 5,0 4,0 1,0 2,0 0,-1 2,1-1,0-4,0-2,0-3,0-3,0-3,0-2,0 0,0 4,0 1,0 4,0 1,0 1,0 1,0 1,0-4,0-2,0-5,0-2,0-2,0-2,0 0,0 0,0-2,0 0,0-3,0-1,0-1,0 2,0 0,0 3,0 0,3 2,3 3,1 4,0 0,-3 0,0-5,-2-5,-2 0,0-3,0-3,0 2,0-2,0 0,0 1,-1 2,1-2,0-2,0 0,0-2,0-1,0-2,0 0,0 2,0 0,0 0,0 0,0 1,0-1,0-1,0 2,0 0,0 2,0-1,0-1,0-2,0-1,0-1,0 1,0-2,0 2,0-2,0-1,0-2,0 1,0 0,0-2,0 0,0-2,0 0,0-1,0 0,0 0,0 0,0 0,0 0</inkml:trace>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-01-10T22:00:05.540"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#3165BB"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{432697DA-EA9F-4883-966A-EFBA6EF87D61}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="21358,775854 21811,775854 21811,775869 21358,775869" shapeName="Other">
+            <msink:destinationLink direction="with" ref="{961A20EB-0FA6-4A19-9FD7-C9D57C211738}"/>
+          </msink:context>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">10681 387928,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,16 0,6 0,-1 0,9 0,0 0,6 0,-4 0,10 0,-3 0,3 0,3 0,7 0,-6 0</inkml:trace>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -11018,6 +12544,218 @@
       </emma:emma>
     </inkml:annotationXML>
     <inkml:trace contextRef="#ctx0" brushRef="#br0">11230 93761,'0'0,"0"0,0 0,0 0,9-2,2 0,13 0,9 1,7 0,8 0,6 1,6 0,4 0,6 0,4 0,6 0,5 0,6 0,1 0,4 0,1 0,-2 0,-3 2,-4-1,-6 1,-6 0,0 2,3 2,-2 1,2 1,5 1,5-1,5 0,3-2,4 0,2 0,0-2,-3-1,-6-1,-3-1,-2-1,-1 0,0 0,-4 0,1-4,-1 0,-1 1,-2 0,-3 1,-4-1,-4 0,0 1,0 1,-3 0,0-1,-1 0,0-1,0 0,-2-1,-6 0,0 0,-1 1,-2-2,-3 1,1-1,0-1,3-1,0 0,-2 1,-2-1,-2 0,0 1,1 0,-2 1,-1 0,-2 0,-2 1,0-1,0 1,-2 0,0 2,-2 0,2-1,-2 1,2 1,-1 0,1 0,0 0,0-1,0 0,1 1,3 0,0 0,-1 1,-4 0,-3 0,-6 0,-5 0,-6 0,-5 0,-5 0,-4 0,-3-1,-2-1</inkml:trace>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-01-10T22:00:07.324"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#3165BB"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{5ABED61C-F9E9-463E-AC6C-6373B8902200}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="writingRegion" rotatedBoundingBox="25464,775822 26491,775822 26491,775839 25464,775839"/>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:traceGroup>
+      <inkml:annotationXML>
+        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+          <emma:interpretation id="{B8856C4C-1394-4F28-AA87-24F2522B1A07}" emma:medium="tactile" emma:mode="ink">
+            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="25464,775822 26491,775822 26491,775839 25464,775839" alignmentLevel="1"/>
+          </emma:interpretation>
+        </emma:emma>
+      </inkml:annotationXML>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{99E972BF-8A46-4D82-95F6-1918D2DF3F3E}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="25464,775822 26491,775822 26491,775839 25464,775839"/>
+            </emma:interpretation>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{25BC0517-41A1-4CBE-B359-A0797E8BED34}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="25464,775838 25693,775838 25693,775839 25464,775839"/>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">12732 387920,'0'0,"0"-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,19 0,7 0,-2 0,9 0,-1 0,5 0,-4 0,-8 0</inkml:trace>
+        </inkml:traceGroup>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{B38F42B7-F3F1-4D54-8EF6-26A2524FDF8A}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="26249,775822 26491,775822 26491,775838 26249,775838">
+                  <msink:destinationLink direction="with" ref="{44A7D587-60E8-47B2-826A-83A95540C1DE}"/>
+                </msink:context>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="390">13517 387919,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,19-3,7 0,-2 0,12 0,0 1,15 1,-1 0</inkml:trace>
+        </inkml:traceGroup>
+      </inkml:traceGroup>
+    </inkml:traceGroup>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink61.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-01-10T22:00:06.941"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#3165BB"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{AF354DF0-4BA8-43EC-813C-CB42139B9AB4}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="writingRegion" rotatedBoundingBox="24405,775774 24714,775774 24714,775789 24405,775789">
+            <msink:destinationLink direction="with" ref="{855D75B2-841A-41B5-95E2-A843D8E41A26}"/>
+          </msink:context>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:traceGroup>
+      <inkml:annotationXML>
+        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+          <emma:interpretation id="{E3F05720-F1E9-4740-AE0A-9F25872892CE}" emma:medium="tactile" emma:mode="ink">
+            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="24405,775774 24714,775774 24714,775789 24405,775789" alignmentLevel="1"/>
+          </emma:interpretation>
+        </emma:emma>
+      </inkml:annotationXML>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{9E314C22-816D-4C33-A4A8-7CB623AE513F}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="24405,775774 24714,775774 24714,775789 24405,775789"/>
+            </emma:interpretation>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{FB16B42D-2258-41E8-BB66-9118608E1BDE}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="24405,775774 24714,775774 24714,775789 24405,775789"/>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">12204 387888,'0'0,"0"0,0 0,0 0,0 0,0 0,16 0,6 0,-1 0,-5 0,-3 0,-6 0,13 0,3 0,-1 0,7 0,0 0,6 0,-3 0,-8 0</inkml:trace>
+        </inkml:traceGroup>
+      </inkml:traceGroup>
+    </inkml:traceGroup>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink62.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-01-10T22:00:06.566"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#3165BB"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{9A732DFE-3A4E-4F12-9537-DBCAE837C4F9}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="23490,775838 23953,775837 23954,775838 23491,775839" shapeName="Other"/>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">11747 387920,'16'0,"6"-1,-1 1,-5 0,-4 0,-4 0,-4 0,-3 0,-1 0,13 0,4 0,10 0,1 0,6 0,-2 0,4 0,-4 0,3 0,2 0,1 0,-4 0</inkml:trace>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink63.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-01-10T22:00:06.054"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="height" value="0.02333" units="cm"/>
+      <inkml:brushProperty name="color" value="#3165BB"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{7784F3DB-80CB-4287-BE26-32BD1BA83FF2}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="22416,775869 22973,775853 22973,775862 22417,775878" shapeName="Other"/>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">11209 387944,'0'0,"0"0,19 0,7 0,-2 0,-5 0,-5 0,-5 0,-5 0,-2 0,-2 0,0 0,15 0,6 0,12 0,1 0,6 0,4 0,2-2,0-2,0 0,-3 1,-3 1,-9 1</inkml:trace>
   </inkml:traceGroup>
 </inkml:ink>
 </file>
@@ -11626,19 +13364,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH190"/>
+  <dimension ref="A1:AH203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E187" sqref="E187"/>
+      <selection pane="bottomLeft" activeCell="H196" sqref="H196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.54296875" style="8" customWidth="1"/>
     <col min="2" max="2" width="4.1796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="56.6328125" style="22" customWidth="1"/>
     <col min="5" max="5" width="60.36328125" style="12" customWidth="1"/>
     <col min="7" max="7" width="11.36328125" style="8" customWidth="1"/>
@@ -11729,7 +13467,7 @@
         <v>71</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>105</v>
@@ -11747,10 +13485,10 @@
         <v>373</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AH1" s="24" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -13995,7 +15733,7 @@
       <c r="B50" s="2">
         <v>24</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E50" s="13" t="s">
@@ -14021,7 +15759,7 @@
       <c r="B51" s="2">
         <v>345</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E51" s="13" t="s">
@@ -14050,7 +15788,7 @@
       <c r="B52" s="2">
         <v>125</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E52" s="13" t="s">
@@ -14076,7 +15814,7 @@
       <c r="B53" s="2">
         <v>28</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E53" s="13" t="s">
@@ -14102,7 +15840,7 @@
       <c r="B54" s="2">
         <v>223</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D54" s="22" t="s">
@@ -14125,7 +15863,7 @@
       <c r="B55" s="2">
         <v>66</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D55" s="22" t="s">
@@ -14148,7 +15886,7 @@
       <c r="B56" s="2">
         <v>112</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D56" s="22" t="s">
@@ -14180,7 +15918,7 @@
       <c r="B57" s="2">
         <v>113</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D57" s="22" t="s">
@@ -14215,7 +15953,7 @@
       <c r="B58" s="2">
         <v>205</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D58" s="22" t="s">
@@ -14244,7 +15982,7 @@
       <c r="B59" s="8">
         <v>290</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E59" s="16" t="s">
@@ -14299,7 +16037,7 @@
       <c r="B61" s="2">
         <v>278</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E61" s="13" t="s">
@@ -14325,7 +16063,7 @@
       <c r="B62" s="2">
         <v>36</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E62" s="13" t="s">
@@ -14351,7 +16089,7 @@
       <c r="B63" s="2">
         <v>219</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -14374,7 +16112,7 @@
       <c r="B64" s="2">
         <v>220</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E64" s="13" t="s">
@@ -14394,7 +16132,7 @@
       <c r="B65" s="2">
         <v>38</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D65" s="22" t="s">
@@ -14414,7 +16152,7 @@
       <c r="B66" s="2">
         <v>58</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E66" s="13" t="s">
@@ -14434,7 +16172,7 @@
       <c r="B67" s="2">
         <v>14</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F67" s="2" t="s">
@@ -14454,7 +16192,7 @@
       <c r="B68" s="2">
         <v>198</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D68" s="22" t="s">
@@ -14476,14 +16214,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B69" s="2">
         <v>303</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E69" s="12" t="s">
@@ -14509,7 +16247,7 @@
       <c r="B70" s="2">
         <v>121</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E70" s="13" t="s">
@@ -14532,7 +16270,7 @@
       <c r="B71" s="2">
         <v>70</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D71" s="22" t="s">
@@ -14561,7 +16299,7 @@
       <c r="B72" s="2">
         <v>67</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E72" s="13" t="s">
@@ -14587,7 +16325,7 @@
       <c r="B73" s="2">
         <v>396</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F73" s="2" t="s">
@@ -14610,7 +16348,7 @@
       <c r="B74" s="2">
         <v>155</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D74" s="22" t="s">
@@ -14659,7 +16397,7 @@
       <c r="B76" s="2">
         <v>414</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="2" t="s">
         <v>210</v>
       </c>
       <c r="E76" s="12" t="s">
@@ -14682,7 +16420,7 @@
       <c r="B77" s="2">
         <v>240</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D77" s="22" t="s">
@@ -14708,7 +16446,7 @@
       <c r="B78" s="2">
         <v>35</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="2" t="s">
         <v>217</v>
       </c>
       <c r="E78" s="12" t="s">
@@ -14754,7 +16492,7 @@
       <c r="B80" s="2">
         <v>74</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D80" s="22" t="s">
@@ -14844,7 +16582,7 @@
       <c r="B83" s="2">
         <v>189</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="2" t="s">
         <v>229</v>
       </c>
       <c r="D83" s="22" t="s">
@@ -14873,7 +16611,7 @@
       <c r="B84" s="2">
         <v>61</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="2" t="s">
         <v>232</v>
       </c>
       <c r="D84" s="22" t="s">
@@ -14948,7 +16686,7 @@
       <c r="B87" s="2">
         <v>165</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E87" s="13" t="s">
@@ -14971,7 +16709,7 @@
       <c r="B88" s="2">
         <v>338</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E88" s="13" t="s">
@@ -14997,7 +16735,7 @@
       <c r="B89" s="2">
         <v>319</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="2" t="s">
         <v>245</v>
       </c>
       <c r="D89" s="22" t="s">
@@ -15023,7 +16761,7 @@
       <c r="B90" s="2">
         <v>268</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D90" s="22" t="s">
@@ -15107,7 +16845,7 @@
       <c r="B93" s="2">
         <v>347</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D93" s="22" t="s">
@@ -15126,14 +16864,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B94" s="2">
         <v>215</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="2" t="s">
         <v>261</v>
       </c>
       <c r="F94" s="2" t="s">
@@ -15156,7 +16894,7 @@
       <c r="B95" s="2">
         <v>75</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="2" t="s">
         <v>262</v>
       </c>
       <c r="D95" s="22" t="s">
@@ -15185,7 +16923,7 @@
       <c r="B96" s="2">
         <v>22</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E96" s="13" t="s">
@@ -15208,7 +16946,7 @@
       <c r="B97" s="2">
         <v>39</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="2" t="s">
         <v>269</v>
       </c>
       <c r="F97" s="2" t="s">
@@ -15228,7 +16966,7 @@
       <c r="B98" s="2">
         <v>40</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="2" t="s">
         <v>271</v>
       </c>
       <c r="E98" s="13" t="s">
@@ -15251,7 +16989,7 @@
       <c r="B99" s="2">
         <v>46</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="2" t="s">
         <v>273</v>
       </c>
       <c r="E99" s="12" t="s">
@@ -15274,7 +17012,7 @@
       <c r="B100" s="2">
         <v>47</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E100" s="12" t="s">
@@ -15297,7 +17035,7 @@
       <c r="B101" s="2">
         <v>92</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="2" t="s">
         <v>277</v>
       </c>
       <c r="D101" s="22" t="s">
@@ -15323,7 +17061,7 @@
       <c r="B102" s="2">
         <v>339</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D102" s="22" t="s">
@@ -15358,7 +17096,7 @@
       <c r="B103" s="2">
         <v>252</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="2" t="s">
         <v>285</v>
       </c>
       <c r="D103" s="22" t="s">
@@ -15393,7 +17131,7 @@
       <c r="B104" s="2">
         <v>266</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="2" t="s">
         <v>293</v>
       </c>
       <c r="D104" s="22" t="s">
@@ -15422,7 +17160,7 @@
       <c r="B105" s="2">
         <v>243</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D105" s="22" t="s">
@@ -15451,7 +17189,7 @@
       <c r="B106" s="2">
         <v>246</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="2" t="s">
         <v>299</v>
       </c>
       <c r="D106" s="22" t="s">
@@ -15480,7 +17218,7 @@
       <c r="B107" s="2">
         <v>276</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="2" t="s">
         <v>300</v>
       </c>
       <c r="D107" s="22" t="s">
@@ -15512,7 +17250,7 @@
       <c r="B108" s="2">
         <v>270</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="2" t="s">
         <v>304</v>
       </c>
       <c r="D108" s="22" t="s">
@@ -15547,7 +17285,7 @@
       <c r="B109" s="2">
         <v>170</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D109" s="22" t="s">
@@ -15573,7 +17311,7 @@
       <c r="B110" s="2">
         <v>167</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D110" s="22" t="s">
@@ -15608,7 +17346,7 @@
       <c r="B111" s="2">
         <v>280</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="2" t="s">
         <v>320</v>
       </c>
       <c r="D111" s="22" t="s">
@@ -15643,7 +17381,7 @@
       <c r="B112" s="2">
         <v>366</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="2" t="s">
         <v>327</v>
       </c>
       <c r="D112" s="22" t="s">
@@ -15678,7 +17416,7 @@
       <c r="B113" s="2">
         <v>364</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D113" s="22" t="s">
@@ -15710,7 +17448,7 @@
       <c r="B114" s="2">
         <v>249</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="2" t="s">
         <v>330</v>
       </c>
       <c r="D114" s="22" t="s">
@@ -15742,7 +17480,7 @@
       <c r="B115" s="2">
         <v>320</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D115" s="22" t="s">
@@ -15774,7 +17512,7 @@
       <c r="B116" s="2">
         <v>254</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="2" t="s">
         <v>338</v>
       </c>
       <c r="D116" s="22" t="s">
@@ -15809,7 +17547,7 @@
       <c r="B117" s="2">
         <v>131</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="2" t="s">
         <v>343</v>
       </c>
       <c r="D117" s="22" t="s">
@@ -15844,7 +17582,7 @@
       <c r="B118" s="2">
         <v>89</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D118" s="22" t="s">
@@ -15873,7 +17611,7 @@
       <c r="B119" s="2">
         <v>77</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="2" t="s">
         <v>350</v>
       </c>
       <c r="D119" s="22" t="s">
@@ -15899,7 +17637,7 @@
       <c r="B120" s="2">
         <v>216</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="2" t="s">
         <v>351</v>
       </c>
       <c r="D120" s="22" t="s">
@@ -15928,7 +17666,7 @@
       <c r="B121" s="2">
         <v>60</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="2" t="s">
         <v>355</v>
       </c>
       <c r="D121" s="22" t="s">
@@ -15989,7 +17727,7 @@
       <c r="B123" s="2">
         <v>79</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="2" t="s">
         <v>365</v>
       </c>
       <c r="D123" s="22" t="s">
@@ -16088,11 +17826,11 @@
       <c r="B126" s="2">
         <v>288</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E126" s="13" t="s">
         <v>376</v>
@@ -16123,7 +17861,7 @@
       <c r="B127" s="2">
         <v>392</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="2" t="s">
         <v>379</v>
       </c>
       <c r="D127" s="22" t="s">
@@ -16152,7 +17890,7 @@
       <c r="B128" s="2">
         <v>153</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="2" t="s">
         <v>382</v>
       </c>
       <c r="D128" s="22" t="s">
@@ -16184,7 +17922,7 @@
       <c r="B129" s="2">
         <v>274</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="2" t="s">
         <v>386</v>
       </c>
       <c r="D129" s="22" t="s">
@@ -16216,7 +17954,7 @@
       <c r="B130" s="2">
         <v>275</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="2" t="s">
         <v>389</v>
       </c>
       <c r="D130" s="22" t="s">
@@ -16248,7 +17986,7 @@
       <c r="B131" s="2">
         <v>475</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="2" t="s">
         <v>393</v>
       </c>
       <c r="D131" s="22" t="s">
@@ -16280,7 +18018,7 @@
       <c r="B132" s="2">
         <v>50</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="2" t="s">
         <v>398</v>
       </c>
       <c r="D132" s="22" t="s">
@@ -16345,7 +18083,7 @@
         <v>405</v>
       </c>
       <c r="E134" s="13" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>314</v>
@@ -16367,7 +18105,7 @@
       <c r="B135" s="2">
         <v>292</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="2" t="s">
         <v>406</v>
       </c>
       <c r="D135" s="22" t="s">
@@ -16399,7 +18137,7 @@
       <c r="B136" s="2">
         <v>409</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="2" t="s">
         <v>410</v>
       </c>
       <c r="D136" s="22" t="s">
@@ -16428,7 +18166,7 @@
       <c r="B137" s="2">
         <v>401</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="2" t="s">
         <v>415</v>
       </c>
       <c r="D137" s="22" t="s">
@@ -16457,7 +18195,7 @@
       <c r="B138" s="2">
         <v>293</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="2" t="s">
         <v>418</v>
       </c>
       <c r="D138" s="22" t="s">
@@ -16483,7 +18221,7 @@
       <c r="B139" s="2">
         <v>294</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="2" t="s">
         <v>420</v>
       </c>
       <c r="D139" s="22" t="s">
@@ -16512,14 +18250,14 @@
       <c r="B140" s="2">
         <v>464</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="2" t="s">
         <v>423</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>81</v>
@@ -16548,16 +18286,16 @@
         <v>46</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>81</v>
@@ -16579,11 +18317,11 @@
       <c r="B142" s="2">
         <v>412</v>
       </c>
-      <c r="C142" s="8" t="s">
-        <v>442</v>
+      <c r="C142" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="D142" s="22" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>32</v>
@@ -16599,14 +18337,14 @@
       <c r="B143" s="2">
         <v>415</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>445</v>
+      <c r="C143" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>32</v>
@@ -16615,7 +18353,7 @@
         <v>42728</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="144" spans="1:30" ht="217.5" x14ac:dyDescent="0.35">
@@ -16625,17 +18363,17 @@
       <c r="B144" s="2">
         <v>437</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>451</v>
+      <c r="C144" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G144" s="9">
         <v>42728</v>
@@ -16664,13 +18402,13 @@
         <v>300</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>81</v>
@@ -16698,14 +18436,14 @@
       <c r="B146" s="2">
         <v>354</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="E146" s="13" t="s">
         <v>462</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>465</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>81</v>
@@ -16734,13 +18472,13 @@
         <v>406</v>
       </c>
       <c r="C147" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="E147" s="13" t="s">
         <v>457</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="E147" s="13" t="s">
-        <v>460</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>81</v>
@@ -16762,14 +18500,14 @@
       <c r="B148" s="2">
         <v>434</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D148" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="D148" s="22" t="s">
-        <v>466</v>
-      </c>
       <c r="E148" s="13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>69</v>
@@ -16788,14 +18526,14 @@
       <c r="B149" s="2">
         <v>15</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>467</v>
+      <c r="C149" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>69</v>
@@ -16804,7 +18542,7 @@
         <v>42732</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="150" spans="1:33" ht="261" x14ac:dyDescent="0.35">
@@ -16814,17 +18552,17 @@
       <c r="B150" s="2">
         <v>18</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D150" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="D150" s="22" t="s">
-        <v>473</v>
-      </c>
       <c r="E150" s="13" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G150" s="9">
         <v>42733</v>
@@ -16840,14 +18578,14 @@
       <c r="B151" s="2">
         <v>16</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>475</v>
+      <c r="C151" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>69</v>
@@ -16872,14 +18610,14 @@
       <c r="B152" s="2">
         <v>259</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>478</v>
+      <c r="C152" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>4</v>
@@ -16910,14 +18648,14 @@
       <c r="B153" s="2">
         <v>454</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D153" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="D153" s="22" t="s">
-        <v>484</v>
-      </c>
       <c r="E153" s="13" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>81</v>
@@ -16937,13 +18675,13 @@
         <v>453</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>59</v>
@@ -16952,7 +18690,7 @@
         <v>42734</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="S154" s="8" t="s">
         <v>5</v>
@@ -16966,13 +18704,13 @@
         <v>462</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>69</v>
@@ -16991,11 +18729,11 @@
       <c r="B156" s="2">
         <v>86</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>493</v>
+      <c r="C156" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>59</v>
@@ -17017,11 +18755,11 @@
       <c r="B157" s="2">
         <v>142</v>
       </c>
-      <c r="C157" s="8" t="s">
-        <v>497</v>
+      <c r="C157" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>81</v>
@@ -17050,13 +18788,13 @@
         <v>109</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>59</v>
@@ -17065,7 +18803,7 @@
         <v>42736</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K158" s="8" t="s">
         <v>5</v>
@@ -17085,13 +18823,13 @@
         <v>108</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D159" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="E159" s="19" t="s">
         <v>499</v>
-      </c>
-      <c r="D159" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="E159" s="19" t="s">
-        <v>502</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>32</v>
@@ -17100,7 +18838,7 @@
         <v>42736</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N159" s="8" t="s">
         <v>5</v>
@@ -17116,14 +18854,14 @@
       <c r="B160" s="2">
         <v>82</v>
       </c>
-      <c r="C160" s="8" t="s">
-        <v>504</v>
+      <c r="C160" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>69</v>
@@ -17139,14 +18877,14 @@
       <c r="B161" s="2">
         <v>2</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="E161" s="13" t="s">
         <v>506</v>
-      </c>
-      <c r="D161" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="E161" s="13" t="s">
-        <v>509</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>59</v>
@@ -17155,7 +18893,7 @@
         <v>42736</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N161" s="8" t="s">
         <v>5</v>
@@ -17168,14 +18906,14 @@
       <c r="B162" s="2">
         <v>445</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E162" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="D162" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="E162" s="12" t="s">
-        <v>513</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>81</v>
@@ -17184,7 +18922,7 @@
         <v>42736</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="N162" s="8" t="s">
         <v>5</v>
@@ -17203,14 +18941,14 @@
       <c r="B163" s="2">
         <v>43</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="E163" s="20" t="s">
         <v>514</v>
-      </c>
-      <c r="D163" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="E163" s="20" t="s">
-        <v>517</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>4</v>
@@ -17219,7 +18957,7 @@
         <v>42737</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="O163" s="8" t="s">
         <v>5</v>
@@ -17235,14 +18973,14 @@
       <c r="B164" s="2">
         <v>418</v>
       </c>
-      <c r="C164" s="8" t="s">
-        <v>519</v>
+      <c r="C164" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E164" s="13" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>4</v>
@@ -17264,14 +19002,14 @@
       <c r="B165" s="2">
         <v>53</v>
       </c>
-      <c r="C165" s="8" t="s">
-        <v>523</v>
+      <c r="C165" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="D165" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="E165" s="13" t="s">
         <v>521</v>
-      </c>
-      <c r="E165" s="13" t="s">
-        <v>524</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>32</v>
@@ -17280,7 +19018,7 @@
         <v>42740</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="L165" s="8" t="s">
         <v>5</v>
@@ -17299,14 +19037,14 @@
       <c r="B166" s="2">
         <v>152</v>
       </c>
-      <c r="C166" s="8" t="s">
-        <v>525</v>
+      <c r="C166" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E166" s="13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>59</v>
@@ -17331,14 +19069,14 @@
       <c r="B167" s="2">
         <v>343</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>528</v>
+      <c r="C167" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>81</v>
@@ -17357,14 +19095,14 @@
       <c r="B168" s="2">
         <v>139</v>
       </c>
-      <c r="C168" s="8" t="s">
-        <v>533</v>
+      <c r="C168" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>81</v>
@@ -17373,7 +19111,7 @@
         <v>42741</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O168" s="8" t="s">
         <v>5</v>
@@ -17389,14 +19127,14 @@
       <c r="B169" s="2">
         <v>279</v>
       </c>
-      <c r="C169" s="8" t="s">
-        <v>540</v>
+      <c r="C169" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="D169" s="22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>81</v>
@@ -17424,14 +19162,14 @@
       <c r="B170" s="2">
         <v>120</v>
       </c>
-      <c r="C170" s="8" t="s">
-        <v>542</v>
+      <c r="C170" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="D170" s="22" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>32</v>
@@ -17453,14 +19191,14 @@
       <c r="B171" s="2">
         <v>62</v>
       </c>
-      <c r="C171" s="8" t="s">
-        <v>546</v>
+      <c r="C171" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>69</v>
@@ -17485,14 +19223,14 @@
       <c r="B172" s="2">
         <v>63</v>
       </c>
-      <c r="C172" s="8" t="s">
-        <v>548</v>
+      <c r="C172" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>32</v>
@@ -17517,14 +19255,14 @@
       <c r="B173" s="2">
         <v>64</v>
       </c>
-      <c r="C173" s="8" t="s">
-        <v>551</v>
+      <c r="C173" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>32</v>
@@ -17546,14 +19284,14 @@
       <c r="B174" s="2">
         <v>264</v>
       </c>
-      <c r="C174" s="8" t="s">
-        <v>554</v>
+      <c r="C174" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E174" s="13" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>81</v>
@@ -17573,10 +19311,10 @@
         <v>47</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>32</v>
@@ -17616,14 +19354,14 @@
       <c r="B176" s="8">
         <v>23</v>
       </c>
-      <c r="C176" s="8" t="s">
-        <v>563</v>
+      <c r="C176" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>32</v>
@@ -17632,7 +19370,7 @@
         <v>42742</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="N176" s="8" t="s">
         <v>5</v>
@@ -17651,14 +19389,14 @@
       <c r="B177" s="8">
         <v>95</v>
       </c>
-      <c r="C177" s="8" t="s">
-        <v>566</v>
+      <c r="C177" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E177" s="13" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>81</v>
@@ -17683,14 +19421,14 @@
       <c r="B178" s="8">
         <v>376</v>
       </c>
-      <c r="C178" s="8" t="s">
-        <v>570</v>
+      <c r="C178" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E178" s="13" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>32</v>
@@ -17712,14 +19450,14 @@
       <c r="B179" s="8">
         <v>204</v>
       </c>
-      <c r="C179" s="8" t="s">
-        <v>572</v>
+      <c r="C179" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E179" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>81</v>
@@ -17738,14 +19476,14 @@
       <c r="B180" s="8">
         <v>461</v>
       </c>
-      <c r="C180" s="8" t="s">
-        <v>578</v>
+      <c r="C180" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>4</v>
@@ -17754,21 +19492,27 @@
         <v>42743</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="T180" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:34" ht="232" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B181" s="8">
         <v>477</v>
       </c>
-      <c r="C181" s="8" t="s">
-        <v>581</v>
+      <c r="C181" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>634</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>81</v>
@@ -17777,7 +19521,7 @@
         <v>42743</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="182" spans="1:34" ht="72.5" x14ac:dyDescent="0.35">
@@ -17787,14 +19531,14 @@
       <c r="B182" s="2">
         <v>342</v>
       </c>
-      <c r="C182" s="8" t="s">
-        <v>456</v>
+      <c r="C182" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>81</v>
@@ -17813,14 +19557,14 @@
       <c r="B183" s="8">
         <v>151</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D183" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="E183" s="13" t="s">
         <v>588</v>
-      </c>
-      <c r="D183" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="E183" s="13" t="s">
-        <v>591</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>127</v>
@@ -17829,7 +19573,7 @@
         <v>42743</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="O183" s="8" t="s">
         <v>5</v>
@@ -17842,14 +19586,14 @@
       <c r="B184" s="8">
         <v>186</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D184" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="D184" s="22" t="s">
+      <c r="E184" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="E184" s="13" t="s">
-        <v>599</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>4</v>
@@ -17858,7 +19602,7 @@
         <v>42377</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I184" s="8" t="s">
         <v>5</v>
@@ -17871,14 +19615,14 @@
       <c r="B185" s="8">
         <v>49</v>
       </c>
-      <c r="C185" s="8" t="s">
-        <v>602</v>
+      <c r="C185" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="D185" s="22" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E185" s="13" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>32</v>
@@ -17887,7 +19631,7 @@
         <v>42377</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J185" s="8" t="s">
         <v>5</v>
@@ -17903,14 +19647,14 @@
       <c r="B186" s="8">
         <v>382</v>
       </c>
-      <c r="C186" s="8" t="s">
-        <v>611</v>
+      <c r="C186" s="2" t="s">
+        <v>607</v>
       </c>
       <c r="D186" s="22" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E186" s="13" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>4</v>
@@ -17935,14 +19679,14 @@
       <c r="B187" s="8">
         <v>398</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>613</v>
+      <c r="C187" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="D187" s="22" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E187" s="13" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>4</v>
@@ -17951,7 +19695,7 @@
         <v>42743</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AF187" s="8" t="s">
         <v>5</v>
@@ -17960,20 +19704,418 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:34" ht="174" x14ac:dyDescent="0.35">
-      <c r="A190" s="2" t="s">
+    <row r="188" spans="1:34" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A188" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B188" s="8">
+        <v>11</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="E188" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G188" s="9">
+        <v>42744</v>
+      </c>
+      <c r="H188" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="K188" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L188" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:34" ht="228" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B189" s="8">
+        <v>42</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="E189" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G189" s="9">
+        <v>42744</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="K189" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L189" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA189" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:34" ht="270.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B190" s="8">
+        <v>80</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="E190" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G190" s="9">
+        <v>42745</v>
+      </c>
+      <c r="H190" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="K190" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L190" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:34" ht="206.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B191" s="8">
+        <v>81</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="E191" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G191" s="9">
+        <v>42745</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="L191" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X191" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:34" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A192" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B192" s="8">
+        <v>33</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="E192" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G192" s="9">
+        <v>42745</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="L192" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X192" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:33" ht="174" x14ac:dyDescent="0.35">
+      <c r="A193" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B193" s="8">
+        <v>54</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="E193" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G193" s="9">
+        <v>42745</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="L193" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:33" ht="174" x14ac:dyDescent="0.35">
+      <c r="A194" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B194" s="8">
+        <v>59</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G194" s="9">
+        <v>42745</v>
+      </c>
+      <c r="L194" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:33" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A195" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B195" s="8">
+        <v>73</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G195" s="9">
+        <v>42745</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="L195" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:33" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A196" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B196" s="8">
+        <v>289</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D196" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G196" s="9">
+        <v>42746</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="L196" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T196" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:33" ht="116" x14ac:dyDescent="0.35">
+      <c r="A197" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B197" s="8">
+        <v>228</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D197" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="E197" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G197" s="9">
+        <v>42746</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="L197" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:33" ht="145" x14ac:dyDescent="0.35">
+      <c r="A198" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B198" s="8">
+        <v>209</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D198" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G198" s="9">
+        <v>42746</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="K198" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L198" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:33" ht="232" x14ac:dyDescent="0.35">
+      <c r="A199" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B199" s="8">
+        <v>448</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="E199" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G199" s="9">
+        <v>42746</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="L199" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:33" ht="203" x14ac:dyDescent="0.35">
+      <c r="A200" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B200" s="8">
+        <v>455</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="E200" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G200" s="9">
+        <v>42746</v>
+      </c>
+      <c r="L200" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG200" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:33" ht="174" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B203" s="2">
         <v>405</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="D203" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="F190" s="22"/>
+      <c r="F203" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18013,7 +20155,7 @@
         <v>311</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -18039,10 +20181,10 @@
         <v>256</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="145" x14ac:dyDescent="0.35">
@@ -18064,10 +20206,10 @@
         <v>313</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
@@ -18137,7 +20279,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>16</v>
@@ -18145,10 +20287,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -18159,11 +20301,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18189,60 +20331,68 @@
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>434</v>
+        <v>646</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>428</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>429</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -18252,22 +20402,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18278,34 +20439,50 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>600</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>608</v>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Basic Algorithm" sheetId="3" r:id="rId4"/>
     <sheet name="Bit Manipulation" sheetId="4" r:id="rId5"/>
     <sheet name="Complexcity" sheetId="5" r:id="rId6"/>
-    <sheet name="Commone Methods" sheetId="6" r:id="rId7"/>
+    <sheet name="Common Methods" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LeetCode Record 1'!$A$1:$AH$127</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="734">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -4789,6 +4789,37 @@
       <t xml:space="preserve">is default to be null.
 </t>
     </r>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>用Queue，循环而不是递归，用链表实现Queue</t>
+  </si>
+  <si>
+    <t>add(), addLast() to the end
+remove(), poll(), pop(), pollFirst() the head
+push(), addFirst() in the head
+pollLast() from the end
+peek(), peekFirst(), look at the first
+peekLast()</t>
+  </si>
+  <si>
+    <t>Given a binary tree, imagine yourself standing on the right side of it, return the values of the nodes you can see ordered from top to bottom.
+For example:
+Given the following binary tree,
+   1            &lt;---
+ /   \
+2     3         &lt;---
+ \     \
+  5     4       &lt;---
+You should return [1, 3, 4].</t>
+  </si>
+  <si>
+    <t>BFS, use two queues to store two levels of the tree. Only add the final one to res</t>
   </si>
 </sst>
 </file>
@@ -9458,8 +9489,8 @@
       <xdr:row>206</xdr:row>
       <xdr:rowOff>1748358</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId139">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="90" name="Ink 89">
@@ -9478,7 +9509,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="90" name="Ink 89">
@@ -9553,6 +9584,67 @@
         <a:xfrm>
           <a:off x="5783358" y="15213814"/>
           <a:ext cx="3879116" cy="2929877"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>841850</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>360051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2738029</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>2051312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B863ED23-09B5-4E42-966E-16AAA27A35DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId142" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6511025" y="337577783"/>
+          <a:ext cx="1896179" cy="1691261"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13167,126 +13259,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>30186</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>1280324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4150309</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>1077642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97026C3-1963-44F8-BA95-ECB98306DA32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6310336" y="274876424"/>
-          <a:ext cx="4120123" cy="1461018"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>938390</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>1467055</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3081917</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>75873</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF67BFC-F0FB-4BF5-A8DE-153AF5B6ED5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="16119"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7218540" y="277958755"/>
-          <a:ext cx="2143527" cy="1840968"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -13302,7 +13274,7 @@
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId117">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId115">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="60" name="Ink 59">
               <a:extLst>
@@ -14015,8 +13987,8 @@
       <xdr:row>206</xdr:row>
       <xdr:rowOff>1748358</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId139">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Ink 70">
@@ -14035,7 +14007,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Ink 70">
@@ -18882,13 +18854,13 @@
               </emma:interpretation>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0">10670 435317,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,15-1,15-3,16-2,11-3,6-3,1 1,-1 1,-5 0,-6 3,-7 2,-6 2,-5 2,-4 0,-6 1</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-340">10984 434896,'0'0,"-5"15,-2 5,1 0,-2 8,-3 9,-1 14,-4 16,1 11,0 5,4-1,3-11,4-13,2-12,1-10,2-6,5-4,5-2,4-5,4-6,3-5,5-4,-5-2</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="596">11611 434896,'0'0,"0"1,0-1,0 0,0 0,0 0,0 0,0 0,7 13,1 4,11 10,10 5,6 3,5 0,-6-7</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="360">11630 435219,'0'0,"0"0,0 0,0 0,0 0,0 0,0 13,0 15,0 12,0 8,-2 6,0 3,0 2,0-2,-1-3,0-10,0-8,2-10,0-8,0-6</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1882">9053 434946,'0'0,"0"0,0 0,0 0,-2 11,0 13,-4 13,-3 17,-3 12,-3 10,-2 3,-1-4,0-8,0-10,4-13,5-14,3-11,2-8,3-6,1-5,1-1,-1-1,1-2,0-3,-1-4,4-10,2-13,4-10,5-8,3-7,2-2,3 4,1 7,0 8,2 6,2 8,0 6,0 5,-4 5,-2 5,-4 3,0 6,-1 10,0 8,-1 9,-4 6,-4 7,-3 4,-2 1,-2-1,-1-3,-1-6,0-7,1-9,0-6,-1-5,1-3,-1-3,5-5,0-5,7-11,8-16,7-15,7-12,5-7,3-3,0 6,-2 4,-3 12,-8 10,-8 13,-6 10,-4 8,-3 8,-2 7,-1 8,-2 12,0 8,-2 12,-3 9,-4 8,-1 4,-3-3,0-3,2-8,1-8,2-8,2-12,1-10,2-8,0-5,2-4,-1-1</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1154">9837 435063,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,-2 15,0 5,-2 19,-2 15,-1 7,-2 5,2-2,1-9,2-9,1-10,2-8,1-7,3-4,5-6,4-4,4-4,4-2,5-5,7-8,5-8,0-10,0-8,-3-6,-2-4,-4-1,-4 0,-4 4,-6 4,-5 9,-3 9,-3 8,-3 6,0 5,0 4,-2 2,2 6,-1 5,0 9,1 9,2 11,0 11,2 4,0 0,-1 0,2-8,0-7,0-9,1-4,-1-6,2-5,3-4,1-4,1-4,1-5,0-3,4-8,-1-1</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-729">10562 434798,'0'0,"0"0,0 0,0 0,0 0,-1 13,-1 5,-1 17,2 15,-1 10,2 7,-1 3,1 2,0 0,0-2,0-3,0-4,1-7,0-4,4-6,5-4,2-7,3-4,2-7,1-8,-3-6</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">10670 435368,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,15-1,15-3,16-3,11-3,6-3,1 1,-1 1,-5 0,-6 3,-7 3,-6 2,-5 2,-4-1,-6 2</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-340">10984 434906,'0'0,"-5"16,-2 6,1 0,-2 9,-3 10,-1 15,-4 17,1 13,0 5,4-1,3-12,4-14,2-13,1-12,2-6,5-4,5-3,4-5,4-7,3-5,5-5,-5-1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="596">11611 434906,'0'0,"0"1,0-1,0 0,0 0,0 0,0 0,0 0,7 14,1 5,11 10,10 7,6 2,5 1,-6-9</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="360">11630 435261,'0'0,"0"0,0 0,0 0,0 0,0 0,0 14,0 17,0 13,0 8,-2 8,0 2,0 3,0-2,-1-4,0-10,0-10,2-10,0-9,0-7</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1882">9053 434961,'0'0,"0"0,0 0,0 0,-2 12,0 14,-4 15,-3 18,-3 14,-3 10,-2 4,-1-5,0-8,0-11,4-15,5-15,3-12,2-9,3-7,1-5,1-1,-1-1,1-2,0-4,-1-4,4-11,2-14,4-12,5-8,3-8,2-2,3 5,1 7,0 8,2 8,2 8,0 7,0 5,-4 6,-2 5,-4 4,0 6,-1 11,0 9,-1 10,-4 7,-4 7,-3 4,-2 2,-2-1,-1-4,-1-6,0-9,1-8,0-8,-1-5,1-3,-1-4,5-5,0-6,7-11,8-19,7-15,7-14,5-8,3-3,0 7,-2 4,-3 13,-8 11,-8 15,-6 10,-4 10,-3 8,-2 8,-1 8,-2 14,0 9,-2 12,-3 11,-4 8,-1 5,-3-3,0-4,2-9,1-8,2-9,2-13,1-12,2-8,0-5,2-5,-1-1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1154">9837 435089,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,-2 17,0 5,-2 21,-2 16,-1 8,-2 5,2-1,1-11,2-9,1-12,2-8,1-8,3-4,5-7,4-4,4-5,4-2,5-5,7-9,5-9,0-11,0-9,-3-7,-2-3,-4-2,-4 0,-4 5,-6 3,-5 11,-3 10,-3 9,-3 6,0 5,0 5,-2 2,2 7,-1 6,0 9,1 10,2 12,0 12,2 5,0-1,-1 1,2-9,0-8,0-10,1-4,-1-6,2-7,3-3,1-5,1-5,1-5,0-3,4-9,-1-1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-729">10562 434798,'0'0,"0"0,0 0,0 0,0 0,-1 14,-1 6,-1 19,2 15,-1 12,2 8,-1 3,1 2,0 0,0-2,0-3,0-5,1-7,0-5,4-7,5-4,2-7,3-5,2-8,1-8,-3-7</inkml:trace>
         </inkml:traceGroup>
         <inkml:traceGroup>
           <inkml:annotationXML>
@@ -18898,9 +18870,9 @@
               </emma:interpretation>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3089">14090 434984,'0'0,"0"0,0 0,0 0,0 0,0 17,0 13,0 12,-2 12,-4 9,-2 2,0-1,0-7,-1-10,2-10,1-10,2-9,2-6,2-5,-1-4,2-2,1-5,2-8,5-12,7-14,5-10,3-7,0-3,-1 4,-2 8,-1 8,-5 9,-2 9,-5 9,-2 5,-4 4,0 4,0 4,1 6,0 6,1 8,0 8,1 6,2 2,1 2,3 0,0-2,5-2,2-4,0-6,0-4,-2-6,2-4,2-6,-2-2,2-4,0-4,2-4,4-5,4-11,4-7,-1-5,-2-6,-4-2,-4-1,-7-2,-5-1,-5 1,-3 8,-3 5,-1 8,0 5,-2 6,0 3,0 2,-1 3,-1 2,0 1,-1 3,-5 7,-3 7,-2 7,-2 12,3 8,0 8,4 0,4 1,4-2,4 0,7 0,3-5,8-4,5-4,4-8,3-6,2-6,3-7,6-4,4-7,3-6,-8 0</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1941">13678 434867,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,10 5,3 2,13 2,2 0</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1714">12992 435092,'0'0,"0"12,0 3,0 0,0 7,-2 13,-2 16,-2 14,0 12,-2 9,-3 3,-4-5,0-8,1-12,0-12,4-16,2-14,4-10,3-10,6-9,5-16,7-15,8-22,9-16,10-11,5-4,0 2,2 8,-3 9,-3 12,-7 13,-10 14,-8 13,-8 12,-5 11,-1 11,-4 11,0 13,-2 14,-1 9,-2 4,-1 2,0-3,0-5,1-8,1-8,3-7,1-7,1-7,5-5,3-5,4-7,2-8,7-9,6-14,4-16,4-15,-1-8,-2-1,-5 5,-3 6,-6 14,-8 13,-5 11,-4 9,-3 8,-2 5,-2 8,-2 11,0 8,0 6,2 4,0 0,2-3,2-2,4-3,7-4,6-4,1-6,2-6,-1-8,2-6,0-8,-6-3</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3089">14090 435002,'0'0,"0"0,0 0,0 0,0 0,0 19,0 14,0 13,-2 14,-4 9,-2 2,0 0,0-9,-1-10,2-11,1-12,2-9,2-7,2-5,-1-5,2-2,1-5,2-9,5-14,7-14,5-12,3-8,0-2,-1 3,-2 10,-1 8,-5 10,-2 10,-5 10,-2 5,-4 5,0 4,0 5,1 6,0 7,1 9,0 8,1 7,2 2,1 2,3 1,0-3,5-2,2-5,0-6,0-4,-2-7,2-4,2-7,-2-3,2-3,0-5,2-5,4-5,4-12,4-7,-1-6,-2-7,-4-2,-4-1,-7-2,-5-2,-5 2,-3 8,-3 6,-1 9,0 6,-2 6,0 3,0 2,-1 4,-1 2,0 1,-1 3,-5 8,-3 8,-2 7,-2 14,3 8,0 9,4 0,4 2,4-3,4 0,7 0,3-6,8-4,5-4,4-9,3-6,2-8,3-7,6-4,4-8,3-6,-8-1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1941">13678 434874,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,10 5,3 3,13 2,2 0</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1714">12992 435121,'0'0,"0"13,0 4,0-1,0 8,-2 15,-2 17,-2 15,0 14,-2 10,-3 2,-4-4,0-10,1-13,0-12,4-19,2-15,4-10,3-12,6-10,5-17,7-17,8-24,9-17,10-13,5-4,0 2,2 9,-3 10,-3 13,-7 14,-10 16,-8 14,-8 13,-5 13,-1 11,-4 13,0 13,-2 16,-1 10,-2 5,-1 2,0-4,0-5,1-9,1-9,3-7,1-9,1-6,5-7,3-4,4-9,2-8,7-10,6-16,4-17,4-17,-1-8,-2-2,-5 6,-3 7,-6 15,-8 14,-5 12,-4 10,-3 9,-2 6,-2 8,-2 13,0 8,0 6,2 6,0-1,2-3,2-3,4-2,7-5,6-5,1-6,2-6,-1-10,2-6,0-9,-6-3</inkml:trace>
         </inkml:traceGroup>
       </inkml:traceGroup>
     </inkml:traceGroup>
@@ -18928,7 +18900,7 @@
               </emma:interpretation>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18899">13766 436032,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-6-11,-3-4,-10-3,-9 1,-8 4,-6 6,-7 8,-4 7,2 10,2 6,2 8,5 6,5 1,7-2,10-2,9-7,5-4,4-5,3-2,3-4,6-4,4-4,7-6,13-8,8-10,7-10,3-5,-4-4,-4 0,-7 3,-7 7,-10 8,-7 7,-7 7,-4 4,-2 2,-1 2,-1 6,1 6,-1 10,0 13,-1 12,-3 10,0 9,-1 4,1 5,-3 2,0-3,1-2,1-8,1-9,1-12,2-12,0-11,3-11,-1-5,1-6,0-1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18899">13766 436154,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-6-12,-3-4,-10-4,-9 1,-8 5,-6 6,-7 9,-4 8,2 11,2 6,2 9,5 7,5 1,7-2,10-3,9-7,5-5,4-5,3-2,3-5,6-4,4-5,7-6,13-8,8-12,7-11,3-6,-4-3,-4-1,-7 3,-7 9,-10 8,-7 7,-7 9,-4 4,-2 2,-1 2,-1 7,1 6,-1 11,0 15,-1 13,-3 11,0 9,-1 6,1 4,-3 3,0-3,1-3,1-9,1-9,1-14,2-12,0-13,3-12,-1-5,1-7,0-2</inkml:trace>
         </inkml:traceGroup>
         <inkml:traceGroup>
           <inkml:annotationXML>
@@ -18938,10 +18910,10 @@
               </emma:interpretation>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1154">9837 435063,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,-2 15,0 5,-2 19,-2 15,-1 7,-2 5,2-2,1-9,2-9,1-10,2-8,1-7,3-4,5-6,4-4,4-4,4-2,5-5,7-8,5-8,0-10,0-8,-3-6,-2-4,-4-1,-4 0,-4 4,-6 4,-5 9,-3 9,-3 8,-3 6,0 5,0 4,-2 2,2 6,-1 5,0 9,1 9,2 11,0 11,2 4,0 0,-1 0,2-8,0-7,0-9,1-4,-1-6,2-5,3-4,1-4,1-4,1-5,0-3,4-8,-1-1</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-729">10562 434798,'0'0,"0"0,0 0,0 0,0 0,-1 13,-1 5,-1 17,2 15,-1 10,2 7,-1 3,1 2,0 0,0-2,0-3,0-4,1-7,0-4,4-6,5-4,2-7,3-4,2-7,1-8,-3-6</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1882">9053 434946,'0'0,"0"0,0 0,0 0,-2 11,0 13,-4 13,-3 17,-3 12,-3 10,-2 3,-1-4,0-8,0-10,4-13,5-14,3-11,2-8,3-6,1-5,1-1,-1-1,1-2,0-3,-1-4,4-10,2-13,4-10,5-8,3-7,2-2,3 4,1 7,0 8,2 6,2 8,0 6,0 5,-4 5,-2 5,-4 3,0 6,-1 10,0 8,-1 9,-4 6,-4 7,-3 4,-2 1,-2-1,-1-3,-1-6,0-7,1-9,0-6,-1-5,1-3,-1-3,5-5,0-5,7-11,8-16,7-15,7-12,5-7,3-3,0 6,-2 4,-3 12,-8 10,-8 13,-6 10,-4 8,-3 8,-2 7,-1 8,-2 12,0 8,-2 12,-3 9,-4 8,-1 4,-3-3,0-3,2-8,1-8,2-8,2-12,1-10,2-8,0-5,2-4,-1-1</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0">10670 435317,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,15-1,15-3,16-2,11-3,6-3,1 1,-1 1,-5 0,-6 3,-7 2,-6 2,-5 2,-4 0,-6 1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1154">9837 435089,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,-2 17,0 5,-2 21,-2 16,-1 8,-2 5,2-1,1-11,2-9,1-12,2-8,1-8,3-4,5-7,4-4,4-5,4-2,5-5,7-9,5-9,0-11,0-9,-3-7,-2-3,-4-2,-4 0,-4 5,-6 3,-5 11,-3 10,-3 9,-3 6,0 5,0 5,-2 2,2 7,-1 6,0 9,1 10,2 12,0 12,2 5,0-1,-1 1,2-9,0-8,0-10,1-4,-1-6,2-7,3-3,1-5,1-5,1-5,0-3,4-9,-1-1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-729">10562 434798,'0'0,"0"0,0 0,0 0,0 0,-1 14,-1 6,-1 19,2 15,-1 12,2 8,-1 3,1 2,0 0,0-2,0-3,0-5,1-7,0-5,4-7,5-4,2-7,3-5,2-8,1-8,-3-7</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1882">9053 434961,'0'0,"0"0,0 0,0 0,-2 12,0 14,-4 15,-3 18,-3 14,-3 10,-2 4,-1-5,0-8,0-11,4-15,5-15,3-12,2-9,3-7,1-5,1-1,-1-1,1-2,0-4,-1-4,4-11,2-14,4-12,5-8,3-8,2-2,3 5,1 7,0 8,2 8,2 8,0 7,0 5,-4 6,-2 5,-4 4,0 6,-1 11,0 9,-1 10,-4 7,-4 7,-3 4,-2 2,-2-1,-1-4,-1-6,0-9,1-8,0-8,-1-5,1-3,-1-4,5-5,0-6,7-11,8-19,7-15,7-14,5-8,3-3,0 7,-2 4,-3 13,-8 11,-8 15,-6 10,-4 10,-3 8,-2 8,-1 8,-2 14,0 9,-2 12,-3 11,-4 8,-1 5,-3-3,0-4,2-9,1-8,2-9,2-13,1-12,2-8,0-5,2-5,-1-1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">10670 435368,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,15-1,15-3,16-3,11-3,6-3,1 1,-1 1,-5 0,-6 3,-7 3,-6 2,-5 2,-4-1,-6 2</inkml:trace>
         </inkml:traceGroup>
         <inkml:traceGroup>
           <inkml:annotationXML>
@@ -18951,9 +18923,9 @@
               </emma:interpretation>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-340">10984 434896,'0'0,"-5"15,-2 5,1 0,-2 8,-3 9,-1 14,-4 16,1 11,0 5,4-1,3-11,4-13,2-12,1-10,2-6,5-4,5-2,4-5,4-6,3-5,5-4,-5-2</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="596">11611 434896,'0'0,"0"1,0-1,0 0,0 0,0 0,0 0,0 0,7 13,1 4,11 10,10 5,6 3,5 0,-6-7</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25900">16461 435895,'0'0,"0"0,0 0,0 10,0 3,-1 13,-3 9,-1 6,2 10,-2 9,-1 5,-1 0,-1-5,0-7,2-13,2-12,2-10,1-9</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-340">10984 434906,'0'0,"-5"16,-2 6,1 0,-2 9,-3 10,-1 15,-4 17,1 13,0 5,4-1,3-12,4-14,2-13,1-12,2-6,5-4,5-3,4-5,4-7,3-5,5-5,-5-1</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="596">11611 434906,'0'0,"0"1,0-1,0 0,0 0,0 0,0 0,0 0,7 14,1 5,11 10,10 7,6 2,5 1,-6-9</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25900">16461 436004,'0'0,"0"0,0 0,0 11,0 3,-1 14,-3 11,-1 6,2 11,-2 10,-1 5,-1 1,-1-6,0-8,2-14,2-13,2-11,1-11</inkml:trace>
         </inkml:traceGroup>
       </inkml:traceGroup>
     </inkml:traceGroup>
@@ -18981,7 +18953,7 @@
               </emma:interpretation>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26423">16726 436209,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,7-10,1-3,11-13,1-2,7-5,0 4,3 1,-3 3,-7 8,-6 5,1 9,-1 10,1 10,-2 7,0 4,0 4,0 0,0-3,0-6,0-4,2-5,-2-6</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26423">16726 436349,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,7-11,1-4,11-13,1-3,7-5,0 4,3 1,-3 4,-7 8,-6 6,1 9,-1 12,1 11,-2 7,0 5,0 4,0 0,0-3,0-6,0-6,2-4,-2-7</inkml:trace>
         </inkml:traceGroup>
         <inkml:traceGroup>
           <inkml:annotationXML>
@@ -18991,11 +18963,11 @@
               </emma:interpretation>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28402">16088 436767,'0'0,"0"0,0 0,0 0,-2 10,0 15,-3 17,-3 15,-5 19,-3 13,-1 5,1-3,2-12,2-15,4-16,4-13,2-12,1-10</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28888">16383 436973,'0'0,"0"0,0 0,0 0,3 10,1 4,2 12,0 8,2 7,1 5,0-1,-1-2,0-7,1-7,1-6,-1-7,2-9,6-6,5-9,5-11,3-14,1-15,-5-10,-4-7,-4 3,-6 4,-4 8,-8 6,-6 8,-6 7,-6 7,-2 4,-3 7,0 4,-1 4,1 4,-2 3,4 2,5-1</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29390">16794 437336,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,7-10,1-3,1 0,6-7,1 0,-2 2,-4 6,-4 4,5-2,0 1,-3 3,-1 2,5 4,7 5,4 4,4 3,-2-1,1-1,0-2,2-4,3-2,3-8,5-8,1-11,0-9,0-7,-8 3</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30279">17843 437091,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,8-10,4-3,2-10,-2 0,-3-10,-6-5,-4-2,-6 1,-3 3,-4 7,-4 6,-6 9,-3 6,-4 11,-5 8,-3 14,-3 8,5 9,3 4,9 1,5-3,5-5,6-8,4-7,3-7,5-4,5-4,2-4,6-6,7-4,7-11,8-9,1-8,-2-4,-2 2,-8 6,-7 9,-8 7,-6 6,-4 4,-2 5,-1 1,-1 6,1 11,-2 12,-4 16,-1 14,-1 11,-1 3,-1 0,1-6,4-8,-1-7,2-8,1-8,2-10,2-6,-1-4,1-3,2-3,1-4</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31288">18391 436914,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-10,0-4,-3-6,-2-2,-4-2,-1 2,-6 0,1 4,-4 1,0 4,-4 8,-3 7,-6 11,-2 9,0 10,0 8,2 7,5 2,6-3,6-7,6-7,5-7,3-6,3-5,5-4,2 0,6-2,5-1,6-3,4-6,6-6,2-9,-1-6,0-6,-3-5,-2-2,-5 3,-4 3,-5 3,-5 5,-4 5,-4 7,-2 4,-3 4,0 2,-1 0,0 1,1 0,-1 2,0 4,1 10,-2 12,0 13,-3 21,-3 17,-3 12,-1 2,1-6,-1-10,2-9,1-10,1-12,2-9,-1-12,1-6,2-7,1-4,1-3,2-2</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28402">16088 436962,'0'0,"0"0,0 0,0 0,-2 11,0 16,-3 20,-3 15,-5 22,-3 14,-1 5,1-3,2-13,2-17,4-17,4-15,2-12,1-12</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28888">16383 437188,'0'0,"0"0,0 0,0 0,3 11,1 5,2 12,0 10,2 7,1 5,0 0,-1-3,0-7,1-9,1-5,-1-9,2-9,6-7,5-10,5-12,3-15,1-17,-5-10,-4-9,-4 4,-6 4,-4 9,-8 7,-6 8,-6 9,-6 6,-2 6,-3 7,0 4,-1 5,1 4,-2 3,4 3,5-2</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29390">16794 437587,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,7-11,1-3,1 0,6-8,1 0,-2 2,-4 7,-4 4,5-2,0 1,-3 4,-1 1,5 5,7 6,4 4,4 3,-2-1,1-1,0-2,2-5,3-2,3-8,5-10,1-11,0-11,0-7,-8 4</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30279">17843 437318,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,8-11,4-3,2-12,-2 1,-3-11,-6-6,-4-2,-6 1,-3 4,-4 7,-4 7,-6 9,-3 7,-4 13,-5 8,-3 15,-3 10,5 9,3 4,9 2,5-4,5-5,6-9,4-7,3-9,5-3,5-6,2-3,6-7,7-5,7-11,8-11,1-8,-2-5,-2 3,-8 6,-7 10,-8 8,-6 6,-4 5,-2 5,-1 1,-1 7,1 12,-2 13,-4 18,-1 15,-1 12,-1 4,-1-1,1-6,4-8,-1-9,2-8,1-9,2-12,2-5,-1-5,1-4,2-3,1-4</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31288">18391 437124,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-12,0-3,-3-7,-2-2,-4-2,-1 1,-6 1,1 4,-4 2,0 3,-4 10,-3 7,-6 12,-2 11,0 10,0 9,2 7,5 3,6-3,6-8,6-8,5-8,3-6,3-5,5-5,2 0,6-3,5 0,6-4,4-6,6-7,2-9,-1-7,0-7,-3-6,-2-1,-5 2,-4 4,-5 4,-5 5,-4 5,-4 8,-2 4,-3 5,0 2,-1 0,0 1,1 0,-1 3,0 3,1 12,-2 13,0 14,-3 23,-3 19,-3 13,-1 3,1-8,-1-10,2-10,1-11,1-14,2-9,-1-13,1-7,2-8,1-4,1-4,2-1</inkml:trace>
         </inkml:traceGroup>
         <inkml:traceGroup>
           <inkml:annotationXML>
@@ -19005,10 +18977,10 @@
               </emma:interpretation>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28888">16383 436973,'0'0,"0"0,0 0,0 0,3 10,1 4,2 12,0 8,2 7,1 5,0-1,-1-2,0-7,1-7,1-6,-1-7,2-9,6-6,5-9,5-11,3-14,1-15,-5-10,-4-7,-4 3,-6 4,-4 8,-8 6,-6 8,-6 7,-6 7,-2 4,-3 7,0 4,-1 4,1 4,-2 3,4 2,5-1</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29390">16794 437336,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,7-10,1-3,1 0,6-7,1 0,-2 2,-4 6,-4 4,5-2,0 1,-3 3,-1 2,5 4,7 5,4 4,4 3,-2-1,1-1,0-2,2-4,3-2,3-8,5-8,1-11,0-9,0-7,-8 3</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30279">17843 437091,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,8-10,4-3,2-10,-2 0,-3-10,-6-5,-4-2,-6 1,-3 3,-4 7,-4 6,-6 9,-3 6,-4 11,-5 8,-3 14,-3 8,5 9,3 4,9 1,5-3,5-5,6-8,4-7,3-7,5-4,5-4,2-4,6-6,7-4,7-11,8-9,1-8,-2-4,-2 2,-8 6,-7 9,-8 7,-6 6,-4 4,-2 5,-1 1,-1 6,1 11,-2 12,-4 16,-1 14,-1 11,-1 3,-1 0,1-6,4-8,-1-7,2-8,1-8,2-10,2-6,-1-4,1-3,2-3,1-4</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31288">18391 436914,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-10,0-4,-3-6,-2-2,-4-2,-1 2,-6 0,1 4,-4 1,0 4,-4 8,-3 7,-6 11,-2 9,0 10,0 8,2 7,5 2,6-3,6-7,6-7,5-7,3-6,3-5,5-4,2 0,6-2,5-1,6-3,4-6,6-6,2-9,-1-6,0-6,-3-5,-2-2,-5 3,-4 3,-5 3,-5 5,-4 5,-4 7,-2 4,-3 4,0 2,-1 0,0 1,1 0,-1 2,0 4,1 10,-2 12,0 13,-3 21,-3 17,-3 12,-1 2,1-6,-1-10,2-9,1-10,1-12,2-9,-1-12,1-6,2-7,1-4,1-3,2-2</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28888">16383 437188,'0'0,"0"0,0 0,0 0,3 11,1 5,2 12,0 10,2 7,1 5,0 0,-1-3,0-7,1-9,1-5,-1-9,2-9,6-7,5-10,5-12,3-15,1-17,-5-10,-4-9,-4 4,-6 4,-4 9,-8 7,-6 8,-6 9,-6 6,-2 6,-3 7,0 4,-1 5,1 4,-2 3,4 3,5-2</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29390">16794 437587,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,7-11,1-3,1 0,6-8,1 0,-2 2,-4 7,-4 4,5-2,0 1,-3 4,-1 1,5 5,7 6,4 4,4 3,-2-1,1-1,0-2,2-5,3-2,3-8,5-10,1-11,0-11,0-7,-8 4</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30279">17843 437318,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,8-11,4-3,2-12,-2 1,-3-11,-6-6,-4-2,-6 1,-3 4,-4 7,-4 7,-6 9,-3 7,-4 13,-5 8,-3 15,-3 10,5 9,3 4,9 2,5-4,5-5,6-9,4-7,3-9,5-3,5-6,2-3,6-7,7-5,7-11,8-11,1-8,-2-5,-2 3,-8 6,-7 10,-8 8,-6 6,-4 5,-2 5,-1 1,-1 7,1 12,-2 13,-4 18,-1 15,-1 12,-1 4,-1-1,1-6,4-8,-1-9,2-8,1-9,2-12,2-5,-1-5,1-4,2-3,1-4</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31288">18391 437124,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-12,0-3,-3-7,-2-2,-4-2,-1 1,-6 1,1 4,-4 2,0 3,-4 10,-3 7,-6 12,-2 11,0 10,0 9,2 7,5 3,6-3,6-8,6-8,5-8,3-6,3-5,5-5,2 0,6-3,5 0,6-4,4-6,6-7,2-9,-1-7,0-7,-3-6,-2-1,-5 2,-4 4,-5 4,-5 5,-4 5,-4 8,-2 4,-3 5,0 2,-1 0,0 1,1 0,-1 3,0 3,1 12,-2 13,0 14,-3 23,-3 19,-3 13,-1 3,1-8,-1-10,2-10,1-11,1-14,2-9,-1-13,1-7,2-8,1-4,1-4,2-1</inkml:trace>
         </inkml:traceGroup>
       </inkml:traceGroup>
     </inkml:traceGroup>
@@ -20848,9 +20820,9 @@
   <dimension ref="A1:AJ223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A211" sqref="A211"/>
+      <selection pane="bottomLeft" activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21353,7 +21325,7 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -21403,7 +21375,7 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -23293,7 +23265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>30</v>
       </c>
@@ -23319,7 +23291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>30</v>
       </c>
@@ -23591,7 +23563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>46</v>
       </c>
@@ -23726,7 +23698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>30</v>
       </c>
@@ -23876,7 +23848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>215</v>
       </c>
@@ -23925,7 +23897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>46</v>
       </c>
@@ -24425,7 +24397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>46</v>
       </c>
@@ -24494,7 +24466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>250</v>
       </c>
@@ -28003,6 +27975,38 @@
         <v>5</v>
       </c>
     </row>
+    <row r="215" spans="1:34" ht="174" x14ac:dyDescent="0.35">
+      <c r="A215" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B215" s="8">
+        <v>199</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="E215" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G215" s="9">
+        <v>42752</v>
+      </c>
+      <c r="P215" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB215" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC215" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="223" spans="1:34" ht="174" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>30</v>
@@ -28027,10 +28031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH215"/>
+  <dimension ref="A1:AH216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39635,6 +39639,17 @@
       <c r="AG215" s="2"/>
       <c r="AH215" s="6"/>
     </row>
+    <row r="216" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B216" s="2">
+        <v>199</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39643,10 +39658,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39747,6 +39762,14 @@
         <v>700</v>
       </c>
     </row>
+    <row r="11" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39754,10 +39777,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39819,6 +39842,14 @@
       </c>
       <c r="B8" t="s">
         <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11210" windowHeight="5660" tabRatio="706"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11210" windowHeight="5660" tabRatio="779"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode Record 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="747">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -1765,9 +1765,6 @@
   </si>
   <si>
     <t>Stack</t>
-  </si>
-  <si>
-    <t>Queue</t>
   </si>
   <si>
     <t>Moving Average from Data Stream</t>
@@ -4401,9 +4398,6 @@
   </si>
   <si>
     <t>BST</t>
-  </si>
-  <si>
-    <t>Inorder/preorder/postorder traversal can use STACK to implement</t>
   </si>
   <si>
     <t>Peeking Iterator</t>
@@ -4819,7 +4813,93 @@
 You should return [1, 3, 4].</t>
   </si>
   <si>
-    <t>BFS, use two queues to store two levels of the tree. Only add the final one to res</t>
+    <t>BFS, use two queues to store two levels of the tree. Only add the final one to res
+Can also use DFS, dfs right child first, if currentDepth == res.size(), add to res</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>You may only use constant extra space.
+You may assume that it is a perfect binary tree (ie, all leaves are at the same level, and every parent has two children).
+For example,
+Given the following perfect binary tree,
+         1
+       /  \
+      2    3
+     / \  / \
+    4  5  6  7
+After calling your function, the tree should look like:
+         1 -&gt; NULL
+       /  \
+      2 -&gt; 3 -&gt; NULL
+     / \  / \
+    4-&gt;5-&gt;6-&gt;7 -&gt; NULL</t>
+  </si>
+  <si>
+    <t>notice the condition of pointing to null. The condition is not that the q is empty, but that the initial size of q is reaching empty(queue size is changing)
+另一种方法， 用指针。
+if(cur.left!=null) cur.left.next=cur.right;//左子指向右子
+if(cur.right!=null &amp;&amp; cur.next!=null) cur.right.next=cur.next.left; //右子指向下一个的左子          
+cur=cur.next;//横向移动
+（null之后移动到自己的左子，往下移动）</t>
+  </si>
+  <si>
+    <t>Inorder/preorder/postorder traversal can use STACK to implement
+Preorder: check if curr null -&gt; curr -&gt; left -&gt; right
+Inorder: check if curr null -&gt; left -&gt; curr -&gt; right
+Postorder: check if curr null -&gt; left -&gt; right -&gt; curr</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Given preorder and inorder traversal of a tree, construct the binary tree.
+Note:
+You may assume that duplicates do not exist in the tree.
+//preorder curr -&gt; left -&gt; right, inorder left -&gt; curr -&gt; right</t>
+  </si>
+  <si>
+    <t>顺序遍历preorder,第一个是头，然后找inorder里与其相等的数的位置，可知该数左边是头的左子，右边是头的右子，该数下一个的index正在preorder里面也是右子的头，递归左边和右边。 Dfs(preorder 的头，inorder开始index， inorder结束index...). 用hashmap存inorder的val-idx会更快，因为都是搜索。
+注意dfs的corner case 1) preIdx &gt; pre.length 2) inStart &gt; inEnd</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Given a binary tree, return the zigzag level order traversal of its nodes' values. (ie, from left to right, then right to left for the next level and alternate between).
+For example:
+Given binary tree [3,9,20,null,null,15,7],
+    3
+   / \
+  9  20
+    /  \
+   15   7
+return its zigzag level order traversal as:
+[
+  [3],
+  [20,9],
+  [15,7]
+]</t>
+  </si>
+  <si>
+    <t>BFS, use stack, beat 42%</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>Queue(use list to implement)</t>
+  </si>
+  <si>
+    <t>doesn’t have peek()</t>
+  </si>
+  <si>
+    <t>Use Queue interface</t>
+  </si>
+  <si>
+    <t>Follow up for 116, what if the tree is not perfect?
+Another way is base on level order traversal</t>
   </si>
 </sst>
 </file>
@@ -4949,7 +5029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5030,6 +5110,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9605,9 +9686,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>841850</xdr:colOff>
+      <xdr:colOff>1194150</xdr:colOff>
       <xdr:row>214</xdr:row>
-      <xdr:rowOff>360051</xdr:rowOff>
+      <xdr:rowOff>674278</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -9643,8 +9724,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6511025" y="337577783"/>
-          <a:ext cx="1896179" cy="1691261"/>
+          <a:off x="6863325" y="337892010"/>
+          <a:ext cx="1543879" cy="1377034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111174</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>1099790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4085129</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>3799058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9CE3F5-43E9-4CE1-9EC2-68281D8D6F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId143" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5780349" y="343476079"/>
+          <a:ext cx="3973955" cy="2699268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20820,9 +20962,9 @@
   <dimension ref="A1:AJ223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A215" sqref="A215"/>
+      <selection pane="bottomLeft" activeCell="G220" sqref="G220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20860,16 +21002,16 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>280</v>
@@ -20929,7 +21071,7 @@
         <v>71</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>105</v>
@@ -20944,13 +21086,13 @@
         <v>253</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AJ1" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -21677,13 +21819,13 @@
         <v>114</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G17" s="9">
         <v>42626</v>
@@ -21695,7 +21837,7 @@
         <v>42751</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S17" s="8" t="s">
         <v>5</v>
@@ -24408,7 +24550,7 @@
         <v>269</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>4</v>
@@ -25221,7 +25363,7 @@
         <v>357</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D124" s="22" t="s">
         <v>368</v>
@@ -25253,13 +25395,13 @@
         <v>346</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D125" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E125" s="13" t="s">
         <v>374</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>375</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>32</v>
@@ -25288,13 +25430,13 @@
         <v>288</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>303</v>
@@ -25323,13 +25465,13 @@
         <v>392</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="E127" s="13" t="s">
         <v>379</v>
-      </c>
-      <c r="D127" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>380</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>69</v>
@@ -25338,7 +25480,7 @@
         <v>42724</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q127" s="8" t="s">
         <v>5</v>
@@ -25352,13 +25494,13 @@
         <v>153</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="E128" s="13" t="s">
         <v>382</v>
-      </c>
-      <c r="D128" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>383</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>32</v>
@@ -25367,7 +25509,7 @@
         <v>42724</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N128" s="8" t="s">
         <v>5</v>
@@ -25384,13 +25526,13 @@
         <v>274</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D129" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="E129" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>388</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>59</v>
@@ -25399,7 +25541,7 @@
         <v>42724</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N129" s="8" t="s">
         <v>5</v>
@@ -25416,13 +25558,13 @@
         <v>275</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D130" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="D130" s="22" t="s">
-        <v>390</v>
-      </c>
       <c r="E130" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>69</v>
@@ -25448,13 +25590,13 @@
         <v>475</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D131" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="E131" s="13" t="s">
         <v>394</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>395</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>81</v>
@@ -25480,10 +25622,10 @@
         <v>50</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D132" s="22" t="s">
         <v>398</v>
-      </c>
-      <c r="D132" s="22" t="s">
-        <v>399</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>314</v>
@@ -25492,7 +25634,7 @@
         <v>42725</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U132" s="8" t="s">
         <v>5</v>
@@ -25506,13 +25648,13 @@
         <v>242</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="E133" s="13" t="s">
         <v>400</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>401</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>69</v>
@@ -25521,7 +25663,7 @@
         <v>42725</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L133" s="8" t="s">
         <v>5</v>
@@ -25538,13 +25680,13 @@
         <v>438</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D134" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="D134" s="22" t="s">
-        <v>405</v>
-      </c>
       <c r="E134" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>314</v>
@@ -25567,13 +25709,13 @@
         <v>292</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>81</v>
@@ -25582,7 +25724,7 @@
         <v>42726</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U135" s="8" t="s">
         <v>5</v>
@@ -25599,13 +25741,13 @@
         <v>409</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="E136" s="13" t="s">
         <v>410</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>411</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>59</v>
@@ -25628,13 +25770,13 @@
         <v>401</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="E137" s="13" t="s">
         <v>415</v>
-      </c>
-      <c r="D137" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>416</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>127</v>
@@ -25657,10 +25799,10 @@
         <v>293</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D138" s="22" t="s">
         <v>418</v>
-      </c>
-      <c r="D138" s="22" t="s">
-        <v>419</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>32</v>
@@ -25683,13 +25825,13 @@
         <v>294</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D139" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="D139" s="22" t="s">
+      <c r="E139" s="13" t="s">
         <v>421</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>422</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>81</v>
@@ -25712,13 +25854,13 @@
         <v>464</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>81</v>
@@ -25747,16 +25889,16 @@
         <v>46</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>81</v>
@@ -25779,10 +25921,10 @@
         <v>412</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D142" s="22" t="s">
         <v>439</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>440</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>32</v>
@@ -25799,13 +25941,13 @@
         <v>415</v>
       </c>
       <c r="C143" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D143" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="E143" s="13" t="s">
         <v>443</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>444</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>32</v>
@@ -25814,7 +25956,7 @@
         <v>42728</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="1:32" ht="217.5" x14ac:dyDescent="0.35">
@@ -25825,16 +25967,16 @@
         <v>437</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="E144" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="D144" s="22" t="s">
-        <v>558</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>449</v>
-      </c>
       <c r="F144" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G144" s="9">
         <v>42728</v>
@@ -25863,13 +26005,13 @@
         <v>300</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="E145" s="13" t="s">
         <v>450</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E145" s="13" t="s">
-        <v>451</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>81</v>
@@ -25878,7 +26020,7 @@
         <v>42731</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N145" s="8" t="s">
         <v>5</v>
@@ -25898,13 +26040,13 @@
         <v>354</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>81</v>
@@ -25933,13 +26075,13 @@
         <v>406</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>81</v>
@@ -25962,13 +26104,13 @@
         <v>434</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="E148" s="13" t="s">
         <v>460</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>461</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>69</v>
@@ -25988,13 +26130,13 @@
         <v>15</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D149" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="D149" s="22" t="s">
+      <c r="E149" s="13" t="s">
         <v>465</v>
-      </c>
-      <c r="E149" s="13" t="s">
-        <v>466</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>69</v>
@@ -26003,7 +26145,7 @@
         <v>42732</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="150" spans="1:35" ht="261" x14ac:dyDescent="0.35">
@@ -26014,16 +26156,16 @@
         <v>18</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="E150" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="G150" s="9">
         <v>42733</v>
@@ -26040,13 +26182,13 @@
         <v>16</v>
       </c>
       <c r="C151" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D151" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="D151" s="22" t="s">
+      <c r="E151" s="13" t="s">
         <v>473</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>474</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>69</v>
@@ -26072,13 +26214,13 @@
         <v>259</v>
       </c>
       <c r="C152" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D152" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="D152" s="22" t="s">
+      <c r="E152" s="13" t="s">
         <v>476</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>477</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>4</v>
@@ -26110,13 +26252,13 @@
         <v>454</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D153" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="E153" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="E153" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>81</v>
@@ -26136,13 +26278,13 @@
         <v>453</v>
       </c>
       <c r="C154" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D154" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="E154" s="13" t="s">
         <v>484</v>
-      </c>
-      <c r="E154" s="13" t="s">
-        <v>485</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>59</v>
@@ -26151,7 +26293,7 @@
         <v>42734</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="U154" s="8" t="s">
         <v>5</v>
@@ -26165,13 +26307,13 @@
         <v>462</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D155" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="D155" s="22" t="s">
-        <v>488</v>
-      </c>
       <c r="E155" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>69</v>
@@ -26191,10 +26333,10 @@
         <v>86</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>59</v>
@@ -26217,10 +26359,10 @@
         <v>142</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>81</v>
@@ -26249,13 +26391,13 @@
         <v>109</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D158" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="D158" s="22" t="s">
-        <v>493</v>
-      </c>
       <c r="E158" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>59</v>
@@ -26264,7 +26406,7 @@
         <v>42736</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M158" s="8" t="s">
         <v>5</v>
@@ -26284,13 +26426,13 @@
         <v>108</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D159" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="D159" s="22" t="s">
-        <v>497</v>
-      </c>
       <c r="E159" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>32</v>
@@ -26299,7 +26441,7 @@
         <v>42736</v>
       </c>
       <c r="J159" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="P159" s="8" t="s">
         <v>5</v>
@@ -26316,13 +26458,13 @@
         <v>82</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D160" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="D160" s="22" t="s">
-        <v>502</v>
-      </c>
       <c r="E160" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>69</v>
@@ -26339,13 +26481,13 @@
         <v>2</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D161" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="E161" s="13" t="s">
         <v>505</v>
-      </c>
-      <c r="E161" s="13" t="s">
-        <v>506</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>59</v>
@@ -26354,7 +26496,7 @@
         <v>42736</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P161" s="8" t="s">
         <v>5</v>
@@ -26368,13 +26510,13 @@
         <v>445</v>
       </c>
       <c r="C162" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D162" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="D162" s="22" t="s">
-        <v>508</v>
-      </c>
       <c r="E162" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>81</v>
@@ -26383,7 +26525,7 @@
         <v>42736</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P162" s="8" t="s">
         <v>5</v>
@@ -26403,13 +26545,13 @@
         <v>43</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D163" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="D163" s="22" t="s">
-        <v>512</v>
-      </c>
       <c r="E163" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>4</v>
@@ -26418,7 +26560,7 @@
         <v>42737</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q163" s="8" t="s">
         <v>5</v>
@@ -26435,13 +26577,13 @@
         <v>418</v>
       </c>
       <c r="C164" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="E164" s="13" t="s">
         <v>516</v>
-      </c>
-      <c r="D164" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="E164" s="13" t="s">
-        <v>517</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>4</v>
@@ -26464,13 +26606,13 @@
         <v>53</v>
       </c>
       <c r="C165" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="E165" s="13" t="s">
         <v>520</v>
-      </c>
-      <c r="D165" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="E165" s="13" t="s">
-        <v>521</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>32</v>
@@ -26479,7 +26621,7 @@
         <v>42740</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N165" s="8" t="s">
         <v>5</v>
@@ -26499,13 +26641,13 @@
         <v>152</v>
       </c>
       <c r="C166" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D166" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="D166" s="22" t="s">
+      <c r="E166" s="13" t="s">
         <v>523</v>
-      </c>
-      <c r="E166" s="13" t="s">
-        <v>524</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>59</v>
@@ -26531,13 +26673,13 @@
         <v>343</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D167" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="D167" s="22" t="s">
+      <c r="E167" s="13" t="s">
         <v>526</v>
-      </c>
-      <c r="E167" s="13" t="s">
-        <v>527</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>81</v>
@@ -26557,13 +26699,13 @@
         <v>139</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D168" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="D168" s="22" t="s">
-        <v>531</v>
-      </c>
       <c r="E168" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>81</v>
@@ -26572,7 +26714,7 @@
         <v>42741</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q168" s="8" t="s">
         <v>5</v>
@@ -26589,13 +26731,13 @@
         <v>279</v>
       </c>
       <c r="C169" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E169" s="13" t="s">
         <v>537</v>
-      </c>
-      <c r="D169" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="E169" s="13" t="s">
-        <v>538</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>81</v>
@@ -26624,13 +26766,13 @@
         <v>120</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D170" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="E170" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="E170" s="13" t="s">
-        <v>541</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>32</v>
@@ -26653,13 +26795,13 @@
         <v>62</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="E171" s="17" t="s">
         <v>543</v>
-      </c>
-      <c r="D171" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="E171" s="17" t="s">
-        <v>544</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>69</v>
@@ -26685,13 +26827,13 @@
         <v>63</v>
       </c>
       <c r="C172" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D172" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="D172" s="22" t="s">
+      <c r="E172" s="13" t="s">
         <v>546</v>
-      </c>
-      <c r="E172" s="13" t="s">
-        <v>547</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>32</v>
@@ -26717,13 +26859,13 @@
         <v>64</v>
       </c>
       <c r="C173" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D173" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="D173" s="22" t="s">
+      <c r="E173" s="12" t="s">
         <v>549</v>
-      </c>
-      <c r="E173" s="12" t="s">
-        <v>550</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>32</v>
@@ -26746,13 +26888,13 @@
         <v>264</v>
       </c>
       <c r="C174" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="E174" s="13" t="s">
         <v>551</v>
-      </c>
-      <c r="D174" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="E174" s="13" t="s">
-        <v>552</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>81</v>
@@ -26772,10 +26914,10 @@
         <v>47</v>
       </c>
       <c r="D175" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="E175" s="13" t="s">
         <v>554</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>555</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>32</v>
@@ -26816,13 +26958,13 @@
         <v>23</v>
       </c>
       <c r="C176" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="E176" s="13" t="s">
         <v>560</v>
-      </c>
-      <c r="D176" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="E176" s="13" t="s">
-        <v>561</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>32</v>
@@ -26831,7 +26973,7 @@
         <v>42742</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P176" s="8" t="s">
         <v>5</v>
@@ -26851,13 +26993,13 @@
         <v>95</v>
       </c>
       <c r="C177" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="E177" s="13" t="s">
         <v>563</v>
-      </c>
-      <c r="D177" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="E177" s="13" t="s">
-        <v>564</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>81</v>
@@ -26883,13 +27025,13 @@
         <v>376</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="E178" s="13" t="s">
         <v>567</v>
-      </c>
-      <c r="D178" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="E178" s="13" t="s">
-        <v>568</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>32</v>
@@ -26912,13 +27054,13 @@
         <v>204</v>
       </c>
       <c r="C179" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D179" s="22" t="s">
         <v>569</v>
       </c>
-      <c r="D179" s="22" t="s">
+      <c r="E179" s="13" t="s">
         <v>570</v>
-      </c>
-      <c r="E179" s="13" t="s">
-        <v>571</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>81</v>
@@ -26938,13 +27080,13 @@
         <v>461</v>
       </c>
       <c r="C180" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D180" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="E180" s="12" t="s">
         <v>575</v>
-      </c>
-      <c r="D180" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="E180" s="12" t="s">
-        <v>576</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>4</v>
@@ -26953,7 +27095,7 @@
         <v>42743</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="V180" s="8" t="s">
         <v>5</v>
@@ -26967,13 +27109,13 @@
         <v>477</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D181" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="E181" s="13" t="s">
         <v>632</v>
-      </c>
-      <c r="E181" s="13" t="s">
-        <v>633</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>81</v>
@@ -26982,7 +27124,7 @@
         <v>42743</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="182" spans="1:36" ht="72.5" x14ac:dyDescent="0.35">
@@ -26993,13 +27135,13 @@
         <v>342</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D182" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="E182" s="13" t="s">
         <v>579</v>
-      </c>
-      <c r="E182" s="13" t="s">
-        <v>580</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>81</v>
@@ -27019,13 +27161,13 @@
         <v>151</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>127</v>
@@ -27034,7 +27176,7 @@
         <v>42743</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q183" s="8" t="s">
         <v>5</v>
@@ -27048,13 +27190,13 @@
         <v>186</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>4</v>
@@ -27063,7 +27205,7 @@
         <v>42377</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K184" s="8" t="s">
         <v>5</v>
@@ -27077,13 +27219,13 @@
         <v>49</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="E185" s="13" t="s">
         <v>598</v>
-      </c>
-      <c r="D185" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="E185" s="13" t="s">
-        <v>599</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>32</v>
@@ -27092,7 +27234,7 @@
         <v>42377</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L185" s="8" t="s">
         <v>5</v>
@@ -27109,13 +27251,13 @@
         <v>382</v>
       </c>
       <c r="C186" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="E186" s="13" t="s">
         <v>606</v>
-      </c>
-      <c r="D186" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="E186" s="13" t="s">
-        <v>607</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>4</v>
@@ -27141,13 +27283,13 @@
         <v>398</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="E187" s="13" t="s">
         <v>608</v>
-      </c>
-      <c r="D187" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E187" s="13" t="s">
-        <v>609</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>4</v>
@@ -27156,7 +27298,7 @@
         <v>42743</v>
       </c>
       <c r="J187" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AH187" s="8" t="s">
         <v>5</v>
@@ -27173,13 +27315,13 @@
         <v>11</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D188" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="D188" s="22" t="s">
-        <v>613</v>
-      </c>
       <c r="E188" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>81</v>
@@ -27205,13 +27347,13 @@
         <v>42</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>81</v>
@@ -27220,7 +27362,7 @@
         <v>42744</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M189" s="8" t="s">
         <v>5</v>
@@ -27240,13 +27382,13 @@
         <v>80</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D190" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="E190" s="17" t="s">
         <v>619</v>
-      </c>
-      <c r="E190" s="17" t="s">
-        <v>620</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>127</v>
@@ -27255,7 +27397,7 @@
         <v>42745</v>
       </c>
       <c r="J190" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M190" s="8" t="s">
         <v>5</v>
@@ -27272,13 +27414,13 @@
         <v>81</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>220</v>
@@ -27287,7 +27429,7 @@
         <v>42745</v>
       </c>
       <c r="J191" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N191" s="8" t="s">
         <v>5</v>
@@ -27304,13 +27446,13 @@
         <v>33</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>32</v>
@@ -27319,7 +27461,7 @@
         <v>42745</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N192" s="8" t="s">
         <v>5</v>
@@ -27336,13 +27478,13 @@
         <v>54</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D193" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="D193" s="22" t="s">
+      <c r="E193" s="13" t="s">
         <v>630</v>
-      </c>
-      <c r="E193" s="13" t="s">
-        <v>631</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>69</v>
@@ -27351,7 +27493,7 @@
         <v>42745</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N193" s="8" t="s">
         <v>5</v>
@@ -27365,13 +27507,13 @@
         <v>59</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D194" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="D194" s="22" t="s">
+      <c r="E194" s="12" t="s">
         <v>635</v>
-      </c>
-      <c r="E194" s="12" t="s">
-        <v>636</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>32</v>
@@ -27391,13 +27533,13 @@
         <v>73</v>
       </c>
       <c r="C195" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D195" s="22" t="s">
         <v>637</v>
       </c>
-      <c r="D195" s="22" t="s">
+      <c r="E195" s="13" t="s">
         <v>638</v>
-      </c>
-      <c r="E195" s="13" t="s">
-        <v>639</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>32</v>
@@ -27406,7 +27548,7 @@
         <v>42745</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N195" s="8" t="s">
         <v>5</v>
@@ -27420,13 +27562,13 @@
         <v>289</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D196" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="E196" s="13" t="s">
         <v>650</v>
-      </c>
-      <c r="E196" s="13" t="s">
-        <v>651</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>81</v>
@@ -27435,7 +27577,7 @@
         <v>42746</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N196" s="8" t="s">
         <v>5</v>
@@ -27452,13 +27594,13 @@
         <v>228</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D197" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="E197" s="13" t="s">
         <v>656</v>
-      </c>
-      <c r="E197" s="13" t="s">
-        <v>657</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>69</v>
@@ -27481,13 +27623,13 @@
         <v>209</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D198" s="22" t="s">
         <v>658</v>
       </c>
-      <c r="D198" s="22" t="s">
+      <c r="E198" s="13" t="s">
         <v>659</v>
-      </c>
-      <c r="E198" s="13" t="s">
-        <v>660</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>220</v>
@@ -27496,7 +27638,7 @@
         <v>42746</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M198" s="8" t="s">
         <v>5</v>
@@ -27513,13 +27655,13 @@
         <v>448</v>
       </c>
       <c r="C199" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="E199" s="13" t="s">
         <v>664</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="E199" s="13" t="s">
-        <v>665</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>69</v>
@@ -27542,13 +27684,13 @@
         <v>455</v>
       </c>
       <c r="C200" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="E200" s="13" t="s">
         <v>666</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>668</v>
-      </c>
-      <c r="E200" s="13" t="s">
-        <v>667</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>59</v>
@@ -27571,13 +27713,13 @@
         <v>229</v>
       </c>
       <c r="C201" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D201" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="D201" s="22" t="s">
-        <v>670</v>
-      </c>
       <c r="E201" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>303</v>
@@ -27586,7 +27728,7 @@
         <v>42747</v>
       </c>
       <c r="J201" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N201" s="8" t="s">
         <v>5</v>
@@ -27600,13 +27742,13 @@
         <v>147</v>
       </c>
       <c r="C202" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="E202" s="13" t="s">
         <v>671</v>
-      </c>
-      <c r="D202" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="E202" s="13" t="s">
-        <v>672</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>32</v>
@@ -27623,19 +27765,19 @@
         <v>148</v>
       </c>
       <c r="C203" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D203" s="22" t="s">
         <v>674</v>
       </c>
-      <c r="D203" s="22" t="s">
-        <v>675</v>
-      </c>
       <c r="E203" s="13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="P203" s="8" t="s">
         <v>5</v>
@@ -27652,13 +27794,13 @@
         <v>328</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D204" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="D204" s="22" t="s">
+      <c r="E204" s="13" t="s">
         <v>680</v>
-      </c>
-      <c r="E204" s="13" t="s">
-        <v>681</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>32</v>
@@ -27678,13 +27820,13 @@
         <v>143</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D205" s="22" t="s">
         <v>682</v>
       </c>
-      <c r="D205" s="22" t="s">
-        <v>683</v>
-      </c>
       <c r="E205" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>4</v>
@@ -27701,13 +27843,13 @@
         <v>369</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D206" s="22" t="s">
         <v>684</v>
       </c>
-      <c r="D206" s="22" t="s">
+      <c r="E206" s="13" t="s">
         <v>685</v>
-      </c>
-      <c r="E206" s="13" t="s">
-        <v>686</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>32</v>
@@ -27733,13 +27875,13 @@
         <v>400</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D207" s="22" t="s">
         <v>687</v>
       </c>
-      <c r="D207" s="22" t="s">
+      <c r="E207" s="17" t="s">
         <v>688</v>
-      </c>
-      <c r="E207" s="17" t="s">
-        <v>689</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>69</v>
@@ -27765,13 +27907,13 @@
         <v>384</v>
       </c>
       <c r="C208" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="E208" s="12" t="s">
         <v>692</v>
-      </c>
-      <c r="D208" s="22" t="s">
-        <v>691</v>
-      </c>
-      <c r="E208" s="12" t="s">
-        <v>693</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>59</v>
@@ -27783,7 +27925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:34" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:35" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A209" s="8" t="s">
         <v>250</v>
       </c>
@@ -27791,13 +27933,13 @@
         <v>173</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="E209" s="13" t="s">
         <v>695</v>
-      </c>
-      <c r="D209" s="22" t="s">
-        <v>697</v>
-      </c>
-      <c r="E209" s="13" t="s">
-        <v>696</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>81</v>
@@ -27806,7 +27948,7 @@
         <v>42748</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="S209" s="8" t="s">
         <v>5</v>
@@ -27821,7 +27963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:34" ht="232" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:35" ht="232" x14ac:dyDescent="0.35">
       <c r="A210" s="8" t="s">
         <v>46</v>
       </c>
@@ -27829,13 +27971,13 @@
         <v>284</v>
       </c>
       <c r="C210" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="E210" s="13" t="s">
         <v>701</v>
-      </c>
-      <c r="D210" s="22" t="s">
-        <v>702</v>
-      </c>
-      <c r="E210" s="13" t="s">
-        <v>703</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>81</v>
@@ -27844,13 +27986,13 @@
         <v>42748</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AH210" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:34" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:35" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A211" s="8" t="s">
         <v>250</v>
       </c>
@@ -27858,13 +28000,13 @@
         <v>377</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>81</v>
@@ -27873,13 +28015,13 @@
         <v>42749</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AE211" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:34" ht="290" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:35" ht="290" x14ac:dyDescent="0.35">
       <c r="A212" s="8" t="s">
         <v>46</v>
       </c>
@@ -27887,13 +28029,13 @@
         <v>31</v>
       </c>
       <c r="C212" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D212" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="D212" s="22" t="s">
-        <v>713</v>
-      </c>
       <c r="E212" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>69</v>
@@ -27911,7 +28053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:34" ht="87" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:35" ht="87" x14ac:dyDescent="0.35">
       <c r="A213" s="8" t="s">
         <v>46</v>
       </c>
@@ -27919,13 +28061,13 @@
         <v>386</v>
       </c>
       <c r="C213" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="E213" s="13" t="s">
         <v>714</v>
-      </c>
-      <c r="D213" s="22" t="s">
-        <v>715</v>
-      </c>
-      <c r="E213" s="13" t="s">
-        <v>716</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>81</v>
@@ -27946,7 +28088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:34" ht="174" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:35" ht="174" x14ac:dyDescent="0.35">
       <c r="A214" s="8" t="s">
         <v>46</v>
       </c>
@@ -27954,13 +28096,13 @@
         <v>129</v>
       </c>
       <c r="C214" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D214" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="E214" s="13" t="s">
         <v>717</v>
-      </c>
-      <c r="D214" s="22" t="s">
-        <v>718</v>
-      </c>
-      <c r="E214" s="13" t="s">
-        <v>719</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>32</v>
@@ -27975,7 +28117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:34" ht="174" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:35" ht="174" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
         <v>46</v>
       </c>
@@ -27983,13 +28125,13 @@
         <v>199</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D215" s="22" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>32</v>
@@ -28007,7 +28149,170 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:34" ht="174" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:35" ht="232" x14ac:dyDescent="0.35">
+      <c r="A216" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B216" s="2">
+        <v>116</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="E216" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G216" s="28">
+        <v>42753</v>
+      </c>
+      <c r="J216"/>
+      <c r="K216"/>
+      <c r="L216"/>
+      <c r="M216"/>
+      <c r="N216"/>
+      <c r="O216"/>
+      <c r="P216" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q216"/>
+      <c r="R216"/>
+      <c r="S216"/>
+      <c r="T216"/>
+      <c r="U216"/>
+      <c r="V216"/>
+      <c r="W216"/>
+      <c r="X216"/>
+      <c r="Y216"/>
+      <c r="Z216"/>
+      <c r="AA216"/>
+      <c r="AB216" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC216"/>
+      <c r="AD216"/>
+      <c r="AE216"/>
+      <c r="AF216"/>
+      <c r="AG216"/>
+      <c r="AH216"/>
+      <c r="AI216"/>
+    </row>
+    <row r="217" spans="1:35" ht="303.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B217" s="8">
+        <v>105</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="E217" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G217" s="9">
+        <v>42753</v>
+      </c>
+      <c r="L217" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N217" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S217" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB217" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:35" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A218" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B218" s="8">
+        <v>103</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D218" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G218" s="9">
+        <v>42753</v>
+      </c>
+      <c r="S218" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB218" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC218" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:35" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A219" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B219" s="8">
+        <v>117</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D219" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="E219" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G219" s="9">
+        <v>42754</v>
+      </c>
+      <c r="S219" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC219" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:35" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A220" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B220" s="8">
+        <v>236</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G220" s="9">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="223" spans="1:35" ht="174" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>30</v>
       </c>
@@ -28015,10 +28320,10 @@
         <v>405</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D223" s="22" t="s">
         <v>413</v>
-      </c>
-      <c r="D223" s="22" t="s">
-        <v>414</v>
       </c>
       <c r="F223" s="22"/>
     </row>
@@ -28031,10 +28336,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH216"/>
+  <dimension ref="A1:AI220"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217"/>
+    <sheetView topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28043,6 +28348,7 @@
     <col min="3" max="3" width="26.90625" customWidth="1"/>
     <col min="4" max="4" width="80.6328125" customWidth="1"/>
     <col min="5" max="5" width="60.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="43.5" x14ac:dyDescent="0.35">
@@ -28125,7 +28431,7 @@
         <v>71</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>105</v>
@@ -28140,13 +28446,13 @@
         <v>253</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AH1" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
@@ -33145,7 +33451,7 @@
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="13" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>4</v>
@@ -34621,7 +34927,7 @@
         <v>357</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D124" s="22" t="s">
         <v>368</v>
@@ -34677,13 +34983,13 @@
         <v>346</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D125" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E125" s="13" t="s">
         <v>374</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>375</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>32</v>
@@ -34735,13 +35041,13 @@
         <v>288</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>303</v>
@@ -34793,13 +35099,13 @@
         <v>392</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="E127" s="13" t="s">
         <v>379</v>
-      </c>
-      <c r="D127" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>380</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>69</v>
@@ -34808,7 +35114,7 @@
         <v>42724</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
@@ -34847,13 +35153,13 @@
         <v>153</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="E128" s="13" t="s">
         <v>382</v>
-      </c>
-      <c r="D128" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>383</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>32</v>
@@ -34862,7 +35168,7 @@
         <v>42724</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -34903,13 +35209,13 @@
         <v>274</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D129" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="E129" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>388</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>59</v>
@@ -34918,7 +35224,7 @@
         <v>42724</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -34959,13 +35265,13 @@
         <v>275</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D130" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="D130" s="22" t="s">
-        <v>390</v>
-      </c>
       <c r="E130" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>69</v>
@@ -35015,13 +35321,13 @@
         <v>475</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D131" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="E131" s="13" t="s">
         <v>394</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>395</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>81</v>
@@ -35071,10 +35377,10 @@
         <v>50</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D132" s="22" t="s">
         <v>398</v>
-      </c>
-      <c r="D132" s="22" t="s">
-        <v>399</v>
       </c>
       <c r="E132" s="13"/>
       <c r="F132" s="2" t="s">
@@ -35084,7 +35390,7 @@
         <v>42725</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
@@ -35123,13 +35429,13 @@
         <v>242</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="E133" s="13" t="s">
         <v>400</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>401</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>69</v>
@@ -35138,7 +35444,7 @@
         <v>42725</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2" t="s">
@@ -35179,13 +35485,13 @@
         <v>438</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D134" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="D134" s="22" t="s">
-        <v>405</v>
-      </c>
       <c r="E134" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>314</v>
@@ -35233,13 +35539,13 @@
         <v>292</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>81</v>
@@ -35248,7 +35554,7 @@
         <v>42726</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
@@ -35289,13 +35595,13 @@
         <v>409</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="E136" s="13" t="s">
         <v>410</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>411</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>59</v>
@@ -35343,13 +35649,13 @@
         <v>401</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="E137" s="13" t="s">
         <v>415</v>
-      </c>
-      <c r="D137" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>416</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>127</v>
@@ -35397,10 +35703,10 @@
         <v>293</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D138" s="22" t="s">
         <v>418</v>
-      </c>
-      <c r="D138" s="22" t="s">
-        <v>419</v>
       </c>
       <c r="E138" s="13"/>
       <c r="F138" s="2" t="s">
@@ -35449,13 +35755,13 @@
         <v>294</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D139" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="D139" s="22" t="s">
+      <c r="E139" s="13" t="s">
         <v>421</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>422</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>81</v>
@@ -35503,13 +35809,13 @@
         <v>464</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E140" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>81</v>
@@ -35560,16 +35866,16 @@
         <v>46</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>81</v>
@@ -35617,10 +35923,10 @@
         <v>412</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D142" s="22" t="s">
         <v>439</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>440</v>
       </c>
       <c r="E142" s="13"/>
       <c r="F142" s="2" t="s">
@@ -35665,13 +35971,13 @@
         <v>415</v>
       </c>
       <c r="C143" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D143" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="E143" s="13" t="s">
         <v>443</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>444</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>32</v>
@@ -35680,7 +35986,7 @@
         <v>42728</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
@@ -35717,16 +36023,16 @@
         <v>437</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="E144" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="D144" s="22" t="s">
-        <v>558</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>449</v>
-      </c>
       <c r="F144" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G144" s="5">
         <v>42728</v>
@@ -35777,13 +36083,13 @@
         <v>300</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="E145" s="13" t="s">
         <v>450</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E145" s="13" t="s">
-        <v>451</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>81</v>
@@ -35792,7 +36098,7 @@
         <v>42731</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
@@ -35835,13 +36141,13 @@
         <v>354</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>81</v>
@@ -35893,13 +36199,13 @@
         <v>406</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>81</v>
@@ -35947,13 +36253,13 @@
         <v>434</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="E148" s="13" t="s">
         <v>460</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>461</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>69</v>
@@ -35999,13 +36305,13 @@
         <v>15</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D149" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="D149" s="22" t="s">
+      <c r="E149" s="13" t="s">
         <v>465</v>
-      </c>
-      <c r="E149" s="13" t="s">
-        <v>466</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>69</v>
@@ -36014,7 +36320,7 @@
         <v>42732</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
@@ -36051,16 +36357,16 @@
         <v>18</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="E150" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="G150" s="5">
         <v>42733</v>
@@ -36103,13 +36409,13 @@
         <v>16</v>
       </c>
       <c r="C151" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D151" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="D151" s="22" t="s">
+      <c r="E151" s="13" t="s">
         <v>473</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>474</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>69</v>
@@ -36159,13 +36465,13 @@
         <v>259</v>
       </c>
       <c r="C152" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D152" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="D152" s="22" t="s">
+      <c r="E152" s="13" t="s">
         <v>476</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>477</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>4</v>
@@ -36219,13 +36525,13 @@
         <v>454</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D153" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="E153" s="13" t="s">
         <v>481</v>
-      </c>
-      <c r="E153" s="13" t="s">
-        <v>482</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>81</v>
@@ -36271,13 +36577,13 @@
         <v>453</v>
       </c>
       <c r="C154" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D154" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="E154" s="13" t="s">
         <v>484</v>
-      </c>
-      <c r="E154" s="13" t="s">
-        <v>485</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>59</v>
@@ -36286,7 +36592,7 @@
         <v>42734</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -36325,13 +36631,13 @@
         <v>462</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D155" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="D155" s="22" t="s">
-        <v>488</v>
-      </c>
       <c r="E155" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>69</v>
@@ -36377,10 +36683,10 @@
         <v>86</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E156" s="13"/>
       <c r="F156" s="2" t="s">
@@ -36429,10 +36735,10 @@
         <v>142</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E157" s="13"/>
       <c r="F157" s="2" t="s">
@@ -36485,13 +36791,13 @@
         <v>109</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D158" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="D158" s="22" t="s">
-        <v>493</v>
-      </c>
       <c r="E158" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>59</v>
@@ -36500,7 +36806,7 @@
         <v>42736</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
@@ -36543,13 +36849,13 @@
         <v>108</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D159" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="D159" s="22" t="s">
-        <v>497</v>
-      </c>
       <c r="E159" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>32</v>
@@ -36558,7 +36864,7 @@
         <v>42736</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
@@ -36599,13 +36905,13 @@
         <v>82</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D160" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="D160" s="22" t="s">
-        <v>502</v>
-      </c>
       <c r="E160" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>69</v>
@@ -36649,13 +36955,13 @@
         <v>2</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D161" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="E161" s="13" t="s">
         <v>505</v>
-      </c>
-      <c r="E161" s="13" t="s">
-        <v>506</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>59</v>
@@ -36664,7 +36970,7 @@
         <v>42736</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -36703,13 +37009,13 @@
         <v>445</v>
       </c>
       <c r="C162" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D162" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="D162" s="22" t="s">
-        <v>508</v>
-      </c>
       <c r="E162" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>81</v>
@@ -36718,7 +37024,7 @@
         <v>42736</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
@@ -36761,13 +37067,13 @@
         <v>43</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D163" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="D163" s="22" t="s">
-        <v>512</v>
-      </c>
       <c r="E163" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>4</v>
@@ -36776,7 +37082,7 @@
         <v>42737</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
@@ -36817,13 +37123,13 @@
         <v>418</v>
       </c>
       <c r="C164" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="E164" s="13" t="s">
         <v>516</v>
-      </c>
-      <c r="D164" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="E164" s="13" t="s">
-        <v>517</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>4</v>
@@ -36871,13 +37177,13 @@
         <v>53</v>
       </c>
       <c r="C165" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="E165" s="13" t="s">
         <v>520</v>
-      </c>
-      <c r="D165" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="E165" s="13" t="s">
-        <v>521</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>32</v>
@@ -36886,7 +37192,7 @@
         <v>42740</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -36929,13 +37235,13 @@
         <v>152</v>
       </c>
       <c r="C166" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D166" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="D166" s="22" t="s">
+      <c r="E166" s="13" t="s">
         <v>523</v>
-      </c>
-      <c r="E166" s="13" t="s">
-        <v>524</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>59</v>
@@ -36985,13 +37291,13 @@
         <v>343</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D167" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="D167" s="22" t="s">
+      <c r="E167" s="13" t="s">
         <v>526</v>
-      </c>
-      <c r="E167" s="13" t="s">
-        <v>527</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>81</v>
@@ -37037,13 +37343,13 @@
         <v>139</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D168" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="D168" s="22" t="s">
-        <v>531</v>
-      </c>
       <c r="E168" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>81</v>
@@ -37052,7 +37358,7 @@
         <v>42741</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -37093,13 +37399,13 @@
         <v>279</v>
       </c>
       <c r="C169" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E169" s="13" t="s">
         <v>537</v>
-      </c>
-      <c r="D169" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="E169" s="13" t="s">
-        <v>538</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>81</v>
@@ -37151,13 +37457,13 @@
         <v>120</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D170" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="E170" s="13" t="s">
         <v>540</v>
-      </c>
-      <c r="E170" s="13" t="s">
-        <v>541</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>32</v>
@@ -37205,13 +37511,13 @@
         <v>62</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="E171" s="17" t="s">
         <v>543</v>
-      </c>
-      <c r="D171" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="E171" s="17" t="s">
-        <v>544</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>69</v>
@@ -37261,13 +37567,13 @@
         <v>63</v>
       </c>
       <c r="C172" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D172" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="D172" s="22" t="s">
+      <c r="E172" s="13" t="s">
         <v>546</v>
-      </c>
-      <c r="E172" s="13" t="s">
-        <v>547</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>32</v>
@@ -37317,13 +37623,13 @@
         <v>64</v>
       </c>
       <c r="C173" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D173" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="D173" s="22" t="s">
+      <c r="E173" s="13" t="s">
         <v>549</v>
-      </c>
-      <c r="E173" s="13" t="s">
-        <v>550</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>32</v>
@@ -37371,13 +37677,13 @@
         <v>264</v>
       </c>
       <c r="C174" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="E174" s="13" t="s">
         <v>551</v>
-      </c>
-      <c r="D174" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="E174" s="13" t="s">
-        <v>552</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>81</v>
@@ -37424,10 +37730,10 @@
         <v>47</v>
       </c>
       <c r="D175" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="E175" s="13" t="s">
         <v>554</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>555</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>32</v>
@@ -37473,13 +37779,13 @@
         <v>23</v>
       </c>
       <c r="C176" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="E176" s="13" t="s">
         <v>560</v>
-      </c>
-      <c r="D176" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="E176" s="13" t="s">
-        <v>561</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>32</v>
@@ -37488,7 +37794,7 @@
         <v>42742</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
@@ -37531,13 +37837,13 @@
         <v>95</v>
       </c>
       <c r="C177" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="E177" s="13" t="s">
         <v>563</v>
-      </c>
-      <c r="D177" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="E177" s="13" t="s">
-        <v>564</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>81</v>
@@ -37587,13 +37893,13 @@
         <v>376</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="E178" s="13" t="s">
         <v>567</v>
-      </c>
-      <c r="D178" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="E178" s="13" t="s">
-        <v>568</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>32</v>
@@ -37641,13 +37947,13 @@
         <v>204</v>
       </c>
       <c r="C179" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D179" s="22" t="s">
         <v>569</v>
       </c>
-      <c r="D179" s="22" t="s">
+      <c r="E179" s="13" t="s">
         <v>570</v>
-      </c>
-      <c r="E179" s="13" t="s">
-        <v>571</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>81</v>
@@ -37693,13 +37999,13 @@
         <v>461</v>
       </c>
       <c r="C180" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D180" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="E180" s="13" t="s">
         <v>575</v>
-      </c>
-      <c r="D180" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="E180" s="13" t="s">
-        <v>576</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>4</v>
@@ -37708,7 +38014,7 @@
         <v>42743</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
@@ -37747,13 +38053,13 @@
         <v>477</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D181" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="E181" s="13" t="s">
         <v>632</v>
-      </c>
-      <c r="E181" s="13" t="s">
-        <v>633</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>81</v>
@@ -37762,7 +38068,7 @@
         <v>42743</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
@@ -37799,13 +38105,13 @@
         <v>342</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D182" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="E182" s="13" t="s">
         <v>579</v>
-      </c>
-      <c r="E182" s="13" t="s">
-        <v>580</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>81</v>
@@ -37851,13 +38157,13 @@
         <v>151</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>127</v>
@@ -37866,7 +38172,7 @@
         <v>42743</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
@@ -37905,13 +38211,13 @@
         <v>186</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>4</v>
@@ -37920,7 +38226,7 @@
         <v>42377</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>5</v>
@@ -37959,13 +38265,13 @@
         <v>49</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="E185" s="13" t="s">
         <v>598</v>
-      </c>
-      <c r="D185" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="E185" s="13" t="s">
-        <v>599</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>32</v>
@@ -37974,7 +38280,7 @@
         <v>42377</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I185" s="2"/>
       <c r="J185" s="2" t="s">
@@ -38015,13 +38321,13 @@
         <v>382</v>
       </c>
       <c r="C186" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="E186" s="13" t="s">
         <v>606</v>
-      </c>
-      <c r="D186" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="E186" s="13" t="s">
-        <v>607</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>4</v>
@@ -38071,13 +38377,13 @@
         <v>398</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="E187" s="13" t="s">
         <v>608</v>
-      </c>
-      <c r="D187" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E187" s="13" t="s">
-        <v>609</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>4</v>
@@ -38086,7 +38392,7 @@
         <v>42743</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
@@ -38127,13 +38433,13 @@
         <v>11</v>
       </c>
       <c r="C188" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D188" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="D188" s="22" t="s">
-        <v>613</v>
-      </c>
       <c r="E188" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>81</v>
@@ -38183,13 +38489,13 @@
         <v>42</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E189" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>81</v>
@@ -38198,7 +38504,7 @@
         <v>42744</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
@@ -38241,13 +38547,13 @@
         <v>80</v>
       </c>
       <c r="C190" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D190" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="E190" s="17" t="s">
         <v>619</v>
-      </c>
-      <c r="E190" s="17" t="s">
-        <v>620</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>127</v>
@@ -38256,7 +38562,7 @@
         <v>42745</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
@@ -38297,13 +38603,13 @@
         <v>81</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>220</v>
@@ -38312,7 +38618,7 @@
         <v>42745</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
@@ -38353,13 +38659,13 @@
         <v>33</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>32</v>
@@ -38368,7 +38674,7 @@
         <v>42745</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
@@ -38409,13 +38715,13 @@
         <v>54</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D193" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="D193" s="22" t="s">
+      <c r="E193" s="13" t="s">
         <v>630</v>
-      </c>
-      <c r="E193" s="13" t="s">
-        <v>631</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>69</v>
@@ -38424,7 +38730,7 @@
         <v>42745</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
@@ -38463,13 +38769,13 @@
         <v>59</v>
       </c>
       <c r="C194" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D194" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="D194" s="22" t="s">
+      <c r="E194" s="13" t="s">
         <v>635</v>
-      </c>
-      <c r="E194" s="13" t="s">
-        <v>636</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>32</v>
@@ -38515,13 +38821,13 @@
         <v>73</v>
       </c>
       <c r="C195" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D195" s="22" t="s">
         <v>637</v>
       </c>
-      <c r="D195" s="22" t="s">
+      <c r="E195" s="13" t="s">
         <v>638</v>
-      </c>
-      <c r="E195" s="13" t="s">
-        <v>639</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>32</v>
@@ -38530,7 +38836,7 @@
         <v>42745</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
@@ -38569,13 +38875,13 @@
         <v>289</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D196" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="E196" s="13" t="s">
         <v>650</v>
-      </c>
-      <c r="E196" s="13" t="s">
-        <v>651</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>81</v>
@@ -38584,7 +38890,7 @@
         <v>42746</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
@@ -38625,13 +38931,13 @@
         <v>228</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D197" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="E197" s="13" t="s">
         <v>656</v>
-      </c>
-      <c r="E197" s="13" t="s">
-        <v>657</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>69</v>
@@ -38679,13 +38985,13 @@
         <v>209</v>
       </c>
       <c r="C198" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D198" s="22" t="s">
         <v>658</v>
       </c>
-      <c r="D198" s="22" t="s">
+      <c r="E198" s="13" t="s">
         <v>659</v>
-      </c>
-      <c r="E198" s="13" t="s">
-        <v>660</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>220</v>
@@ -38694,7 +39000,7 @@
         <v>42746</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
@@ -38735,13 +39041,13 @@
         <v>448</v>
       </c>
       <c r="C199" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="E199" s="13" t="s">
         <v>664</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="E199" s="13" t="s">
-        <v>665</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>69</v>
@@ -38789,13 +39095,13 @@
         <v>455</v>
       </c>
       <c r="C200" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="E200" s="13" t="s">
         <v>666</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>668</v>
-      </c>
-      <c r="E200" s="13" t="s">
-        <v>667</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>59</v>
@@ -38843,13 +39149,13 @@
         <v>229</v>
       </c>
       <c r="C201" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D201" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="D201" s="22" t="s">
-        <v>670</v>
-      </c>
       <c r="E201" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>303</v>
@@ -38858,7 +39164,7 @@
         <v>42747</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
@@ -38897,13 +39203,13 @@
         <v>147</v>
       </c>
       <c r="C202" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="E202" s="13" t="s">
         <v>671</v>
-      </c>
-      <c r="D202" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="E202" s="13" t="s">
-        <v>672</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>32</v>
@@ -38947,19 +39253,19 @@
         <v>148</v>
       </c>
       <c r="C203" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D203" s="22" t="s">
         <v>674</v>
       </c>
-      <c r="D203" s="22" t="s">
-        <v>675</v>
-      </c>
       <c r="E203" s="13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
@@ -39001,13 +39307,13 @@
         <v>328</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D204" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="D204" s="22" t="s">
+      <c r="E204" s="13" t="s">
         <v>680</v>
-      </c>
-      <c r="E204" s="13" t="s">
-        <v>681</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>32</v>
@@ -39053,13 +39359,13 @@
         <v>143</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D205" s="22" t="s">
         <v>682</v>
       </c>
-      <c r="D205" s="22" t="s">
-        <v>683</v>
-      </c>
       <c r="E205" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>4</v>
@@ -39103,13 +39409,13 @@
         <v>369</v>
       </c>
       <c r="C206" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D206" s="22" t="s">
         <v>684</v>
       </c>
-      <c r="D206" s="22" t="s">
+      <c r="E206" s="13" t="s">
         <v>685</v>
-      </c>
-      <c r="E206" s="13" t="s">
-        <v>686</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>32</v>
@@ -39159,13 +39465,13 @@
         <v>400</v>
       </c>
       <c r="C207" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D207" s="22" t="s">
         <v>687</v>
       </c>
-      <c r="D207" s="22" t="s">
+      <c r="E207" s="17" t="s">
         <v>688</v>
-      </c>
-      <c r="E207" s="17" t="s">
-        <v>689</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>69</v>
@@ -39215,13 +39521,13 @@
         <v>384</v>
       </c>
       <c r="C208" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="E208" s="13" t="s">
         <v>692</v>
-      </c>
-      <c r="D208" s="22" t="s">
-        <v>691</v>
-      </c>
-      <c r="E208" s="13" t="s">
-        <v>693</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>59</v>
@@ -39259,7 +39565,7 @@
       <c r="AG208" s="2"/>
       <c r="AH208" s="6"/>
     </row>
-    <row r="209" spans="1:34" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:35" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>250</v>
       </c>
@@ -39267,13 +39573,13 @@
         <v>173</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="E209" s="13" t="s">
         <v>695</v>
-      </c>
-      <c r="D209" s="22" t="s">
-        <v>697</v>
-      </c>
-      <c r="E209" s="13" t="s">
-        <v>696</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>81</v>
@@ -39282,7 +39588,7 @@
         <v>42748</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
@@ -39319,7 +39625,7 @@
       <c r="AG209" s="2"/>
       <c r="AH209" s="6"/>
     </row>
-    <row r="210" spans="1:34" ht="174" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:35" ht="174" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>46</v>
       </c>
@@ -39327,13 +39633,13 @@
         <v>284</v>
       </c>
       <c r="C210" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="E210" s="13" t="s">
         <v>701</v>
-      </c>
-      <c r="D210" s="22" t="s">
-        <v>702</v>
-      </c>
-      <c r="E210" s="13" t="s">
-        <v>703</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>81</v>
@@ -39342,7 +39648,7 @@
         <v>42748</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
@@ -39373,7 +39679,7 @@
       <c r="AG210" s="2"/>
       <c r="AH210" s="6"/>
     </row>
-    <row r="211" spans="1:34" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:35" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>250</v>
       </c>
@@ -39381,13 +39687,13 @@
         <v>377</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>81</v>
@@ -39396,7 +39702,7 @@
         <v>42749</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
@@ -39427,7 +39733,7 @@
       <c r="AG211" s="2"/>
       <c r="AH211" s="6"/>
     </row>
-    <row r="212" spans="1:34" ht="290" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:35" ht="290" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>46</v>
       </c>
@@ -39435,13 +39741,13 @@
         <v>31</v>
       </c>
       <c r="C212" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D212" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="D212" s="22" t="s">
-        <v>713</v>
-      </c>
       <c r="E212" s="13" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>69</v>
@@ -39481,7 +39787,7 @@
       <c r="AG212" s="2"/>
       <c r="AH212" s="6"/>
     </row>
-    <row r="213" spans="1:34" ht="87" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:35" ht="87" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>46</v>
       </c>
@@ -39489,13 +39795,13 @@
         <v>386</v>
       </c>
       <c r="C213" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="E213" s="13" t="s">
         <v>714</v>
-      </c>
-      <c r="D213" s="22" t="s">
-        <v>715</v>
-      </c>
-      <c r="E213" s="13" t="s">
-        <v>716</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>81</v>
@@ -39537,7 +39843,7 @@
       <c r="AG213" s="2"/>
       <c r="AH213" s="6"/>
     </row>
-    <row r="214" spans="1:34" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:35" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>46</v>
       </c>
@@ -39545,13 +39851,13 @@
         <v>129</v>
       </c>
       <c r="C214" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D214" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="E214" s="13" t="s">
         <v>717</v>
-      </c>
-      <c r="D214" s="22" t="s">
-        <v>718</v>
-      </c>
-      <c r="E214" s="13" t="s">
-        <v>719</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>32</v>
@@ -39591,7 +39897,7 @@
       <c r="AG214" s="2"/>
       <c r="AH214" s="6"/>
     </row>
-    <row r="215" spans="1:34" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:35" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>46</v>
       </c>
@@ -39599,11 +39905,11 @@
         <v>114</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D215" s="22"/>
       <c r="E215" s="13" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>32</v>
@@ -39639,7 +39945,7 @@
       <c r="AG215" s="2"/>
       <c r="AH215" s="6"/>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>46</v>
       </c>
@@ -39647,7 +39953,97 @@
         <v>199</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G216" s="28">
+        <v>42752</v>
+      </c>
+    </row>
+    <row r="217" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+      <c r="A217" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B217" s="2">
+        <v>116</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G217" s="28">
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="218" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+      <c r="A218" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B218" s="8">
+        <v>103</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D218" s="22"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G218" s="9">
+        <v>42753</v>
+      </c>
+      <c r="J218" s="8"/>
+      <c r="K218" s="8"/>
+      <c r="L218" s="8"/>
+      <c r="M218" s="8"/>
+      <c r="N218" s="8"/>
+      <c r="O218" s="8"/>
+      <c r="P218" s="8"/>
+      <c r="Q218" s="8"/>
+      <c r="R218" s="8"/>
+      <c r="S218" s="8"/>
+      <c r="T218" s="8"/>
+      <c r="U218" s="8"/>
+      <c r="V218" s="8"/>
+      <c r="W218" s="8"/>
+      <c r="X218" s="8"/>
+      <c r="Y218" s="8"/>
+      <c r="Z218" s="8"/>
+      <c r="AA218" s="8"/>
+      <c r="AB218" s="8"/>
+      <c r="AC218" s="8"/>
+      <c r="AD218" s="8"/>
+      <c r="AE218" s="8"/>
+      <c r="AF218" s="8"/>
+      <c r="AG218" s="8"/>
+      <c r="AH218" s="8"/>
+      <c r="AI218" s="8"/>
+    </row>
+    <row r="219" spans="1:35" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A219" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B219" s="8">
+        <v>105</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G219" s="28">
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="220" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A220" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -39687,7 +40083,7 @@
         <v>311</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="58" x14ac:dyDescent="0.35">
@@ -39713,10 +40109,10 @@
         <v>256</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="145" x14ac:dyDescent="0.35">
@@ -39738,10 +40134,10 @@
         <v>313</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
@@ -39749,29 +40145,33 @@
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>731</v>
+      <c r="C11" s="8" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39779,7 +40179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -39817,7 +40217,7 @@
         <v>322</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -39830,7 +40230,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>16</v>
@@ -39838,18 +40238,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B8" t="s">
         <v>534</v>
-      </c>
-      <c r="B8" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -39876,82 +40276,82 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -39971,10 +40371,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B1" t="s">
         <v>661</v>
-      </c>
-      <c r="B1" t="s">
-        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -39998,10 +40398,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
@@ -40009,39 +40409,39 @@
         <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B3" t="s">
         <v>586</v>
-      </c>
-      <c r="B3" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>652</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="762">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -4900,6 +4900,107 @@
   <si>
     <t>Follow up for 116, what if the tree is not perfect?
 Another way is base on level order traversal</t>
+  </si>
+  <si>
+    <t>Given a binary tree, find the lowest common ancestor (LCA) of two given nodes in the tree.
+According to the definition of LCA on Wikipedia: “The lowest common ancestor is defined between two nodes v and w as the lowest node in T that has both v and w as descendants (where we allow a node to be a descendant of itself).”
+          ___3__
+       /              \
+    _5_            _1_
+   /      \        /       \
+   6      2       0       8
+          /  \
+         7   4
+For example, the lowest common ancestor (LCA) of nodes 5 and 1 is 3. Another example is LCA of nodes 5 and 4 is 5, since a node can be a descendant of itself according to the LCA definition.</t>
+  </si>
+  <si>
+    <t>Corner case:
+[-1,0,3,-2,4,null,null,8]
+node with value 8
+node with value 0
+DONT RETURN AFTER CURR == TARGET NODE, WON'T GO DOWN ANYMORE!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given inorder and postorder traversal of a tree, construct the binary tree.
+You may assume that duplicates do not exist in the tree.
+</t>
+  </si>
+  <si>
+    <t>注意下一个的inEnd是inorder的idx，不是postorder 的idx</t>
+  </si>
+  <si>
+    <t>House Robber III</t>
+  </si>
+  <si>
+    <t>The thief has found himself a new place for his thievery again. There is only one entrance to this area, called the "root." Besides the root, each house has one and only one parent house. After a tour, the smart thief realized that "all houses in this place forms a binary tree". It will automatically contact the police if two directly-linked houses were broken into on the same night.
+Determine the maximum amount of money the thief can rob tonight without alerting the police.</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">two conditions for dynamic programming: "optimal substructure" + "overlapping of subproblems", we actually have a DP problem. A naive way to implement DP here is to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">use a hash map to record the results for visited TreeNode.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者把dfs的返回结果改成int[], int两格，一格存rob this one一格存not rob。可以减少一半的递归</t>
+    </r>
+  </si>
+  <si>
+    <t>Count Complete Tree Nodes</t>
+  </si>
+  <si>
+    <t>Given a complete binary tree, count the number of nodes.
+In a complete binary tree every level, except possibly the last, is completely filled, and all nodes in the last level are as far left as possible. It can have between 1 and 2h nodes inclusive at the last level h.</t>
+  </si>
+  <si>
+    <t>递归：
+根本做法，比较最左深度和最右深度，等就返回数字，不等则…以左右儿子递归！</t>
+  </si>
+  <si>
+    <t>Count Univalue Subtrees</t>
+  </si>
+  <si>
+    <t>Given a binary tree, count the number of uni-value subtrees.
+A Uni-value subtree means all nodes of the subtree have the same value.
+For example:
+Given binary tree,
+              5
+             / \
+            1   5
+           / \   \
+          5   5   5
+return 4.
+A single node is considered a subtree</t>
+  </si>
+  <si>
+    <t>Corner case: [5,1,5,5,5,null,5]
+[7,82,82,-79,98,98,-79,-79,null,-28,-24,-28,-24,null,-79,null,97,65,-4,null,3,-4,65,3,null,97]
+用递归，返回类型boolean,即是否子值等于root值
+注意是比较左右子树返回的boolean用&amp;不是&amp;&amp;
+注意返回true的条件比false苛刻，需要所有子树都是这个值才返回true</t>
   </si>
 </sst>
 </file>
@@ -9787,6 +9888,67 @@
         <a:xfrm>
           <a:off x="5780349" y="343476079"/>
           <a:ext cx="3973955" cy="2699268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1049364</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>1635935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2727327</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>3189641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95075CA-E5A8-41F1-AF1F-BEAAA8F03DBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId144" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2760635" y="355761443"/>
+          <a:ext cx="1677963" cy="1553706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20959,12 +21121,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ223"/>
+  <dimension ref="A1:AJ239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="118" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G220" sqref="G220"/>
+      <selection pane="bottomLeft" activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21041,7 +21203,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>19</v>
+        <v>754</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>20</v>
@@ -28298,7 +28460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:35" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:35" ht="261" x14ac:dyDescent="0.35">
       <c r="A220" s="8" t="s">
         <v>46</v>
       </c>
@@ -28308,24 +28470,146 @@
       <c r="C220" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="D220" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="E220" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G220" s="9">
         <v>42754</v>
       </c>
-    </row>
-    <row r="223" spans="1:35" ht="174" x14ac:dyDescent="0.35">
-      <c r="A223" s="2" t="s">
+      <c r="S220" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:35" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A221" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B221" s="8">
+        <v>106</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G221" s="9">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="222" spans="1:35" ht="253" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B222" s="8">
+        <v>337</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D222" s="23" t="s">
+        <v>753</v>
+      </c>
+      <c r="E222" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G222" s="9">
+        <v>42759</v>
+      </c>
+      <c r="S222" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB222" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE222" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:35" ht="87" x14ac:dyDescent="0.35">
+      <c r="A223" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B223" s="8">
+        <v>222</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D223" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="E223" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G223" s="9">
+        <v>42759</v>
+      </c>
+      <c r="S223" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z223" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:35" ht="203" x14ac:dyDescent="0.35">
+      <c r="A224" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B224" s="8">
+        <v>250</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G224" s="9">
+        <v>42759</v>
+      </c>
+      <c r="K224" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A239" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B239" s="2">
         <v>405</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D223" s="22" t="s">
+      <c r="D239" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="F223" s="22"/>
+      <c r="F239" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28336,10 +28620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI220"/>
+  <dimension ref="A1:AI221"/>
   <sheetViews>
     <sheetView topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221"/>
+      <selection activeCell="A220" sqref="A220:XFD220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40041,10 +40325,109 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A220" s="2" t="s">
+    <row r="220" spans="1:35" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A220" s="8" t="s">
         <v>95</v>
       </c>
+      <c r="B220" s="8">
+        <v>117</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D220" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="E220" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G220" s="9">
+        <v>42754</v>
+      </c>
+      <c r="J220" s="8"/>
+      <c r="K220" s="8"/>
+      <c r="L220" s="8"/>
+      <c r="M220" s="8"/>
+      <c r="N220" s="8"/>
+      <c r="O220" s="8"/>
+      <c r="P220" s="8"/>
+      <c r="Q220" s="8"/>
+      <c r="R220" s="8"/>
+      <c r="S220" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T220" s="8"/>
+      <c r="U220" s="8"/>
+      <c r="V220" s="8"/>
+      <c r="W220" s="8"/>
+      <c r="X220" s="8"/>
+      <c r="Y220" s="8"/>
+      <c r="Z220" s="8"/>
+      <c r="AA220" s="8"/>
+      <c r="AB220" s="8"/>
+      <c r="AC220" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD220" s="8"/>
+      <c r="AE220" s="8"/>
+      <c r="AF220" s="8"/>
+      <c r="AG220" s="8"/>
+      <c r="AH220" s="8"/>
+      <c r="AI220" s="8"/>
+    </row>
+    <row r="221" spans="1:35" ht="232" x14ac:dyDescent="0.35">
+      <c r="A221" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B221" s="8">
+        <v>236</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="E221" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G221" s="9">
+        <v>42754</v>
+      </c>
+      <c r="J221" s="8"/>
+      <c r="K221" s="8"/>
+      <c r="L221" s="8"/>
+      <c r="M221" s="8"/>
+      <c r="N221" s="8"/>
+      <c r="O221" s="8"/>
+      <c r="P221" s="8"/>
+      <c r="Q221" s="8"/>
+      <c r="R221" s="8"/>
+      <c r="S221" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T221" s="8"/>
+      <c r="U221" s="8"/>
+      <c r="V221" s="8"/>
+      <c r="W221" s="8"/>
+      <c r="X221" s="8"/>
+      <c r="Y221" s="8"/>
+      <c r="Z221" s="8"/>
+      <c r="AA221" s="8"/>
+      <c r="AB221" s="8"/>
+      <c r="AC221" s="8"/>
+      <c r="AD221" s="8"/>
+      <c r="AE221" s="8"/>
+      <c r="AF221" s="8"/>
+      <c r="AG221" s="8"/>
+      <c r="AH221" s="8"/>
+      <c r="AI221" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Leetcode record for Shiyun.xlsx
+++ b/Leetcode record for Shiyun.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="777">
   <si>
     <t>Two Pointers</t>
   </si>
@@ -4889,9 +4889,6 @@
     <t>Populating Next Right Pointers in Each Node II</t>
   </si>
   <si>
-    <t>Queue(use list to implement)</t>
-  </si>
-  <si>
     <t>doesn’t have peek()</t>
   </si>
   <si>
@@ -5001,6 +4998,121 @@
 用递归，返回类型boolean,即是否子值等于root值
 注意是比较左右子树返回的boolean用&amp;不是&amp;&amp;
 注意返回true的条件比false苛刻，需要所有子树都是这个值才返回true</t>
+  </si>
+  <si>
+    <t>TreeMap can only sort by the key</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>Given an array nums, write a function to move all 0's to the end of it while maintaining the relative order of the non-zero elements.
+For example, given nums = [0, 1, 0, 3, 12], after calling your function, nums should be [1, 3, 12, 0, 0].
+Note:
+You must do this in-place without making a copy of the array.
+Minimize the total number of operations.</t>
+  </si>
+  <si>
+    <t>Corner case:
+[1,0,1]
+-------------------------
+One pointer for an increasing pointer for position.
+loop once, if number not 0, put it in the pointer's position and increase position by 1
+In the end fill all slots after pointer 0.</t>
+  </si>
+  <si>
+    <t>Given two binary strings, return their sum (also a binary string).
+For example,
+a = "11"
+b = "1"
+Return "100".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">二进制加法的进位可以简单表示为 int sum = numA + numB + carry;
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  res.append(sum % 2);
+            carry = sum / 2;
+十进制的进位就把后面换成10而已</t>
+    </r>
+  </si>
+  <si>
+    <t>Queue(use LinkedList/PQ to implement)</t>
+  </si>
+  <si>
+    <t>Corner case: input node is null.
+ArrayList doesn't implement Queue, LinkedList does
+--------------
+BFS, BE CAREFUL WHEN USING QUEUE, DON'T POLL TWICE!!!!</t>
+  </si>
+  <si>
+    <t>如果用递归，要index 每个level，当前level大于res.size()时加一个新的list在res里</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>Given an array of integers, return indices of the two numbers such that they add up to a specific target.
+You may assume that each input would have exactly one solution, and you may not use the same element twice.
+Example:
+Given nums = [2, 7, 11, 15], target = 9,
+Because nums[0] + nums[1] = 2 + 7 = 9,
+return [0, 1].</t>
+  </si>
+  <si>
+    <t>public ListNode reverseList(ListNode head) {
+        if(head == null) return null;
+        ListNode prev = null, curr = head;
+        while(curr != null) {
+            ListNode next = curr.next;
+            curr.next = prev;
+            //shift back
+            prev = curr;
+            curr = next;
+        }
+        return prev;
+    }</t>
+  </si>
+  <si>
+    <t>A linked list can be reversed either iteratively or recursively. Could you implement both?</t>
+  </si>
+  <si>
+    <t>public boolean hasCycle(ListNode head) {
+        if(head == null) return false; //CORNER CASE!
+        ListNode slow = head, fast = head;
+        while(slow != null &amp;&amp; fast != null &amp;&amp; fast.next != null) {
+            slow = slow.next;
+            fast = fast.next.next;
+            if(slow == fast) return true;
+        }
+        return false;
+    }</t>
+  </si>
+  <si>
+    <t>TLE:
+"aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaab"
+["a","aa","aaa","aaaa","aaaaa","aaaaaa","aaaaaaa","aaaaaaaa","aaaaaaaaa","aaaaaaaaaa"]
+Using backtracking will cause repeat
+Just use an array to store whether substring[0, i] is breakable. 
+Breakable is when the former one is breakable and current sub is in the wordDict
+------
+corner case: "aaaaaaa"
+["aaaa","aaa"]
+-------
+思路一：idx顺序往后，标记该idx之前的是否在字典有
+思路二：dfs时储存，一个n长度的数组，最开始都是-1，dfs时，如果该index往后部分字典没有，标记arr[index]为0，否则为1，遇到arr[i] ！= -1说明已经检测过，直接读数组</t>
   </si>
 </sst>
 </file>
@@ -21123,10 +21235,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="118" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E224" sqref="E224"/>
+      <selection pane="bottomLeft" activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21137,9 +21249,9 @@
     <col min="4" max="4" width="56.6328125" style="22" customWidth="1"/>
     <col min="5" max="5" width="60.36328125" style="12" customWidth="1"/>
     <col min="6" max="6" width="5.7265625" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" style="8" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" style="8" customWidth="1"/>
     <col min="10" max="10" width="11.6328125" style="8" customWidth="1"/>
     <col min="11" max="11" width="5.36328125" style="8" customWidth="1"/>
     <col min="12" max="32" width="10.90625" style="8" customWidth="1"/>
@@ -21203,7 +21315,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>20</v>
@@ -21485,7 +21597,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -21534,7 +21646,7 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -21581,7 +21693,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -21600,6 +21712,12 @@
       </c>
       <c r="G9" s="5">
         <v>42618</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="9">
+        <v>42771</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>5</v>
@@ -21745,14 +21863,23 @@
       <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="D12" s="22" t="s">
+        <v>774</v>
+      </c>
       <c r="E12" s="13" t="s">
-        <v>50</v>
+        <v>773</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="5">
         <v>42624</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="9">
+        <v>42772</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -21782,7 +21909,7 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:36" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" ht="145" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -21796,13 +21923,19 @@
         <v>53</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>54</v>
+        <v>775</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="5">
         <v>42625</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="9">
+        <v>42772</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>5</v>
@@ -22058,7 +22191,7 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -22072,13 +22205,19 @@
         <v>72</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>86</v>
+        <v>768</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G19" s="5">
         <v>42628</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="9">
+        <v>42770</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -22251,7 +22390,7 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -22297,7 +22436,7 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
     </row>
-    <row r="24" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -22382,9 +22521,9 @@
       </c>
       <c r="AF25" s="2"/>
     </row>
-    <row r="26" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2">
         <v>102</v>
@@ -22396,13 +22535,19 @@
         <v>89</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>91</v>
+        <v>769</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="5">
         <v>42632</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="9">
+        <v>42771</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>5</v>
@@ -22484,7 +22629,7 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
     </row>
-    <row r="28" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -22530,7 +22675,7 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
     </row>
-    <row r="29" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -22954,7 +23099,7 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
@@ -22995,7 +23140,7 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
@@ -23043,7 +23188,7 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -23091,7 +23236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -23231,7 +23376,7 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>30</v>
       </c>
@@ -23317,7 +23462,7 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>30</v>
       </c>
@@ -23399,7 +23544,7 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
@@ -23844,7 +23989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>30</v>
       </c>
@@ -23907,7 +24052,7 @@
         <v>42657</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>30</v>
       </c>
@@ -23927,7 +24072,7 @@
         <v>42657</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>30</v>
       </c>
@@ -23976,7 +24121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>30</v>
       </c>
@@ -24054,9 +24199,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2">
         <v>67</v>
@@ -24064,14 +24209,26 @@
       <c r="C72" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="D72" s="22" t="s">
+        <v>765</v>
+      </c>
       <c r="E72" s="13" t="s">
-        <v>203</v>
+        <v>766</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G72" s="9">
         <v>42661</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I72" s="9">
+        <v>42764</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>576</v>
       </c>
       <c r="Q72" s="8" t="s">
         <v>5</v>
@@ -24224,7 +24381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>46</v>
       </c>
@@ -24247,7 +24404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>46</v>
       </c>
@@ -24626,7 +24783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>46</v>
       </c>
@@ -26853,7 +27010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:32" ht="190.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:32" ht="297" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>46</v>
       </c>
@@ -26867,7 +27024,7 @@
         <v>530</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>528</v>
+        <v>776</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>81</v>
@@ -28442,10 +28599,10 @@
         <v>742</v>
       </c>
       <c r="D219" s="22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>32</v>
@@ -28471,10 +28628,10 @@
         <v>66</v>
       </c>
       <c r="D220" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="E220" s="13" t="s">
         <v>747</v>
-      </c>
-      <c r="E220" s="13" t="s">
-        <v>748</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>59</v>
@@ -28494,13 +28651,13 @@
         <v>106</v>
       </c>
       <c r="C221" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D221" s="22" t="s">
         <v>749</v>
       </c>
-      <c r="D221" s="22" t="s">
+      <c r="E221" s="12" t="s">
         <v>750</v>
-      </c>
-      <c r="E221" s="12" t="s">
-        <v>751</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>32</v>
@@ -28517,13 +28674,13 @@
         <v>337</v>
       </c>
       <c r="C222" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D222" s="23" t="s">
         <v>752</v>
       </c>
-      <c r="D222" s="23" t="s">
-        <v>753</v>
-      </c>
       <c r="E222" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>32</v>
@@ -28549,13 +28706,13 @@
         <v>222</v>
       </c>
       <c r="C223" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D223" s="22" t="s">
         <v>756</v>
       </c>
-      <c r="D223" s="22" t="s">
+      <c r="E223" s="13" t="s">
         <v>757</v>
-      </c>
-      <c r="E223" s="13" t="s">
-        <v>758</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>81</v>
@@ -28578,13 +28735,13 @@
         <v>250</v>
       </c>
       <c r="C224" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D224" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="D224" s="13" t="s">
+      <c r="E224" s="13" t="s">
         <v>760</v>
-      </c>
-      <c r="E224" s="13" t="s">
-        <v>761</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>69</v>
@@ -28595,8 +28752,78 @@
       <c r="K224" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="S224" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A225" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B225" s="8">
+        <v>283</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D225" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="E225" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="F225" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G225" s="9">
+        <v>42764</v>
+      </c>
+      <c r="J225" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="M225" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N225" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A226" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B226" s="8">
+        <v>1</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D226" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="F226" s="2"/>
+      <c r="H226" t="s">
+        <v>32</v>
+      </c>
+      <c r="I226" s="28">
+        <v>42771</v>
+      </c>
+      <c r="J226" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="L226" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A227" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B227" s="8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="174" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>30</v>
       </c>
@@ -28620,10 +28847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI221"/>
+  <dimension ref="A1:AI231"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220:XFD220"/>
+    <sheetView topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40336,10 +40563,10 @@
         <v>742</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>32</v>
@@ -40389,10 +40616,10 @@
         <v>66</v>
       </c>
       <c r="D221" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="E221" s="13" t="s">
         <v>747</v>
-      </c>
-      <c r="E221" s="13" t="s">
-        <v>748</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>59</v>
@@ -40429,6 +40656,162 @@
       <c r="AH221" s="8"/>
       <c r="AI221" s="8"/>
     </row>
+    <row r="222" spans="1:35" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A222" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B222" s="8">
+        <v>106</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D222" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="E222" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G222" s="9">
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="223" spans="1:35" ht="116" x14ac:dyDescent="0.35">
+      <c r="A223" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B223" s="8">
+        <v>337</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D223" s="23" t="s">
+        <v>752</v>
+      </c>
+      <c r="E223" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G223" s="9">
+        <v>42759</v>
+      </c>
+    </row>
+    <row r="224" spans="1:35" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A224" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B224" s="8">
+        <v>222</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D224" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G224" s="9">
+        <v>42759</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A225" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B225" s="8">
+        <v>250</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D225" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="E225" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G225" s="9">
+        <v>42759</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B227" s="8">
+        <v>67</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G227" s="28">
+        <v>42764</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B228" s="8">
+        <v>107</v>
+      </c>
+      <c r="G228" s="28">
+        <v>42770</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B229" s="8">
+        <v>102</v>
+      </c>
+      <c r="G229" s="28">
+        <v>42771</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B230" s="8">
+        <v>206</v>
+      </c>
+      <c r="F230" t="s">
+        <v>32</v>
+      </c>
+      <c r="G230" s="28">
+        <v>42771</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B231" s="8">
+        <v>141</v>
+      </c>
+      <c r="F231" t="s">
+        <v>69</v>
+      </c>
+      <c r="G231" s="28">
+        <v>42772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -40440,7 +40823,7 @@
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40482,9 +40865,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>195</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="171" customHeight="1" x14ac:dyDescent="0.35">
@@ -40530,7 +40916,7 @@
     </row>
     <row r="9" spans="2:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>729</v>
@@ -40549,7 +40935,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
